--- a/PowerBI_Analyze Customer Segmentation of An Online Retailer/Design Thinking Plan.xlsx
+++ b/PowerBI_Analyze Customer Segmentation of An Online Retailer/Design Thinking Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e54188d0dac2277/Học tập/Unigap - DAC - K23/PowerBI Module/Unigap/Project/Final Project/K23 Nguyễn Thế Đạt Final Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e54188d0dac2277/Công việc/Github Portfolio Content/Portfolio Project/PowerBI_Analyze Customer Segmentation of An Online Retailer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="326" documentId="8_{2857A067-0405-452F-A104-00AED0824BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38997134-3590-449F-AD37-45D6F18B7D40}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{5DD9F5B5-3BCC-45B0-9B3D-A2B772B5B698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F6E91D4-45E0-428E-ACD8-F36E51A76F2C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="356">
   <si>
     <t>Design Thinking for Data Visualization: A Practical Guide for Data Analysts</t>
   </si>
@@ -1420,43 +1420,8 @@
 Sales Person (SP)</t>
   </si>
   <si>
-    <t xml:space="preserve">_Giúp SP biết được RFM của khách hàng
-_Năm được KH nào đang tiêu nhiều nhất
-_Qua đó cải thiện được performance của họ
-</t>
-  </si>
-  <si>
     <t>_Everyday vào buổi sáng, và vào cuối ngày khi lên kế hoạch cho ngày kế tiếp.
 _Bằng laptop và Handheld PC chạy Windows Microsoft CE</t>
-  </si>
-  <si>
-    <t>Cải thiện hiệu suất bán hàng thông qua việc nắm bắt được RFM của khách hàng, và nắm được khách hàng nào đang chi tiêu nhiều và thường xuyên nhất để focus.</t>
-  </si>
-  <si>
-    <t>Improve performance</t>
-  </si>
-  <si>
-    <t>_Làm thế nào để cải thiện hiệu suất?
-_RFM của khách hàng như nào?
-_Khách hàng nào đang chi tiêu nhiều tiền nhất each product lines?
-_Làm thế nào để có thể nắm được những điều kể trên?</t>
-  </si>
-  <si>
-    <t>_Những người bán hàng nhận thấy rằng nếu có thể nắm được hành vi tiêu dùng của khách hàng có thể giúp họ cải thiện được doanh thu.</t>
-  </si>
-  <si>
-    <t>_Nếu nắm được hanh vi mua sắm của khách hàng có thể giúp họ cải thiện doanh thu
-_Khách hàng nào đang tiêu nhiều tiên nhất?
-_Sản phẩm nào đang phổ biến nhất theo từng nhóm khách hàng?</t>
-  </si>
-  <si>
-    <t>_Không có công cụ để đánh giá và theo dõi hành vi mua sắm của khách hàng.
-_Không biết nên tập trung vào nhóm khách hàng nào.
-_Không biết nên tập trung vào nhóm sản phẩm nào.</t>
-  </si>
-  <si>
-    <t>_Cải thiện được doanh số nếu nắm được hành vi mua sắm của khách hàng.
-_Tối ưu được chi phí vận hành, marketing khi focus được vào đúng nhóm khách hàng, và lên kế hoạch đúng cho các sản phẩm tiềm năng.</t>
   </si>
   <si>
     <t xml:space="preserve">- Table 1: SalesTable - Fact
@@ -1478,129 +1443,24 @@
 _Dữ liệu về phân loại dựa trên RFM</t>
   </si>
   <si>
-    <t>Cập nhật dữ liệu bán hàng từ văn phòng khu vực</t>
-  </si>
-  <si>
-    <t>Theo dõi chỉ số RFM để đưa ra đề xuất phù hợp cho từng nhóm khách hàng/từng khách hàng cụ thể</t>
-  </si>
-  <si>
-    <t>Theo dõi sự thay đổi của các chỉ số và tiếp tục thay đổi</t>
-  </si>
-  <si>
     <t>Frequency</t>
   </si>
   <si>
     <t>Revenue</t>
   </si>
   <si>
-    <t>Average Revenue &gt; 4</t>
-  </si>
-  <si>
-    <t>Vì đây là mục tiêu đích của một nhân viên bán hàng hay một cửa hàng.</t>
-  </si>
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>Customer/Product</t>
-  </si>
-  <si>
-    <t>Revenue = #Footfall * CVR * #Item * Unit Price</t>
-  </si>
-  <si>
     <t>%Growth vs LY</t>
   </si>
   <si>
-    <t>Recency</t>
-  </si>
-  <si>
-    <t>Recency &lt; 30</t>
-  </si>
-  <si>
-    <t>Giảm thời gian phát sinh giao dịch của một khách hàng xuống qua đó tăng Frequency và cơ hôi tăng doanh thu</t>
-  </si>
-  <si>
-    <t>Recency = Gap between LastTransaction vs Today</t>
-  </si>
-  <si>
-    <t>Revenue = Frequency * Recency * APT</t>
-  </si>
-  <si>
-    <t>Revenue = Total Revenue by Segment</t>
-  </si>
-  <si>
-    <t>Revenue = Total Revenue by Product</t>
-  </si>
-  <si>
-    <t>Hiệu quả bán hàng mỗi lần khách hàng visit</t>
-  </si>
-  <si>
-    <t>Doanh thu theo mỗi RFM Segment</t>
-  </si>
-  <si>
-    <t>Doanh thu theo mỗi Product Category</t>
-  </si>
-  <si>
-    <t>Revenue = SUM(Revenue[Segment])</t>
-  </si>
-  <si>
-    <t>Revenue = SUM(Revenue[Product Category] or [Sub-Category])</t>
-  </si>
-  <si>
-    <t>Recency by Segment</t>
-  </si>
-  <si>
-    <t>Recency by Segment by Time</t>
-  </si>
-  <si>
     <t xml:space="preserve">Revenue </t>
   </si>
   <si>
     <t>Revenue by Segment</t>
   </si>
   <si>
-    <t>Revenue by Segment by Times</t>
-  </si>
-  <si>
     <t>Transactions</t>
   </si>
   <si>
-    <t>%Growth vs LY by Segment</t>
-  </si>
-  <si>
-    <t>Transactions by Segment</t>
-  </si>
-  <si>
-    <t>Khách hàng sẽ mất bao lâu để tiếp tục quay lại thực hiện giao dịch</t>
-  </si>
-  <si>
-    <t>Nhóm khách hàng nào đang có giao dịch thường xuyên nhất</t>
-  </si>
-  <si>
-    <t>Nhóm khách hàng đó có những đặc điểm gì chung, và họ thường mua những dòng sản phẩm gì, demographic của họ ra sao,…</t>
-  </si>
-  <si>
-    <t>Doanh thu có đang tăng trưởng hay không</t>
-  </si>
-  <si>
-    <t>Nhóm nào đóng góp nhiều nhất vào tăng trưởng doanh thu</t>
-  </si>
-  <si>
-    <t>Doanh thu so với năm với rồi tăng hay giảm</t>
-  </si>
-  <si>
-    <t>Nhóm nào tăng nhiều nhất</t>
-  </si>
-  <si>
-    <t>Lí do tại sao lại tăng</t>
-  </si>
-  <si>
-    <t>Số lượng giao dịch là bao nhiêu</t>
-  </si>
-  <si>
-    <t>Số lượng giao dịch của mỗi nhóm khách hàng</t>
-  </si>
-  <si>
     <t>Chưa biết cách visual những ý tưởng đang có</t>
   </si>
   <si>
@@ -1608,13 +1468,185 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Take orders during customer visits by laptop or handheld PC</t>
+  </si>
+  <si>
+    <t>Set up appointments for the following day or week.</t>
+  </si>
+  <si>
+    <t>Check appointments of others sale for collab and updates the contract list.</t>
+  </si>
+  <si>
+    <t>Dials back to regional office to update information, and receive any new internal communications from base office or regional office.</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>_Align with the company goals.
+_Reflect customer value and sale efficient.</t>
+  </si>
+  <si>
+    <t>_Reflect business viability.
+_Inform strategic decisions.</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Revenue by Product Category /SubCategory/ Product Name</t>
+  </si>
+  <si>
+    <t>Gross Profit by Segment</t>
+  </si>
+  <si>
+    <t>Gross Profit by Product Category /SubCategory/ Product Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gross Profit </t>
+  </si>
+  <si>
+    <t>Gross Profit by Segment
+Gross Profit by Product</t>
+  </si>
+  <si>
+    <t>Gross Profit by Segment by Time
+Gross Profit by Product by Time</t>
+  </si>
+  <si>
+    <t>Revenue by Segment
+Revenue by Product</t>
+  </si>
+  <si>
+    <t>Revenue by Segment by Time
+Revenue by Product by Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%Growth </t>
+  </si>
+  <si>
+    <t>%Growth by Segment
+%Growth by Product</t>
+  </si>
+  <si>
+    <t>%Growth by Segment by Time
+%Growth by Product by Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transactions </t>
+  </si>
+  <si>
+    <t>Transactions by Segment
+Transactions by Product</t>
+  </si>
+  <si>
+    <t>Transactions by Segment by Time
+Transactions by Product by Time</t>
+  </si>
+  <si>
+    <t>Nhóm nào đóng góp nhiều nhất vào Lợi nhuận gộp
+Dòng sản phẩm nào đóng góp nhiều nhất vào Lợi nhuận gộp</t>
+  </si>
+  <si>
+    <t>Nhóm nào đóng góp nhiều nhất vào Doanh thu
+Dòng sản phẩm nào đóng góp nhiều nhất vào Doanh thu</t>
+  </si>
+  <si>
+    <t>Nhóm nào tăng trưởng doanh thu tốt nhất
+Dòng sản phẩm nào tăng trưởng tốt nhất</t>
+  </si>
+  <si>
+    <t>Nhóm nào có nhiều giao dịch nhất
+Sản phẩm nào có nhiều giao dịch nhất</t>
+  </si>
+  <si>
+    <t>Nhóm đó thường mua mặt hàng gì và hành vi mua hàng của nhóm khách hàng đó là gì (Theo demographic, theo psychologic)</t>
+  </si>
+  <si>
+    <t>Điều gì tác động được đến hành vi mua hàng của nhóm này mà chúng ta có thể tác động được?
+Dòng sản phẩm nào đang làm tốt và dòng sản phẩm nào làm chưa tốt, liệu chúng ta có thể cải thiện hay không?</t>
+  </si>
+  <si>
+    <t>_Classify customers based on RFM method
+_Best spending segment on overall product line.
+_Segment to focus on building long-term relationship
+_Product popularity among customer segment.
+_Product and Segment performance by time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Improve sales performance by apply appropiate marketing or sales strategies on each segment.
+_Building line of loyal customer.
+_Evaluate product favor and popularity across product category
+</t>
+  </si>
+  <si>
+    <t>Enhance sales performance by analyzing customers’ RFM (Recency, Frequency, Monetary) metrics to identify high-value and frequent buyers, thereby enabling targeted focus and strategic engagement.</t>
+  </si>
+  <si>
+    <t>_ Investigate segment and product revenue and gross profit by time, and region.</t>
+  </si>
+  <si>
+    <t>_How to improve performance?
+_What is the RFM profile of each customer?
+_Which customers are spending the most money on each product line?
+_How can we gain insights into all of the above?</t>
+  </si>
+  <si>
+    <t>_Sales representatives have recognized that gaining insights into customer purchasing behavior can significantly enhance their sales performance and revenue.</t>
+  </si>
+  <si>
+    <t>_Understanding customer purchasing behavior can contribute significantly to improving gross profit.
+_Which customers are generating the highest spending?
+_Which products are the most popular within each customer segment?</t>
+  </si>
+  <si>
+    <t>_There is a lack of tools to evaluate and monitor customer purchasing behavior.
+_There is no clear insight into which customer segments should be prioritized.
+_There is uncertainty regarding which product groups to focus on.</t>
+  </si>
+  <si>
+    <t>_Sales performance can be improved by gaining a clear understanding of customer purchasing behavior.
+_Operational and marketing costs can be optimized by focusing on the right customer segments and planning effectively for high-potential products.</t>
+  </si>
+  <si>
+    <t>Retrieve updated inventory, product, and promotion data from the regional office.</t>
+  </si>
+  <si>
+    <t>_Đánh giá giá trị và chi tiêu trung bình, nắm rõ hành vi mua sắm và chi tiêu của khách hàng</t>
+  </si>
+  <si>
+    <t>_Product performance?
+_Product profitable?
+_Which product loss/profit?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Revenue &amp; Avg Rev performance by Segment.
+_%YoY growth by Segment
+_Segment spent per Product </t>
+  </si>
+  <si>
+    <t>_Đánh giá hiệu suất lợi nhuận và dòng sản phẩm nào đang có hiệu suất cả về profit lẫn revenue tốt nhất. Qua đó lên kế hoạch tập trung và cải thiện các sản phẩm chưa tốt</t>
+  </si>
+  <si>
+    <t>Segment Performance</t>
+  </si>
+  <si>
+    <t>Product Performance</t>
+  </si>
+  <si>
+    <t>Positive growth over time</t>
+  </si>
+  <si>
+    <t>Profitable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1988,8 +2020,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2006,12 +2046,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFAFAFA"/>
         <bgColor rgb="FFFAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0B5394"/>
-        <bgColor rgb="FF0B5394"/>
       </patternFill>
     </fill>
     <fill>
@@ -2066,6 +2100,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFCE5CD"/>
         <bgColor rgb="FFFCE5CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor rgb="FF0B5394"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2260,7 +2306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2275,11 +2321,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2289,9 +2332,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2302,24 +2342,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2328,43 +2362,43 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2377,196 +2411,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="48" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2575,120 +2497,258 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3435,6 +3495,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -3638,18 +3702,18 @@
   </sheetPr>
   <dimension ref="A1:Z104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="H91" sqref="H91:J91"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
     <col min="8" max="8" width="19.85546875" customWidth="1"/>
     <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.140625" customWidth="1"/>
@@ -3660,70 +3724,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="105"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="107"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="56"/>
     </row>
     <row r="4" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="108"/>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="105"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="53"/>
     </row>
     <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="105"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="53"/>
     </row>
     <row r="6" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
@@ -3732,99 +3796,99 @@
       <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="50"/>
     </row>
     <row r="9" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="60" t="s">
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="46" t="s">
+      <c r="L9" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="60" t="s">
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="S9" s="116" t="s">
+      <c r="S9" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
     </row>
     <row r="10" spans="1:21" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="79" t="s">
+      <c r="B10" s="75"/>
+      <c r="C10" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="50" t="s">
+      <c r="D10" s="75"/>
+      <c r="E10" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="79" t="s">
+      <c r="F10" s="91"/>
+      <c r="G10" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="61"/>
-      <c r="I10" s="50" t="s">
+      <c r="H10" s="91"/>
+      <c r="I10" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="93" t="s">
+      <c r="J10" s="75"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="45"/>
-      <c r="N10" s="93" t="s">
+      <c r="M10" s="75"/>
+      <c r="N10" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="45"/>
-      <c r="P10" s="93" t="s">
+      <c r="O10" s="75"/>
+      <c r="P10" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="41" t="s">
+      <c r="Q10" s="75"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="37" t="s">
         <v>293</v>
       </c>
       <c r="T10" s="5" t="s">
@@ -3834,39 +3898,41 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="80" t="s">
+    <row r="11" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="92" t="s">
         <v>297</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="82" t="s">
+      <c r="B11" s="64"/>
+      <c r="C11" s="61" t="s">
+        <v>338</v>
+      </c>
+      <c r="D11" s="65"/>
+      <c r="E11" s="93" t="s">
         <v>298</v>
       </c>
-      <c r="D11" s="83"/>
-      <c r="E11" s="84" t="s">
-        <v>299</v>
-      </c>
-      <c r="F11" s="85"/>
-      <c r="G11" s="86" t="s">
-        <v>301</v>
-      </c>
-      <c r="H11" s="87"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="91" t="s">
-        <v>302</v>
-      </c>
-      <c r="M11" s="92"/>
-      <c r="N11" s="95" t="s">
-        <v>303</v>
-      </c>
-      <c r="O11" s="96"/>
-      <c r="P11" s="95" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q11" s="113"/>
-      <c r="R11" s="45"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="61" t="s">
+        <v>339</v>
+      </c>
+      <c r="H11" s="95"/>
+      <c r="I11" s="61" t="s">
+        <v>341</v>
+      </c>
+      <c r="J11" s="62"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="M11" s="67"/>
+      <c r="N11" s="61" t="s">
+        <v>343</v>
+      </c>
+      <c r="O11" s="81"/>
+      <c r="P11" s="61" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="55"/>
       <c r="S11" s="6">
         <v>11</v>
       </c>
@@ -3877,235 +3943,239 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="81"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="113"/>
-      <c r="Q12" s="113"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="117" t="s">
+    <row r="12" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="64"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-    </row>
-    <row r="13" spans="1:21" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="50" t="s">
+      <c r="T12" s="55"/>
+      <c r="U12" s="55"/>
+    </row>
+    <row r="13" spans="1:21" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="90" t="s">
+      <c r="B13" s="75"/>
+      <c r="C13" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="93" t="s">
+      <c r="D13" s="75"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="45"/>
-      <c r="N13" s="99" t="s">
+      <c r="M13" s="75"/>
+      <c r="N13" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="O13" s="61"/>
-      <c r="P13" s="100" t="s">
+      <c r="O13" s="69"/>
+      <c r="P13" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="109" t="s">
-        <v>307</v>
-      </c>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-    </row>
-    <row r="14" spans="1:21" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="111" t="s">
+      <c r="Q13" s="75"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="60" t="s">
+        <v>299</v>
+      </c>
+      <c r="T13" s="55"/>
+      <c r="U13" s="55"/>
+    </row>
+    <row r="14" spans="1:21" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="63" t="s">
         <v>297</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="86" t="s">
+      <c r="B14" s="64"/>
+      <c r="C14" s="61" t="s">
+        <v>340</v>
+      </c>
+      <c r="D14" s="65"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="M14" s="67"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="55"/>
+    </row>
+    <row r="15" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="64"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="T15" s="69"/>
+      <c r="U15" s="69"/>
+    </row>
+    <row r="16" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="69"/>
+    </row>
+    <row r="17" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="64"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q17" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="R17" s="55"/>
+      <c r="S17" s="71" t="s">
         <v>300</v>
       </c>
-      <c r="D14" s="112"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="59" t="s">
-        <v>305</v>
-      </c>
-      <c r="M14" s="92"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="59" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q14" s="92"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-    </row>
-    <row r="15" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="81"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="92"/>
-      <c r="Q15" s="92"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="114" t="s">
-        <v>27</v>
-      </c>
-      <c r="T15" s="61"/>
-      <c r="U15" s="61"/>
-    </row>
-    <row r="16" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="81"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="61"/>
-      <c r="T16" s="61"/>
-      <c r="U16" s="61"/>
-    </row>
-    <row r="17" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="81"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="R17" s="45"/>
-      <c r="S17" s="115" t="s">
-        <v>308</v>
-      </c>
-      <c r="T17" s="61"/>
-      <c r="U17" s="61"/>
-    </row>
-    <row r="18" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="81"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="59" t="s">
-        <v>309</v>
-      </c>
-      <c r="M18" s="59" t="s">
+      <c r="T17" s="69"/>
+      <c r="U17" s="69"/>
+    </row>
+    <row r="18" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="64"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="66" t="s">
+        <v>347</v>
+      </c>
+      <c r="M18" s="66" t="s">
         <v>310</v>
       </c>
-      <c r="N18" s="59" t="s">
+      <c r="N18" s="66" t="s">
         <v>311</v>
       </c>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="61"/>
-      <c r="T18" s="61"/>
-      <c r="U18" s="61"/>
+      <c r="O18" s="66" t="s">
+        <v>312</v>
+      </c>
+      <c r="P18" s="66" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="69"/>
+      <c r="U18" s="69"/>
     </row>
     <row r="19" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K19" s="45"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="92"/>
-      <c r="Q19" s="92"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="61"/>
-      <c r="T19" s="61"/>
-      <c r="U19" s="61"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="69"/>
     </row>
     <row r="20" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K20" s="45"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="92"/>
-      <c r="N20" s="92"/>
-      <c r="O20" s="92"/>
-      <c r="P20" s="92"/>
-      <c r="Q20" s="92"/>
-      <c r="R20" s="45"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="55"/>
     </row>
     <row r="21" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
@@ -4113,384 +4183,380 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="50"/>
     </row>
     <row r="24" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="60" t="s">
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="62" t="s">
+      <c r="F24" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="60" t="s">
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="L24" s="62" t="s">
+      <c r="L24" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
     </row>
     <row r="25" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="101" t="s">
+      <c r="A25" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="101" t="s">
+      <c r="B25" s="55"/>
+      <c r="C25" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="45"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="94" t="s">
+      <c r="D25" s="55"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I25" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="K25" s="45"/>
-      <c r="L25" s="98" t="s">
+      <c r="K25" s="55"/>
+      <c r="L25" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="75"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:26" ht="24" x14ac:dyDescent="0.2">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="50" t="s">
+      <c r="B26" s="75"/>
+      <c r="C26" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="H26" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="I26" s="42" t="s">
-        <v>313</v>
-      </c>
-      <c r="J26" s="42" t="s">
-        <v>313</v>
-      </c>
-      <c r="K26" s="45"/>
-      <c r="L26" s="11" t="s">
+      <c r="D26" s="75"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="H26" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="I26" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="J26" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="K26" s="55"/>
+      <c r="L26" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M26" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
+      <c r="M26" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:26" ht="24" x14ac:dyDescent="0.2">
-      <c r="A27" s="88" t="s">
-        <v>320</v>
-      </c>
-      <c r="B27" s="77"/>
-      <c r="C27" s="88" t="s">
-        <v>313</v>
-      </c>
-      <c r="D27" s="77"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="42" t="s">
+      <c r="A27" s="96" t="s">
+        <v>302</v>
+      </c>
+      <c r="B27" s="97"/>
+      <c r="C27" s="96" t="s">
+        <v>314</v>
+      </c>
+      <c r="D27" s="97"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="38" t="s">
         <v>294</v>
       </c>
-      <c r="H27" s="43" t="s">
-        <v>316</v>
-      </c>
-      <c r="I27" s="42" t="s">
+      <c r="H27" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="I27" s="38" t="s">
         <v>294</v>
       </c>
-      <c r="J27" s="42" t="s">
+      <c r="J27" s="38" t="s">
         <v>317</v>
       </c>
-      <c r="K27" s="45"/>
-      <c r="L27" s="11" t="s">
+      <c r="K27" s="55"/>
+      <c r="L27" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="M27" s="97"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="96"/>
+      <c r="M27" s="82" t="s">
+        <v>318</v>
+      </c>
+      <c r="N27" s="81"/>
+      <c r="O27" s="81"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="77"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="61"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="11" t="s">
+      <c r="A28" s="97"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="69"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="M28" s="44"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
+      <c r="M28" s="83"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="77"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="12" t="s">
+      <c r="A29" s="97"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="G29" s="89" t="s">
+      <c r="G29" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="H29" s="45"/>
-      <c r="I29" s="89" t="s">
+      <c r="H29" s="75"/>
+      <c r="I29" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="11" t="s">
+      <c r="J29" s="75"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="M29" s="44"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="81"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="77"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="74" t="s">
+      <c r="A30" s="97"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="G30" s="75" t="s">
-        <v>324</v>
-      </c>
-      <c r="H30" s="64"/>
-      <c r="I30" s="75" t="s">
-        <v>327</v>
-      </c>
-      <c r="J30" s="64"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
+      <c r="G30" s="76" t="s">
+        <v>350</v>
+      </c>
+      <c r="H30" s="77"/>
+      <c r="I30" s="78" t="s">
+        <v>348</v>
+      </c>
+      <c r="J30" s="67"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="50" t="s">
+    <row r="31" spans="1:26" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="50" t="s">
+      <c r="B31" s="75"/>
+      <c r="C31" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="45"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="98" t="s">
+      <c r="D31" s="75"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
+      <c r="M31" s="75"/>
+      <c r="N31" s="75"/>
+      <c r="O31" s="75"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
     </row>
-    <row r="32" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="63" t="s">
-        <v>321</v>
-      </c>
-      <c r="B32" s="64"/>
-      <c r="C32" s="63" t="s">
-        <v>314</v>
-      </c>
-      <c r="D32" s="64"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="74" t="s">
+    <row r="32" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="122" t="s">
+        <v>354</v>
+      </c>
+      <c r="B32" s="105"/>
+      <c r="C32" s="122" t="s">
+        <v>355</v>
+      </c>
+      <c r="D32" s="105"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="G32" s="75" t="s">
-        <v>325</v>
-      </c>
-      <c r="H32" s="64"/>
-      <c r="I32" s="75" t="s">
-        <v>328</v>
-      </c>
-      <c r="J32" s="64"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="11" t="s">
+      <c r="G32" s="76" t="s">
+        <v>349</v>
+      </c>
+      <c r="H32" s="77"/>
+      <c r="I32" s="78" t="s">
+        <v>351</v>
+      </c>
+      <c r="J32" s="67"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M32" s="44" t="s">
-        <v>318</v>
-      </c>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
+      <c r="M32" s="83" t="s">
+        <v>319</v>
+      </c>
+      <c r="N32" s="55"/>
+      <c r="O32" s="55"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
     </row>
-    <row r="33" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="64"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="64"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="11" t="s">
+    <row r="33" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="105"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="M33" s="44" t="s">
-        <v>330</v>
-      </c>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
+      <c r="M33" s="82" t="s">
+        <v>320</v>
+      </c>
+      <c r="N33" s="81"/>
+      <c r="O33" s="81"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="64"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="74" t="s">
+      <c r="A34" s="105"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="G34" s="76" t="s">
-        <v>326</v>
-      </c>
-      <c r="H34" s="77"/>
-      <c r="I34" s="76" t="s">
-        <v>329</v>
-      </c>
-      <c r="J34" s="77"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="11" t="s">
+      <c r="G34" s="104"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="104"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="M34" s="44" t="s">
-        <v>331</v>
-      </c>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45"/>
+      <c r="M34" s="83"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="55"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="64"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="11" t="s">
+      <c r="A35" s="105"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="M35" s="44"/>
-      <c r="N35" s="45"/>
-      <c r="O35" s="45"/>
+      <c r="M35" s="83"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="55"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="50" t="s">
+    <row r="36" spans="1:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="51" t="s">
+      <c r="B36" s="75"/>
+      <c r="C36" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="45"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="74" t="s">
+      <c r="D36" s="127"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="G36" s="78"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="78"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="13"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="104"/>
+      <c r="J36" s="105"/>
+      <c r="K36" s="11"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
@@ -4499,87 +4565,87 @@
       <c r="Q36" s="3"/>
     </row>
     <row r="37" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="53" t="s">
-        <v>322</v>
-      </c>
-      <c r="B37" s="64"/>
-      <c r="C37" s="53" t="s">
+      <c r="A37" s="106" t="s">
         <v>315</v>
       </c>
-      <c r="D37" s="64"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="13"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="106" t="s">
+        <v>316</v>
+      </c>
+      <c r="D37" s="105"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="105"/>
+      <c r="K37" s="11"/>
     </row>
     <row r="38" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="64"/>
-      <c r="B38" s="64"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="13"/>
+      <c r="A38" s="105"/>
+      <c r="B38" s="105"/>
+      <c r="C38" s="105"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="11"/>
     </row>
     <row r="39" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="16"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="13"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="11"/>
     </row>
     <row r="40" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="48"/>
-      <c r="Q40" s="49"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="49"/>
+      <c r="Q40" s="50"/>
     </row>
     <row r="41" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="60" t="s">
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="G41" s="46" t="s">
+      <c r="G41" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="55"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
@@ -4588,25 +4654,25 @@
       <c r="Q41" s="4"/>
     </row>
     <row r="42" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="65" t="s">
+      <c r="A42" s="123" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="53" t="s">
+      <c r="B42" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="54" t="s">
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="128" t="s">
         <v>65</v>
       </c>
-      <c r="H42" s="53" t="s">
+      <c r="H42" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="55"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
@@ -4615,17 +4681,17 @@
       <c r="Q42" s="4"/>
     </row>
     <row r="43" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="45"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="45"/>
-      <c r="K43" s="45"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="55"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
@@ -4634,17 +4700,17 @@
       <c r="Q43" s="4"/>
     </row>
     <row r="44" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="45"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="45"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
@@ -4653,38 +4719,38 @@
       <c r="Q44" s="4"/>
     </row>
     <row r="45" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="66" t="s">
+      <c r="A45" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="52" t="s">
+      <c r="C45" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="52" t="s">
+      <c r="D45" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="E45" s="52" t="s">
+      <c r="E45" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="F45" s="45"/>
-      <c r="H45" s="17" t="s">
+      <c r="F45" s="55"/>
+      <c r="H45" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="I45" s="17" t="s">
+      <c r="I45" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="J45" s="17" t="s">
+      <c r="J45" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="K45" s="17" t="s">
+      <c r="K45" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="L45" s="17" t="s">
+      <c r="L45" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="M45" s="17" t="s">
+      <c r="M45" s="46" t="s">
         <v>78</v>
       </c>
       <c r="N45" s="4"/>
@@ -4693,907 +4759,1026 @@
       <c r="Q45" s="4"/>
     </row>
     <row r="46" spans="1:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="45"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="18" t="s">
+      <c r="A46" s="75"/>
+      <c r="B46" s="75"/>
+      <c r="C46" s="75"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="H46" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="I46" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="J46" s="19" t="s">
+      <c r="H46" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="I46" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="J46" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="K46" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
+      <c r="K46" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
     </row>
     <row r="47" spans="1:17" ht="24" x14ac:dyDescent="0.2">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="17" t="s">
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="H47" s="52" t="s">
+      <c r="H47" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="I47" s="45"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="52" t="s">
+      <c r="I47" s="75"/>
+      <c r="J47" s="75"/>
+      <c r="K47" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="L47" s="45"/>
-      <c r="M47" s="45"/>
-      <c r="N47" s="52" t="s">
+      <c r="L47" s="75"/>
+      <c r="M47" s="75"/>
+      <c r="N47" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="O47" s="45"/>
-      <c r="P47" s="45"/>
-      <c r="Q47" s="17" t="s">
+      <c r="O47" s="75"/>
+      <c r="P47" s="75"/>
+      <c r="Q47" s="46" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="55" t="s">
+    <row r="48" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="82" t="s">
+        <v>352</v>
+      </c>
+      <c r="B48" s="100" t="s">
+        <v>304</v>
+      </c>
+      <c r="C48" s="101" t="s">
+        <v>324</v>
+      </c>
+      <c r="D48" s="101" t="s">
+        <v>325</v>
+      </c>
+      <c r="E48" s="100"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="55" t="s">
-        <v>320</v>
-      </c>
-      <c r="C48" s="55" t="s">
+      <c r="H48" s="101" t="s">
+        <v>333</v>
+      </c>
+      <c r="I48" s="102"/>
+      <c r="J48" s="102"/>
+      <c r="K48" s="101" t="s">
+        <v>336</v>
+      </c>
+      <c r="L48" s="102"/>
+      <c r="M48" s="102"/>
+      <c r="N48" s="101" t="s">
+        <v>337</v>
+      </c>
+      <c r="O48" s="102"/>
+      <c r="P48" s="102"/>
+      <c r="Q48" s="109"/>
+    </row>
+    <row r="49" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="125"/>
+      <c r="B49" s="108"/>
+      <c r="C49" s="100"/>
+      <c r="D49" s="101"/>
+      <c r="E49" s="108"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="102"/>
+      <c r="I49" s="102"/>
+      <c r="J49" s="102"/>
+      <c r="K49" s="102"/>
+      <c r="L49" s="102"/>
+      <c r="M49" s="102"/>
+      <c r="N49" s="102"/>
+      <c r="O49" s="102"/>
+      <c r="P49" s="102"/>
+      <c r="Q49" s="108"/>
+    </row>
+    <row r="50" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="125"/>
+      <c r="B50" s="108"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="101"/>
+      <c r="E50" s="108"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="102"/>
+      <c r="I50" s="102"/>
+      <c r="J50" s="102"/>
+      <c r="K50" s="102"/>
+      <c r="L50" s="102"/>
+      <c r="M50" s="102"/>
+      <c r="N50" s="102"/>
+      <c r="O50" s="102"/>
+      <c r="P50" s="102"/>
+      <c r="Q50" s="108"/>
+    </row>
+    <row r="51" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="82" t="s">
+        <v>352</v>
+      </c>
+      <c r="B51" s="100" t="s">
+        <v>321</v>
+      </c>
+      <c r="C51" s="101" t="s">
+        <v>322</v>
+      </c>
+      <c r="D51" s="101" t="s">
+        <v>323</v>
+      </c>
+      <c r="E51" s="100"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="100" t="s">
+        <v>52</v>
+      </c>
+      <c r="H51" s="101" t="s">
         <v>332</v>
       </c>
-      <c r="D48" s="53" t="s">
-        <v>333</v>
-      </c>
-      <c r="E48" s="55"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="55" t="s">
+      <c r="I51" s="102"/>
+      <c r="J51" s="102"/>
+      <c r="K51" s="101"/>
+      <c r="L51" s="102"/>
+      <c r="M51" s="102"/>
+      <c r="N51" s="100"/>
+      <c r="O51" s="108"/>
+      <c r="P51" s="108"/>
+      <c r="Q51" s="109"/>
+    </row>
+    <row r="52" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="125"/>
+      <c r="B52" s="108"/>
+      <c r="C52" s="100"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="108"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="102"/>
+      <c r="I52" s="102"/>
+      <c r="J52" s="102"/>
+      <c r="K52" s="102"/>
+      <c r="L52" s="102"/>
+      <c r="M52" s="102"/>
+      <c r="N52" s="108"/>
+      <c r="O52" s="108"/>
+      <c r="P52" s="108"/>
+      <c r="Q52" s="108"/>
+    </row>
+    <row r="53" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="125"/>
+      <c r="B53" s="108"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="101"/>
+      <c r="E53" s="108"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="102"/>
+      <c r="I53" s="102"/>
+      <c r="J53" s="102"/>
+      <c r="K53" s="102"/>
+      <c r="L53" s="102"/>
+      <c r="M53" s="102"/>
+      <c r="N53" s="108"/>
+      <c r="O53" s="108"/>
+      <c r="P53" s="108"/>
+      <c r="Q53" s="108"/>
+    </row>
+    <row r="54" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="82" t="s">
+        <v>353</v>
+      </c>
+      <c r="B54" s="100" t="s">
+        <v>326</v>
+      </c>
+      <c r="C54" s="101" t="s">
+        <v>327</v>
+      </c>
+      <c r="D54" s="101" t="s">
+        <v>328</v>
+      </c>
+      <c r="E54" s="100"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="100" t="s">
+        <v>53</v>
+      </c>
+      <c r="H54" s="101" t="s">
+        <v>334</v>
+      </c>
+      <c r="I54" s="102"/>
+      <c r="J54" s="102"/>
+      <c r="K54" s="100"/>
+      <c r="L54" s="108"/>
+      <c r="M54" s="108"/>
+      <c r="N54" s="100"/>
+      <c r="O54" s="108"/>
+      <c r="P54" s="108"/>
+      <c r="Q54" s="109"/>
+    </row>
+    <row r="55" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="82"/>
+      <c r="B55" s="108"/>
+      <c r="C55" s="100"/>
+      <c r="D55" s="101"/>
+      <c r="E55" s="108"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="102"/>
+      <c r="I55" s="102"/>
+      <c r="J55" s="102"/>
+      <c r="K55" s="108"/>
+      <c r="L55" s="108"/>
+      <c r="M55" s="108"/>
+      <c r="N55" s="108"/>
+      <c r="O55" s="108"/>
+      <c r="P55" s="108"/>
+      <c r="Q55" s="108"/>
+    </row>
+    <row r="56" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="82"/>
+      <c r="B56" s="108"/>
+      <c r="C56" s="100"/>
+      <c r="D56" s="101"/>
+      <c r="E56" s="108"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="102"/>
+      <c r="I56" s="102"/>
+      <c r="J56" s="102"/>
+      <c r="K56" s="108"/>
+      <c r="L56" s="108"/>
+      <c r="M56" s="108"/>
+      <c r="N56" s="108"/>
+      <c r="O56" s="108"/>
+      <c r="P56" s="108"/>
+      <c r="Q56" s="108"/>
+    </row>
+    <row r="57" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="82" t="s">
+        <v>353</v>
+      </c>
+      <c r="B57" s="100" t="s">
+        <v>329</v>
+      </c>
+      <c r="C57" s="101" t="s">
+        <v>330</v>
+      </c>
+      <c r="D57" s="101" t="s">
+        <v>331</v>
+      </c>
+      <c r="E57" s="100"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="H57" s="101" t="s">
+        <v>335</v>
+      </c>
+      <c r="I57" s="102"/>
+      <c r="J57" s="102"/>
+      <c r="K57" s="100"/>
+      <c r="L57" s="108"/>
+      <c r="M57" s="108"/>
+      <c r="N57" s="100"/>
+      <c r="O57" s="108"/>
+      <c r="P57" s="108"/>
+      <c r="Q57" s="109"/>
+    </row>
+    <row r="58" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="82"/>
+      <c r="B58" s="108"/>
+      <c r="C58" s="100"/>
+      <c r="D58" s="101"/>
+      <c r="E58" s="108"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="102"/>
+      <c r="I58" s="102"/>
+      <c r="J58" s="102"/>
+      <c r="K58" s="108"/>
+      <c r="L58" s="108"/>
+      <c r="M58" s="108"/>
+      <c r="N58" s="108"/>
+      <c r="O58" s="108"/>
+      <c r="P58" s="108"/>
+      <c r="Q58" s="108"/>
+    </row>
+    <row r="59" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="82"/>
+      <c r="B59" s="108"/>
+      <c r="C59" s="100"/>
+      <c r="D59" s="101"/>
+      <c r="E59" s="108"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="102"/>
+      <c r="I59" s="102"/>
+      <c r="J59" s="102"/>
+      <c r="K59" s="108"/>
+      <c r="L59" s="108"/>
+      <c r="M59" s="108"/>
+      <c r="N59" s="108"/>
+      <c r="O59" s="108"/>
+      <c r="P59" s="108"/>
+      <c r="Q59" s="108"/>
+    </row>
+    <row r="60" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="42"/>
+      <c r="P60" s="42"/>
+      <c r="Q60" s="42"/>
+    </row>
+    <row r="61" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="B61" s="49"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="49"/>
+      <c r="K61" s="49"/>
+      <c r="L61" s="49"/>
+      <c r="M61" s="49"/>
+      <c r="N61" s="49"/>
+      <c r="O61" s="18"/>
+    </row>
+    <row r="62" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" s="55"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="55"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="55"/>
+      <c r="J62" s="55"/>
+      <c r="K62" s="55"/>
+      <c r="L62" s="55"/>
+      <c r="M62" s="55"/>
+      <c r="N62" s="55"/>
+    </row>
+    <row r="76" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="114" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76" s="55"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="55"/>
+      <c r="F76" s="55"/>
+      <c r="G76" s="55"/>
+      <c r="H76" s="55"/>
+      <c r="I76" s="55"/>
+      <c r="J76" s="55"/>
+      <c r="K76" s="55"/>
+      <c r="L76" s="55"/>
+      <c r="M76" s="55"/>
+      <c r="N76" s="55"/>
+    </row>
+    <row r="77" spans="1:26" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="D77" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="E77" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="F77" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="G77" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="H77" s="115" t="s">
+        <v>94</v>
+      </c>
+      <c r="I77" s="75"/>
+      <c r="J77" s="75"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="19"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="19"/>
+      <c r="O77" s="116"/>
+      <c r="P77" s="55"/>
+      <c r="Q77" s="19"/>
+      <c r="R77" s="19"/>
+      <c r="S77" s="19"/>
+      <c r="T77" s="19"/>
+      <c r="U77" s="19"/>
+      <c r="V77" s="19"/>
+      <c r="W77" s="19"/>
+      <c r="X77" s="19"/>
+      <c r="Y77" s="19"/>
+      <c r="Z77" s="19"/>
+    </row>
+    <row r="78" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="117" t="s">
+        <v>95</v>
+      </c>
+      <c r="B78" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" s="40">
+        <v>5</v>
+      </c>
+      <c r="D78" s="40">
+        <v>3</v>
+      </c>
+      <c r="E78" s="40">
+        <v>4</v>
+      </c>
+      <c r="F78" s="40">
+        <v>5</v>
+      </c>
+      <c r="G78" s="40">
+        <v>5</v>
+      </c>
+      <c r="H78" s="110" t="s">
+        <v>296</v>
+      </c>
+      <c r="I78" s="111"/>
+      <c r="J78" s="111"/>
+    </row>
+    <row r="79" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="75"/>
+      <c r="B79" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="H48" s="53" t="s">
-        <v>340</v>
-      </c>
-      <c r="I48" s="56"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="L48" s="56"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="53" t="s">
-        <v>342</v>
-      </c>
-      <c r="O48" s="56"/>
-      <c r="P48" s="56"/>
-      <c r="Q48" s="73"/>
-    </row>
-    <row r="49" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="45"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="56"/>
-      <c r="K49" s="56"/>
-      <c r="L49" s="56"/>
-      <c r="M49" s="56"/>
-      <c r="N49" s="56"/>
-      <c r="O49" s="56"/>
-      <c r="P49" s="56"/>
-      <c r="Q49" s="45"/>
-    </row>
-    <row r="50" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="45"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="56"/>
-      <c r="K50" s="56"/>
-      <c r="L50" s="56"/>
-      <c r="M50" s="56"/>
-      <c r="N50" s="56"/>
-      <c r="O50" s="56"/>
-      <c r="P50" s="56"/>
-      <c r="Q50" s="45"/>
-    </row>
-    <row r="51" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="55" t="s">
+      <c r="C79" s="40">
+        <v>6</v>
+      </c>
+      <c r="D79" s="40">
+        <v>3</v>
+      </c>
+      <c r="E79" s="40">
+        <v>3</v>
+      </c>
+      <c r="F79" s="40">
+        <v>6</v>
+      </c>
+      <c r="G79" s="40">
+        <v>7</v>
+      </c>
+      <c r="H79" s="112" t="s">
+        <v>307</v>
+      </c>
+      <c r="I79" s="113"/>
+      <c r="J79" s="113"/>
+    </row>
+    <row r="80" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="75"/>
+      <c r="B80" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="55" t="s">
-        <v>334</v>
-      </c>
-      <c r="C51" s="55" t="s">
-        <v>335</v>
-      </c>
-      <c r="D51" s="53" t="s">
-        <v>336</v>
-      </c>
-      <c r="E51" s="55"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="55" t="s">
+      <c r="C80" s="40">
+        <v>6</v>
+      </c>
+      <c r="D80" s="40">
+        <v>4</v>
+      </c>
+      <c r="E80" s="40">
+        <v>5</v>
+      </c>
+      <c r="F80" s="40">
+        <v>6</v>
+      </c>
+      <c r="G80" s="40">
+        <v>6</v>
+      </c>
+      <c r="H80" s="118" t="s">
+        <v>308</v>
+      </c>
+      <c r="I80" s="119"/>
+      <c r="J80" s="119"/>
+    </row>
+    <row r="81" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="75"/>
+      <c r="B81" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C81" s="40"/>
+      <c r="D81" s="40"/>
+      <c r="E81" s="40"/>
+      <c r="F81" s="40"/>
+      <c r="G81" s="40"/>
+      <c r="H81" s="112"/>
+      <c r="I81" s="113"/>
+      <c r="J81" s="113"/>
+    </row>
+    <row r="82" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A82" s="75"/>
+      <c r="B82" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C82" s="40"/>
+      <c r="D82" s="40"/>
+      <c r="E82" s="40"/>
+      <c r="F82" s="40"/>
+      <c r="G82" s="40"/>
+      <c r="H82" s="112"/>
+      <c r="I82" s="113"/>
+      <c r="J82" s="113"/>
+    </row>
+    <row r="83" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="117" t="s">
+        <v>96</v>
+      </c>
+      <c r="B83" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C83" s="40"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="40"/>
+      <c r="F83" s="40"/>
+      <c r="G83" s="40"/>
+      <c r="H83" s="112"/>
+      <c r="I83" s="113"/>
+      <c r="J83" s="113"/>
+    </row>
+    <row r="84" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="75"/>
+      <c r="B84" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="40"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="40"/>
+      <c r="H84" s="112"/>
+      <c r="I84" s="113"/>
+      <c r="J84" s="113"/>
+    </row>
+    <row r="85" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="75"/>
+      <c r="B85" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="H51" s="68" t="s">
-        <v>343</v>
-      </c>
-      <c r="I51" s="69"/>
-      <c r="J51" s="69"/>
-      <c r="K51" s="53" t="s">
-        <v>344</v>
-      </c>
-      <c r="L51" s="56"/>
-      <c r="M51" s="56"/>
-      <c r="N51" s="68"/>
-      <c r="O51" s="69"/>
-      <c r="P51" s="69"/>
-      <c r="Q51" s="73"/>
-    </row>
-    <row r="52" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="45"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="69"/>
-      <c r="I52" s="69"/>
-      <c r="J52" s="69"/>
-      <c r="K52" s="56"/>
-      <c r="L52" s="56"/>
-      <c r="M52" s="56"/>
-      <c r="N52" s="69"/>
-      <c r="O52" s="69"/>
-      <c r="P52" s="69"/>
-      <c r="Q52" s="45"/>
-    </row>
-    <row r="53" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="45"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="69"/>
-      <c r="I53" s="69"/>
-      <c r="J53" s="69"/>
-      <c r="K53" s="56"/>
-      <c r="L53" s="56"/>
-      <c r="M53" s="56"/>
-      <c r="N53" s="69"/>
-      <c r="O53" s="69"/>
-      <c r="P53" s="69"/>
-      <c r="Q53" s="45"/>
-    </row>
-    <row r="54" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="55" t="s">
+      <c r="C85" s="40"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="40"/>
+      <c r="F85" s="40"/>
+      <c r="G85" s="40"/>
+      <c r="H85" s="112"/>
+      <c r="I85" s="113"/>
+      <c r="J85" s="113"/>
+    </row>
+    <row r="86" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="75"/>
+      <c r="B86" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="55" t="s">
-        <v>319</v>
-      </c>
-      <c r="C54" s="53" t="s">
-        <v>338</v>
-      </c>
-      <c r="D54" s="53"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="55" t="s">
+      <c r="C86" s="40"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="112"/>
+      <c r="I86" s="113"/>
+      <c r="J86" s="113"/>
+    </row>
+    <row r="87" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="75"/>
+      <c r="B87" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C87" s="40"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="40"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="112"/>
+      <c r="I87" s="113"/>
+      <c r="J87" s="113"/>
+    </row>
+    <row r="88" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="117" t="s">
+        <v>97</v>
+      </c>
+      <c r="B88" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C88" s="40"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="40"/>
+      <c r="F88" s="40"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="112"/>
+      <c r="I88" s="113"/>
+      <c r="J88" s="113"/>
+    </row>
+    <row r="89" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A89" s="75"/>
+      <c r="B89" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C89" s="40"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="40"/>
+      <c r="F89" s="40"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="112"/>
+      <c r="I89" s="113"/>
+      <c r="J89" s="113"/>
+    </row>
+    <row r="90" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="75"/>
+      <c r="B90" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C90" s="40"/>
+      <c r="D90" s="40"/>
+      <c r="E90" s="40"/>
+      <c r="F90" s="40"/>
+      <c r="G90" s="40"/>
+      <c r="H90" s="112"/>
+      <c r="I90" s="113"/>
+      <c r="J90" s="113"/>
+    </row>
+    <row r="91" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="75"/>
+      <c r="B91" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="H54" s="68" t="s">
-        <v>345</v>
-      </c>
-      <c r="I54" s="69"/>
-      <c r="J54" s="69"/>
-      <c r="K54" s="68" t="s">
-        <v>346</v>
-      </c>
-      <c r="L54" s="69"/>
-      <c r="M54" s="69"/>
-      <c r="N54" s="68" t="s">
-        <v>347</v>
-      </c>
-      <c r="O54" s="69"/>
-      <c r="P54" s="69"/>
-      <c r="Q54" s="73"/>
-    </row>
-    <row r="55" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="45"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="69"/>
-      <c r="I55" s="69"/>
-      <c r="J55" s="69"/>
-      <c r="K55" s="69"/>
-      <c r="L55" s="69"/>
-      <c r="M55" s="69"/>
-      <c r="N55" s="69"/>
-      <c r="O55" s="69"/>
-      <c r="P55" s="69"/>
-      <c r="Q55" s="45"/>
-    </row>
-    <row r="56" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="45"/>
-      <c r="B56" s="45"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="45"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="69"/>
-      <c r="I56" s="69"/>
-      <c r="J56" s="69"/>
-      <c r="K56" s="69"/>
-      <c r="L56" s="69"/>
-      <c r="M56" s="69"/>
-      <c r="N56" s="69"/>
-      <c r="O56" s="69"/>
-      <c r="P56" s="69"/>
-      <c r="Q56" s="45"/>
-    </row>
-    <row r="57" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="55" t="s">
+      <c r="C91" s="40"/>
+      <c r="D91" s="40"/>
+      <c r="E91" s="40"/>
+      <c r="F91" s="40"/>
+      <c r="G91" s="40"/>
+      <c r="H91" s="112" t="s">
+        <v>309</v>
+      </c>
+      <c r="I91" s="113"/>
+      <c r="J91" s="113"/>
+    </row>
+    <row r="92" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A92" s="75"/>
+      <c r="B92" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="55" t="s">
-        <v>337</v>
-      </c>
-      <c r="C57" s="53" t="s">
-        <v>339</v>
-      </c>
-      <c r="D57" s="53"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="55" t="s">
+      <c r="C92" s="40"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="40"/>
+      <c r="F92" s="40"/>
+      <c r="G92" s="40"/>
+      <c r="H92" s="112"/>
+      <c r="I92" s="113"/>
+      <c r="J92" s="113"/>
+    </row>
+    <row r="93" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A93" s="117" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C93" s="40"/>
+      <c r="D93" s="40"/>
+      <c r="E93" s="40"/>
+      <c r="F93" s="40"/>
+      <c r="G93" s="40"/>
+      <c r="H93" s="112"/>
+      <c r="I93" s="113"/>
+      <c r="J93" s="113"/>
+    </row>
+    <row r="94" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A94" s="75"/>
+      <c r="B94" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C94" s="40"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="40"/>
+      <c r="F94" s="40"/>
+      <c r="G94" s="40"/>
+      <c r="H94" s="112"/>
+      <c r="I94" s="113"/>
+      <c r="J94" s="113"/>
+    </row>
+    <row r="95" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A95" s="75"/>
+      <c r="B95" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C95" s="40"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="112"/>
+      <c r="I95" s="113"/>
+      <c r="J95" s="113"/>
+    </row>
+    <row r="96" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A96" s="75"/>
+      <c r="B96" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C96" s="40"/>
+      <c r="D96" s="40"/>
+      <c r="E96" s="40"/>
+      <c r="F96" s="40"/>
+      <c r="G96" s="40"/>
+      <c r="H96" s="112"/>
+      <c r="I96" s="113"/>
+      <c r="J96" s="113"/>
+    </row>
+    <row r="97" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A97" s="75"/>
+      <c r="B97" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="H57" s="68" t="s">
-        <v>348</v>
-      </c>
-      <c r="I57" s="69"/>
-      <c r="J57" s="69"/>
-      <c r="K57" s="68" t="s">
-        <v>349</v>
-      </c>
-      <c r="L57" s="69"/>
-      <c r="M57" s="69"/>
-      <c r="N57" s="68"/>
-      <c r="O57" s="69"/>
-      <c r="P57" s="69"/>
-      <c r="Q57" s="73"/>
-    </row>
-    <row r="58" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="45"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="53"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="69"/>
-      <c r="I58" s="69"/>
-      <c r="J58" s="69"/>
-      <c r="K58" s="69"/>
-      <c r="L58" s="69"/>
-      <c r="M58" s="69"/>
-      <c r="N58" s="69"/>
-      <c r="O58" s="69"/>
-      <c r="P58" s="69"/>
-      <c r="Q58" s="45"/>
-    </row>
-    <row r="59" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="45"/>
-      <c r="B59" s="55"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="53"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="45"/>
-      <c r="G59" s="45"/>
-      <c r="H59" s="69"/>
-      <c r="I59" s="69"/>
-      <c r="J59" s="69"/>
-      <c r="K59" s="69"/>
-      <c r="L59" s="69"/>
-      <c r="M59" s="69"/>
-      <c r="N59" s="69"/>
-      <c r="O59" s="69"/>
-      <c r="P59" s="69"/>
-      <c r="Q59" s="45"/>
-    </row>
-    <row r="60" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
-    </row>
-    <row r="61" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="B61" s="48"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="48"/>
-      <c r="I61" s="48"/>
-      <c r="J61" s="48"/>
-      <c r="K61" s="48"/>
-      <c r="L61" s="48"/>
-      <c r="M61" s="48"/>
-      <c r="N61" s="48"/>
-      <c r="O61" s="21"/>
-    </row>
-    <row r="62" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="B62" s="45"/>
-      <c r="C62" s="45"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="45"/>
-      <c r="F62" s="45"/>
-      <c r="G62" s="45"/>
-      <c r="H62" s="45"/>
-      <c r="I62" s="45"/>
-      <c r="J62" s="45"/>
-      <c r="K62" s="45"/>
-      <c r="L62" s="45"/>
-      <c r="M62" s="45"/>
-      <c r="N62" s="45"/>
-    </row>
-    <row r="76" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="70" t="s">
-        <v>86</v>
-      </c>
-      <c r="B76" s="45"/>
-      <c r="C76" s="45"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="45"/>
-      <c r="F76" s="45"/>
-      <c r="G76" s="45"/>
-      <c r="H76" s="45"/>
-      <c r="I76" s="45"/>
-      <c r="J76" s="45"/>
-      <c r="K76" s="45"/>
-      <c r="L76" s="45"/>
-      <c r="M76" s="45"/>
-      <c r="N76" s="45"/>
-    </row>
-    <row r="77" spans="1:26" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B77" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C77" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D77" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="E77" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="F77" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="G77" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="H77" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="I77" s="45"/>
-      <c r="J77" s="45"/>
-      <c r="K77" s="23"/>
-      <c r="L77" s="23"/>
-      <c r="M77" s="23"/>
-      <c r="N77" s="23"/>
-      <c r="O77" s="72"/>
-      <c r="P77" s="45"/>
-      <c r="Q77" s="23"/>
-      <c r="R77" s="23"/>
-      <c r="S77" s="23"/>
-      <c r="T77" s="23"/>
-      <c r="U77" s="23"/>
-      <c r="V77" s="23"/>
-      <c r="W77" s="23"/>
-      <c r="X77" s="23"/>
-      <c r="Y77" s="23"/>
-      <c r="Z77" s="23"/>
-    </row>
-    <row r="78" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="B78" s="156" t="s">
+      <c r="C97" s="40"/>
+      <c r="D97" s="40"/>
+      <c r="E97" s="40"/>
+      <c r="F97" s="40"/>
+      <c r="G97" s="40"/>
+      <c r="H97" s="112"/>
+      <c r="I97" s="113"/>
+      <c r="J97" s="113"/>
+    </row>
+    <row r="98" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A98" s="117" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C78" s="156">
-        <v>5</v>
-      </c>
-      <c r="D78" s="156">
-        <v>3</v>
-      </c>
-      <c r="E78" s="156">
-        <v>4</v>
-      </c>
-      <c r="F78" s="156">
-        <v>5</v>
-      </c>
-      <c r="G78" s="156">
-        <v>5</v>
-      </c>
-      <c r="H78" s="157" t="s">
-        <v>296</v>
-      </c>
-      <c r="I78" s="158"/>
-      <c r="J78" s="158"/>
-    </row>
-    <row r="79" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="45"/>
-      <c r="B79" s="156" t="s">
+      <c r="C98" s="40"/>
+      <c r="D98" s="40"/>
+      <c r="E98" s="40"/>
+      <c r="F98" s="40"/>
+      <c r="G98" s="40"/>
+      <c r="H98" s="112"/>
+      <c r="I98" s="113"/>
+      <c r="J98" s="113"/>
+    </row>
+    <row r="99" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A99" s="75"/>
+      <c r="B99" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C79" s="156">
-        <v>6</v>
-      </c>
-      <c r="D79" s="156">
-        <v>3</v>
-      </c>
-      <c r="E79" s="156">
-        <v>3</v>
-      </c>
-      <c r="F79" s="156">
-        <v>6</v>
-      </c>
-      <c r="G79" s="156">
-        <v>7</v>
-      </c>
-      <c r="H79" s="159" t="s">
-        <v>350</v>
-      </c>
-      <c r="I79" s="160"/>
-      <c r="J79" s="160"/>
-    </row>
-    <row r="80" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="45"/>
-      <c r="B80" s="156" t="s">
+      <c r="C99" s="40"/>
+      <c r="D99" s="40"/>
+      <c r="E99" s="40"/>
+      <c r="F99" s="40"/>
+      <c r="G99" s="40"/>
+      <c r="H99" s="112"/>
+      <c r="I99" s="113"/>
+      <c r="J99" s="113"/>
+    </row>
+    <row r="100" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A100" s="75"/>
+      <c r="B100" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C80" s="156">
-        <v>6</v>
-      </c>
-      <c r="D80" s="156">
-        <v>4</v>
-      </c>
-      <c r="E80" s="156">
-        <v>5</v>
-      </c>
-      <c r="F80" s="156">
-        <v>6</v>
-      </c>
-      <c r="G80" s="156">
-        <v>6</v>
-      </c>
-      <c r="H80" s="161" t="s">
-        <v>351</v>
-      </c>
-      <c r="I80" s="162"/>
-      <c r="J80" s="162"/>
-    </row>
-    <row r="81" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="45"/>
-      <c r="B81" s="156" t="s">
+      <c r="C100" s="40"/>
+      <c r="D100" s="40"/>
+      <c r="E100" s="40"/>
+      <c r="F100" s="40"/>
+      <c r="G100" s="40"/>
+      <c r="H100" s="112"/>
+      <c r="I100" s="113"/>
+      <c r="J100" s="113"/>
+    </row>
+    <row r="101" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A101" s="75"/>
+      <c r="B101" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C81" s="156"/>
-      <c r="D81" s="156"/>
-      <c r="E81" s="156"/>
-      <c r="F81" s="156"/>
-      <c r="G81" s="156"/>
-      <c r="H81" s="159"/>
-      <c r="I81" s="160"/>
-      <c r="J81" s="160"/>
-    </row>
-    <row r="82" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="45"/>
-      <c r="B82" s="156" t="s">
+      <c r="C101" s="40"/>
+      <c r="D101" s="40"/>
+      <c r="E101" s="40"/>
+      <c r="F101" s="40"/>
+      <c r="G101" s="40"/>
+      <c r="H101" s="112"/>
+      <c r="I101" s="113"/>
+      <c r="J101" s="113"/>
+    </row>
+    <row r="102" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A102" s="75"/>
+      <c r="B102" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C82" s="156"/>
-      <c r="D82" s="156"/>
-      <c r="E82" s="156"/>
-      <c r="F82" s="156"/>
-      <c r="G82" s="156"/>
-      <c r="H82" s="159"/>
-      <c r="I82" s="160"/>
-      <c r="J82" s="160"/>
-    </row>
-    <row r="83" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="B83" s="156" t="s">
-        <v>80</v>
-      </c>
-      <c r="C83" s="156"/>
-      <c r="D83" s="156"/>
-      <c r="E83" s="156"/>
-      <c r="F83" s="156"/>
-      <c r="G83" s="156"/>
-      <c r="H83" s="159"/>
-      <c r="I83" s="160"/>
-      <c r="J83" s="160"/>
-    </row>
-    <row r="84" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="45"/>
-      <c r="B84" s="156" t="s">
-        <v>51</v>
-      </c>
-      <c r="C84" s="156"/>
-      <c r="D84" s="156"/>
-      <c r="E84" s="156"/>
-      <c r="F84" s="156"/>
-      <c r="G84" s="156"/>
-      <c r="H84" s="159"/>
-      <c r="I84" s="160"/>
-      <c r="J84" s="160"/>
-    </row>
-    <row r="85" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="45"/>
-      <c r="B85" s="156" t="s">
-        <v>52</v>
-      </c>
-      <c r="C85" s="156"/>
-      <c r="D85" s="156"/>
-      <c r="E85" s="156"/>
-      <c r="F85" s="156"/>
-      <c r="G85" s="156"/>
-      <c r="H85" s="159"/>
-      <c r="I85" s="160"/>
-      <c r="J85" s="160"/>
-    </row>
-    <row r="86" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="45"/>
-      <c r="B86" s="156" t="s">
-        <v>53</v>
-      </c>
-      <c r="C86" s="156"/>
-      <c r="D86" s="156"/>
-      <c r="E86" s="156"/>
-      <c r="F86" s="156"/>
-      <c r="G86" s="156"/>
-      <c r="H86" s="159"/>
-      <c r="I86" s="160"/>
-      <c r="J86" s="160"/>
-    </row>
-    <row r="87" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="45"/>
-      <c r="B87" s="156" t="s">
-        <v>57</v>
-      </c>
-      <c r="C87" s="156"/>
-      <c r="D87" s="156"/>
-      <c r="E87" s="156"/>
-      <c r="F87" s="156"/>
-      <c r="G87" s="156"/>
-      <c r="H87" s="159"/>
-      <c r="I87" s="160"/>
-      <c r="J87" s="160"/>
-    </row>
-    <row r="88" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="67" t="s">
-        <v>97</v>
-      </c>
-      <c r="B88" s="156" t="s">
-        <v>80</v>
-      </c>
-      <c r="C88" s="156"/>
-      <c r="D88" s="156"/>
-      <c r="E88" s="156"/>
-      <c r="F88" s="156"/>
-      <c r="G88" s="156"/>
-      <c r="H88" s="159"/>
-      <c r="I88" s="160"/>
-      <c r="J88" s="160"/>
-    </row>
-    <row r="89" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="45"/>
-      <c r="B89" s="156" t="s">
-        <v>51</v>
-      </c>
-      <c r="C89" s="156"/>
-      <c r="D89" s="156"/>
-      <c r="E89" s="156"/>
-      <c r="F89" s="156"/>
-      <c r="G89" s="156"/>
-      <c r="H89" s="159"/>
-      <c r="I89" s="160"/>
-      <c r="J89" s="160"/>
-    </row>
-    <row r="90" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="45"/>
-      <c r="B90" s="156" t="s">
-        <v>52</v>
-      </c>
-      <c r="C90" s="156"/>
-      <c r="D90" s="156"/>
-      <c r="E90" s="156"/>
-      <c r="F90" s="156"/>
-      <c r="G90" s="156"/>
-      <c r="H90" s="159"/>
-      <c r="I90" s="160"/>
-      <c r="J90" s="160"/>
-    </row>
-    <row r="91" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="45"/>
-      <c r="B91" s="156" t="s">
-        <v>53</v>
-      </c>
-      <c r="C91" s="156"/>
-      <c r="D91" s="156"/>
-      <c r="E91" s="156"/>
-      <c r="F91" s="156"/>
-      <c r="G91" s="156"/>
-      <c r="H91" s="159" t="s">
-        <v>352</v>
-      </c>
-      <c r="I91" s="160"/>
-      <c r="J91" s="160"/>
-    </row>
-    <row r="92" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="45"/>
-      <c r="B92" s="156" t="s">
-        <v>57</v>
-      </c>
-      <c r="C92" s="156"/>
-      <c r="D92" s="156"/>
-      <c r="E92" s="156"/>
-      <c r="F92" s="156"/>
-      <c r="G92" s="156"/>
-      <c r="H92" s="159"/>
-      <c r="I92" s="160"/>
-      <c r="J92" s="160"/>
-    </row>
-    <row r="93" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="B93" s="156" t="s">
-        <v>80</v>
-      </c>
-      <c r="C93" s="156"/>
-      <c r="D93" s="156"/>
-      <c r="E93" s="156"/>
-      <c r="F93" s="156"/>
-      <c r="G93" s="156"/>
-      <c r="H93" s="159"/>
-      <c r="I93" s="160"/>
-      <c r="J93" s="160"/>
-    </row>
-    <row r="94" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="45"/>
-      <c r="B94" s="156" t="s">
-        <v>51</v>
-      </c>
-      <c r="C94" s="156"/>
-      <c r="D94" s="156"/>
-      <c r="E94" s="156"/>
-      <c r="F94" s="156"/>
-      <c r="G94" s="156"/>
-      <c r="H94" s="159"/>
-      <c r="I94" s="160"/>
-      <c r="J94" s="160"/>
-    </row>
-    <row r="95" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="45"/>
-      <c r="B95" s="156" t="s">
-        <v>52</v>
-      </c>
-      <c r="C95" s="156"/>
-      <c r="D95" s="156"/>
-      <c r="E95" s="156"/>
-      <c r="F95" s="156"/>
-      <c r="G95" s="156"/>
-      <c r="H95" s="159"/>
-      <c r="I95" s="160"/>
-      <c r="J95" s="160"/>
-    </row>
-    <row r="96" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="45"/>
-      <c r="B96" s="156" t="s">
-        <v>53</v>
-      </c>
-      <c r="C96" s="156"/>
-      <c r="D96" s="156"/>
-      <c r="E96" s="156"/>
-      <c r="F96" s="156"/>
-      <c r="G96" s="156"/>
-      <c r="H96" s="159"/>
-      <c r="I96" s="160"/>
-      <c r="J96" s="160"/>
-    </row>
-    <row r="97" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="45"/>
-      <c r="B97" s="156" t="s">
-        <v>57</v>
-      </c>
-      <c r="C97" s="156"/>
-      <c r="D97" s="156"/>
-      <c r="E97" s="156"/>
-      <c r="F97" s="156"/>
-      <c r="G97" s="156"/>
-      <c r="H97" s="159"/>
-      <c r="I97" s="160"/>
-      <c r="J97" s="160"/>
-    </row>
-    <row r="98" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="B98" s="156" t="s">
-        <v>80</v>
-      </c>
-      <c r="C98" s="156"/>
-      <c r="D98" s="156"/>
-      <c r="E98" s="156"/>
-      <c r="F98" s="156"/>
-      <c r="G98" s="156"/>
-      <c r="H98" s="159"/>
-      <c r="I98" s="160"/>
-      <c r="J98" s="160"/>
-    </row>
-    <row r="99" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="45"/>
-      <c r="B99" s="156" t="s">
-        <v>51</v>
-      </c>
-      <c r="C99" s="156"/>
-      <c r="D99" s="156"/>
-      <c r="E99" s="156"/>
-      <c r="F99" s="156"/>
-      <c r="G99" s="156"/>
-      <c r="H99" s="159"/>
-      <c r="I99" s="160"/>
-      <c r="J99" s="160"/>
-    </row>
-    <row r="100" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="45"/>
-      <c r="B100" s="156" t="s">
-        <v>52</v>
-      </c>
-      <c r="C100" s="156"/>
-      <c r="D100" s="156"/>
-      <c r="E100" s="156"/>
-      <c r="F100" s="156"/>
-      <c r="G100" s="156"/>
-      <c r="H100" s="159"/>
-      <c r="I100" s="160"/>
-      <c r="J100" s="160"/>
-    </row>
-    <row r="101" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="45"/>
-      <c r="B101" s="156" t="s">
-        <v>53</v>
-      </c>
-      <c r="C101" s="156"/>
-      <c r="D101" s="156"/>
-      <c r="E101" s="156"/>
-      <c r="F101" s="156"/>
-      <c r="G101" s="156"/>
-      <c r="H101" s="159"/>
-      <c r="I101" s="160"/>
-      <c r="J101" s="160"/>
-    </row>
-    <row r="102" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A102" s="45"/>
-      <c r="B102" s="156" t="s">
-        <v>57</v>
-      </c>
-      <c r="C102" s="156"/>
-      <c r="D102" s="156"/>
-      <c r="E102" s="156"/>
-      <c r="F102" s="156"/>
-      <c r="G102" s="156"/>
-      <c r="H102" s="159"/>
-      <c r="I102" s="160"/>
-      <c r="J102" s="160"/>
+      <c r="C102" s="40"/>
+      <c r="D102" s="40"/>
+      <c r="E102" s="40"/>
+      <c r="F102" s="40"/>
+      <c r="G102" s="40"/>
+      <c r="H102" s="112"/>
+      <c r="I102" s="113"/>
+      <c r="J102" s="113"/>
     </row>
     <row r="103" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="57" t="s">
+      <c r="A103" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="B103" s="58"/>
-      <c r="C103" s="58"/>
-      <c r="D103" s="58"/>
-      <c r="E103" s="58"/>
-      <c r="F103" s="58"/>
-      <c r="G103" s="58"/>
-      <c r="H103" s="58"/>
-      <c r="I103" s="58"/>
-      <c r="J103" s="58"/>
+      <c r="B103" s="121"/>
+      <c r="C103" s="121"/>
+      <c r="D103" s="121"/>
+      <c r="E103" s="121"/>
+      <c r="F103" s="121"/>
+      <c r="G103" s="121"/>
+      <c r="H103" s="121"/>
+      <c r="I103" s="121"/>
+      <c r="J103" s="121"/>
     </row>
     <row r="104" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="58"/>
-      <c r="B104" s="58"/>
-      <c r="C104" s="58"/>
-      <c r="D104" s="58"/>
-      <c r="E104" s="58"/>
-      <c r="F104" s="58"/>
-      <c r="G104" s="58"/>
-      <c r="H104" s="58"/>
-      <c r="I104" s="58"/>
-      <c r="J104" s="58"/>
+      <c r="A104" s="121"/>
+      <c r="B104" s="121"/>
+      <c r="C104" s="121"/>
+      <c r="D104" s="121"/>
+      <c r="E104" s="121"/>
+      <c r="F104" s="121"/>
+      <c r="G104" s="121"/>
+      <c r="H104" s="121"/>
+      <c r="I104" s="121"/>
+      <c r="J104" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="183">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A8:U8"/>
-    <mergeCell ref="K9:K20"/>
-    <mergeCell ref="S13:U14"/>
-    <mergeCell ref="I11:J18"/>
-    <mergeCell ref="A14:B18"/>
-    <mergeCell ref="C14:D18"/>
-    <mergeCell ref="P11:Q12"/>
-    <mergeCell ref="P14:Q15"/>
-    <mergeCell ref="S15:U16"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="S17:U19"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A40:Q40"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="B42:E44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A103:J104"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="H97:J97"/>
+    <mergeCell ref="H98:J98"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="E24:E35"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="K24:K35"/>
+    <mergeCell ref="A32:B35"/>
+    <mergeCell ref="C32:D35"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="A83:A87"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="A98:A102"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="N57:P59"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="K57:M59"/>
+    <mergeCell ref="A61:N61"/>
+    <mergeCell ref="A62:N62"/>
+    <mergeCell ref="A76:N76"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="O77:P77"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="N54:P56"/>
+    <mergeCell ref="Q54:Q56"/>
+    <mergeCell ref="Q57:Q59"/>
+    <mergeCell ref="K48:M50"/>
+    <mergeCell ref="N48:P50"/>
+    <mergeCell ref="Q48:Q50"/>
+    <mergeCell ref="K51:M53"/>
+    <mergeCell ref="N51:P53"/>
+    <mergeCell ref="Q51:Q53"/>
+    <mergeCell ref="K54:M56"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="H51:J53"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="H54:J56"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="H57:J59"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="I32:J33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:H35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:H37"/>
+    <mergeCell ref="F41:F59"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="H42:K44"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J50"/>
+    <mergeCell ref="I34:J35"/>
+    <mergeCell ref="I36:J37"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E11:F18"/>
+    <mergeCell ref="G11:H18"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A27:B30"/>
+    <mergeCell ref="C27:D30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="L11:M12"/>
+    <mergeCell ref="L13:M13"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="G30:H31"/>
     <mergeCell ref="I30:J31"/>
@@ -5618,152 +5803,36 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E11:F18"/>
-    <mergeCell ref="G11:H18"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A27:B30"/>
-    <mergeCell ref="C27:D30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="L11:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="H51:J53"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="H54:J56"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="H57:J59"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="I32:J33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:H35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:H37"/>
-    <mergeCell ref="F41:F59"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="H42:K44"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J50"/>
-    <mergeCell ref="I34:J35"/>
-    <mergeCell ref="I36:J37"/>
-    <mergeCell ref="N54:P56"/>
-    <mergeCell ref="Q54:Q56"/>
-    <mergeCell ref="Q57:Q59"/>
-    <mergeCell ref="K48:M50"/>
-    <mergeCell ref="N48:P50"/>
-    <mergeCell ref="Q48:Q50"/>
-    <mergeCell ref="K51:M53"/>
-    <mergeCell ref="N51:P53"/>
-    <mergeCell ref="Q51:Q53"/>
-    <mergeCell ref="K54:M56"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="N57:P59"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="K57:M59"/>
-    <mergeCell ref="A61:N61"/>
-    <mergeCell ref="A62:N62"/>
-    <mergeCell ref="A76:N76"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="O77:P77"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="A83:A87"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="A98:A102"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="H90:J90"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="H93:J93"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="A103:J104"/>
-    <mergeCell ref="H95:J95"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="H97:J97"/>
-    <mergeCell ref="H98:J98"/>
-    <mergeCell ref="H99:J99"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="E24:E35"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="K24:K35"/>
-    <mergeCell ref="A32:B35"/>
-    <mergeCell ref="C32:D35"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A40:Q40"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="B42:E44"/>
-    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A8:U8"/>
+    <mergeCell ref="K9:K20"/>
+    <mergeCell ref="S13:U14"/>
+    <mergeCell ref="I11:J18"/>
+    <mergeCell ref="A14:B18"/>
+    <mergeCell ref="C14:D18"/>
+    <mergeCell ref="P11:Q12"/>
+    <mergeCell ref="P14:Q15"/>
+    <mergeCell ref="S15:U16"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="S17:U19"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="P18:P20"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C78:G102" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5784,41 +5853,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-      <c r="L1" s="102" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50"/>
+      <c r="L1" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="105"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="53"/>
       <c r="L2" s="2" t="s">
         <v>102</v>
       </c>
@@ -5839,156 +5908,156 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="107"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="56"/>
       <c r="L3" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="140"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="107"/>
+      <c r="A4" s="152"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
       <c r="L4" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="108"/>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="105"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="53"/>
       <c r="L5" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="105"/>
-      <c r="L6" s="121" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="53"/>
+      <c r="L6" s="130" t="s">
         <v>108</v>
       </c>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
     </row>
     <row r="7" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="145" t="s">
+      <c r="A7" s="149" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="141" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="150" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="105"/>
-      <c r="E7" s="141" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="150" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="105"/>
-      <c r="G7" s="141" t="s">
+      <c r="F7" s="53"/>
+      <c r="G7" s="150" t="s">
         <v>112</v>
       </c>
-      <c r="H7" s="104"/>
-      <c r="I7" s="105"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="53"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
     </row>
     <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="105"/>
-      <c r="L8" s="121" t="s">
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="53"/>
+      <c r="L8" s="130" t="s">
         <v>114</v>
       </c>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
     </row>
     <row r="9" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="146" t="s">
+      <c r="A9" s="151" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="107"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="56"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
     </row>
     <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="140"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="107"/>
+      <c r="A10" s="152"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="56"/>
     </row>
     <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="108"/>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="105"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="53"/>
     </row>
     <row r="12" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
@@ -5997,98 +6066,98 @@
       <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="50"/>
     </row>
     <row r="15" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="142" t="s">
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="L15" s="46" t="s">
+      <c r="L15" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="142" t="s">
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="116" t="s">
+      <c r="S15" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
+      <c r="T15" s="55"/>
+      <c r="U15" s="55"/>
     </row>
     <row r="16" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="137" t="s">
+      <c r="A16" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="138" t="s">
+      <c r="B16" s="55"/>
+      <c r="C16" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="138" t="s">
+      <c r="D16" s="55"/>
+      <c r="E16" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="45"/>
-      <c r="G16" s="138" t="s">
+      <c r="F16" s="55"/>
+      <c r="G16" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="45"/>
-      <c r="I16" s="137" t="s">
+      <c r="H16" s="55"/>
+      <c r="I16" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="144" t="s">
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="145" t="s">
         <v>116</v>
       </c>
-      <c r="M16" s="45"/>
-      <c r="N16" s="143" t="s">
+      <c r="M16" s="55"/>
+      <c r="N16" s="148" t="s">
         <v>117</v>
       </c>
-      <c r="O16" s="45"/>
-      <c r="P16" s="143" t="s">
+      <c r="O16" s="55"/>
+      <c r="P16" s="148" t="s">
         <v>118</v>
       </c>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
       <c r="S16" s="5" t="s">
         <v>119</v>
       </c>
@@ -6100,250 +6169,250 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="147"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="117" t="s">
+      <c r="A17" s="144"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="155"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
     </row>
     <row r="18" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="144" t="s">
+      <c r="A18" s="55"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="145" t="s">
         <v>122</v>
       </c>
-      <c r="M18" s="45"/>
-      <c r="N18" s="148" t="s">
+      <c r="M18" s="55"/>
+      <c r="N18" s="146" t="s">
         <v>123</v>
       </c>
-      <c r="O18" s="45"/>
-      <c r="P18" s="144" t="s">
+      <c r="O18" s="55"/>
+      <c r="P18" s="145" t="s">
         <v>124</v>
       </c>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="65" t="s">
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
+      <c r="T18" s="55"/>
+      <c r="U18" s="55"/>
     </row>
     <row r="19" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="137" t="s">
+      <c r="A19" s="142" t="s">
         <v>125</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="138" t="s">
+      <c r="B19" s="55"/>
+      <c r="C19" s="143" t="s">
         <v>126</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="138" t="s">
+      <c r="D19" s="55"/>
+      <c r="E19" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="45"/>
-      <c r="G19" s="138" t="s">
+      <c r="F19" s="55"/>
+      <c r="G19" s="143" t="s">
         <v>127</v>
       </c>
-      <c r="H19" s="45"/>
-      <c r="I19" s="137" t="s">
+      <c r="H19" s="55"/>
+      <c r="I19" s="142" t="s">
         <v>128</v>
       </c>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="55"/>
+      <c r="U19" s="55"/>
     </row>
     <row r="20" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="147"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="127"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="122" t="s">
+      <c r="A20" s="144"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="153"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="153"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="139" t="s">
         <v>129</v>
       </c>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="117" t="s">
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
+      <c r="T20" s="55"/>
+      <c r="U20" s="55"/>
     </row>
     <row r="21" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="55"/>
+      <c r="U21" s="55"/>
     </row>
     <row r="22" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="137" t="s">
+      <c r="A22" s="142" t="s">
         <v>131</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="138" t="s">
+      <c r="B22" s="55"/>
+      <c r="C22" s="143" t="s">
         <v>132</v>
       </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="138" t="s">
+      <c r="D22" s="55"/>
+      <c r="E22" s="143" t="s">
         <v>133</v>
       </c>
-      <c r="F22" s="45"/>
-      <c r="G22" s="138" t="s">
+      <c r="F22" s="55"/>
+      <c r="G22" s="143" t="s">
         <v>134</v>
       </c>
-      <c r="H22" s="45"/>
-      <c r="I22" s="137" t="s">
+      <c r="H22" s="55"/>
+      <c r="I22" s="142" t="s">
         <v>135</v>
       </c>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="46" t="s">
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="130" t="s">
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="157" t="s">
         <v>137</v>
       </c>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
+      <c r="T22" s="55"/>
+      <c r="U22" s="55"/>
     </row>
     <row r="23" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="131"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="131"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="24" t="s">
+      <c r="A23" s="153"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="153"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="153"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="M23" s="24" t="s">
+      <c r="M23" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="N23" s="24" t="s">
+      <c r="N23" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="O23" s="24" t="s">
+      <c r="O23" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="P23" s="24" t="s">
+      <c r="P23" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="Q23" s="24" t="s">
+      <c r="Q23" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="55"/>
     </row>
     <row r="24" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="25" t="s">
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="M24" s="25" t="s">
+      <c r="M24" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="N24" s="25" t="s">
+      <c r="N24" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="O24" s="25" t="s">
+      <c r="O24" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="P24" s="25" t="s">
+      <c r="P24" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="Q24" s="25" t="s">
+      <c r="Q24" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="R24" s="45"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="45"/>
-      <c r="U24" s="45"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55"/>
     </row>
     <row r="27" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
@@ -6351,1443 +6420,1650 @@
       </c>
     </row>
     <row r="29" spans="1:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="49"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="50"/>
     </row>
     <row r="30" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="46" t="s">
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="135" t="s">
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="L30" s="46" t="s">
+      <c r="L30" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="45"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
     </row>
     <row r="31" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B31" s="139" t="s">
+      <c r="B31" s="147" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="65" t="s">
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="123" t="s">
         <v>144</v>
       </c>
-      <c r="G31" s="127" t="s">
+      <c r="G31" s="141" t="s">
         <v>145</v>
       </c>
-      <c r="H31" s="45"/>
-      <c r="I31" s="127" t="s">
+      <c r="H31" s="55"/>
+      <c r="I31" s="141" t="s">
         <v>146</v>
       </c>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="72" t="s">
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="116" t="s">
         <v>147</v>
       </c>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="126" t="s">
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="158" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="F32" s="45"/>
-      <c r="G32" s="127"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="127"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="45"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="141"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="55"/>
     </row>
     <row r="33" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="65" t="s">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="123" t="s">
         <v>150</v>
       </c>
-      <c r="G33" s="127" t="s">
+      <c r="G33" s="141" t="s">
         <v>151</v>
       </c>
-      <c r="H33" s="45"/>
-      <c r="I33" s="127" t="s">
+      <c r="H33" s="55"/>
+      <c r="I33" s="141" t="s">
         <v>151</v>
       </c>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="72" t="s">
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="116" t="s">
         <v>152</v>
       </c>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="45"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="55"/>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="55"/>
     </row>
     <row r="34" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B34" s="139" t="s">
+      <c r="B34" s="147" t="s">
         <v>154</v>
       </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="26" t="s">
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="H34" s="26" t="s">
+      <c r="H34" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="I34" s="26" t="s">
+      <c r="I34" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="J34" s="26" t="s">
+      <c r="J34" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45"/>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="45"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="55"/>
+      <c r="P34" s="55"/>
+      <c r="Q34" s="55"/>
     </row>
     <row r="35" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="F35" s="65" t="s">
+      <c r="F35" s="123" t="s">
         <v>156</v>
       </c>
-      <c r="G35" s="127" t="s">
+      <c r="G35" s="141" t="s">
         <v>151</v>
       </c>
-      <c r="H35" s="45"/>
-      <c r="I35" s="127" t="s">
+      <c r="H35" s="55"/>
+      <c r="I35" s="141" t="s">
         <v>151</v>
       </c>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="46" t="s">
+      <c r="J35" s="55"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="M35" s="45"/>
-      <c r="N35" s="45"/>
-      <c r="O35" s="45"/>
-      <c r="P35" s="45"/>
-      <c r="Q35" s="45"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="55"/>
+      <c r="P35" s="55"/>
+      <c r="Q35" s="55"/>
     </row>
     <row r="36" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="26" t="s">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="H36" s="26" t="s">
+      <c r="H36" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="I36" s="26" t="s">
+      <c r="I36" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="J36" s="26" t="s">
+      <c r="J36" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="45"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="55"/>
+      <c r="O36" s="55"/>
+      <c r="P36" s="55"/>
+      <c r="Q36" s="55"/>
     </row>
     <row r="37" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B37" s="139" t="s">
+      <c r="B37" s="147" t="s">
         <v>159</v>
       </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="65" t="s">
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="123" t="s">
         <v>160</v>
       </c>
-      <c r="G37" s="127" t="s">
+      <c r="G37" s="141" t="s">
         <v>151</v>
       </c>
-      <c r="H37" s="45"/>
-      <c r="I37" s="127" t="s">
+      <c r="H37" s="55"/>
+      <c r="I37" s="141" t="s">
         <v>151</v>
       </c>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="45"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="55"/>
+      <c r="O37" s="55"/>
+      <c r="P37" s="55"/>
+      <c r="Q37" s="55"/>
     </row>
     <row r="38" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="F38" s="45"/>
-      <c r="G38" s="26" t="s">
+      <c r="F38" s="55"/>
+      <c r="G38" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="H38" s="26" t="s">
+      <c r="H38" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="I38" s="26" t="s">
+      <c r="I38" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="J38" s="26" t="s">
+      <c r="J38" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="K38" s="45"/>
-      <c r="L38" s="132" t="s">
+      <c r="K38" s="55"/>
+      <c r="L38" s="131" t="s">
         <v>161</v>
       </c>
-      <c r="M38" s="45"/>
-      <c r="N38" s="54" t="s">
+      <c r="M38" s="55"/>
+      <c r="N38" s="128" t="s">
         <v>162</v>
       </c>
-      <c r="O38" s="45"/>
-      <c r="P38" s="45"/>
-      <c r="Q38" s="45"/>
+      <c r="O38" s="55"/>
+      <c r="P38" s="55"/>
+      <c r="Q38" s="55"/>
     </row>
     <row r="39" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="65" t="s">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="123" t="s">
         <v>163</v>
       </c>
-      <c r="G39" s="127" t="s">
+      <c r="G39" s="141" t="s">
         <v>151</v>
       </c>
-      <c r="H39" s="45"/>
-      <c r="I39" s="127" t="s">
+      <c r="H39" s="55"/>
+      <c r="I39" s="141" t="s">
         <v>151</v>
       </c>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="45"/>
-      <c r="Q39" s="45"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="55"/>
+      <c r="O39" s="55"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="55"/>
     </row>
     <row r="40" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="117" t="s">
+      <c r="A40" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="F40" s="45"/>
-      <c r="G40" s="26" t="s">
+      <c r="F40" s="55"/>
+      <c r="G40" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="H40" s="26" t="s">
+      <c r="H40" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="I40" s="26" t="s">
+      <c r="I40" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="J40" s="26" t="s">
+      <c r="J40" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="27" t="s">
+      <c r="K40" s="55"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="O40" s="28" t="s">
+      <c r="O40" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="P40" s="29" t="s">
+      <c r="P40" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="Q40" s="128" t="s">
+      <c r="Q40" s="136" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="45"/>
-      <c r="B41" s="65" t="s">
+      <c r="A41" s="55"/>
+      <c r="B41" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="C41" s="65" t="s">
+      <c r="C41" s="123" t="s">
         <v>174</v>
       </c>
-      <c r="D41" s="65" t="s">
+      <c r="D41" s="123" t="s">
         <v>175</v>
       </c>
-      <c r="E41" s="65" t="s">
+      <c r="E41" s="123" t="s">
         <v>176</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="F41" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="G41" s="65" t="s">
+      <c r="G41" s="123" t="s">
         <v>178</v>
       </c>
-      <c r="H41" s="45"/>
-      <c r="I41" s="65" t="s">
+      <c r="H41" s="55"/>
+      <c r="I41" s="123" t="s">
         <v>179</v>
       </c>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="28" t="s">
+      <c r="J41" s="55"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="O41" s="28" t="s">
+      <c r="O41" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="P41" s="29" t="s">
+      <c r="P41" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="Q41" s="45"/>
+      <c r="Q41" s="55"/>
     </row>
     <row r="42" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="16"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="118" t="s">
+      <c r="A42" s="14"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="129" t="s">
         <v>180</v>
       </c>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="129" t="s">
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="55"/>
+      <c r="N42" s="159" t="s">
         <v>181</v>
       </c>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="45"/>
+      <c r="O42" s="55"/>
+      <c r="P42" s="55"/>
+      <c r="Q42" s="55"/>
     </row>
     <row r="43" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="16"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="13"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="11"/>
     </row>
     <row r="44" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="16"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="13"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="11"/>
     </row>
     <row r="45" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="48"/>
-      <c r="L45" s="48"/>
-      <c r="M45" s="48"/>
-      <c r="N45" s="48"/>
-      <c r="O45" s="48"/>
-      <c r="P45" s="48"/>
-      <c r="Q45" s="49"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="49"/>
+      <c r="O45" s="49"/>
+      <c r="P45" s="49"/>
+      <c r="Q45" s="50"/>
     </row>
     <row r="46" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="46" t="s">
+      <c r="A46" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="142" t="s">
+      <c r="B46" s="55"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="132" t="s">
         <v>63</v>
       </c>
-      <c r="G46" s="46" t="s">
+      <c r="G46" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="H46" s="45"/>
-      <c r="I46" s="45"/>
-      <c r="J46" s="45"/>
-      <c r="K46" s="45"/>
-      <c r="L46" s="142" t="s">
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="132" t="s">
         <v>182</v>
       </c>
-      <c r="M46" s="46" t="s">
+      <c r="M46" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="N46" s="45"/>
-      <c r="O46" s="45"/>
-      <c r="P46" s="45"/>
-      <c r="Q46" s="45"/>
+      <c r="N46" s="55"/>
+      <c r="O46" s="55"/>
+      <c r="P46" s="55"/>
+      <c r="Q46" s="55"/>
     </row>
     <row r="47" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="65" t="s">
+      <c r="A47" s="123" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="128" t="s">
+      <c r="B47" s="136" t="s">
         <v>184</v>
       </c>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="119" t="s">
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="133" t="s">
         <v>185</v>
       </c>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="45"/>
-      <c r="L47" s="45"/>
-      <c r="M47" s="119" t="s">
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="133" t="s">
         <v>186</v>
       </c>
-      <c r="N47" s="45"/>
-      <c r="O47" s="45"/>
-      <c r="P47" s="45"/>
-      <c r="Q47" s="45"/>
+      <c r="N47" s="55"/>
+      <c r="O47" s="55"/>
+      <c r="P47" s="55"/>
+      <c r="Q47" s="55"/>
     </row>
     <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="45"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="45"/>
-      <c r="K48" s="45"/>
-      <c r="L48" s="45"/>
-      <c r="M48" s="45"/>
-      <c r="N48" s="45"/>
-      <c r="O48" s="45"/>
-      <c r="P48" s="45"/>
-      <c r="Q48" s="45"/>
+      <c r="A48" s="55"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="55"/>
+      <c r="O48" s="55"/>
+      <c r="P48" s="55"/>
+      <c r="Q48" s="55"/>
     </row>
     <row r="49" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="45"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="72" t="s">
+      <c r="A49" s="55"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="116" t="s">
         <v>187</v>
       </c>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="45"/>
-      <c r="K49" s="45"/>
-      <c r="L49" s="45"/>
-      <c r="M49" s="14" t="s">
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="N49" s="14"/>
-      <c r="O49" s="127" t="s">
+      <c r="N49" s="12"/>
+      <c r="O49" s="141" t="s">
         <v>189</v>
       </c>
-      <c r="P49" s="45"/>
-      <c r="Q49" s="45"/>
+      <c r="P49" s="55"/>
+      <c r="Q49" s="55"/>
     </row>
     <row r="50" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="149" t="s">
+      <c r="A50" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="149" t="s">
+      <c r="B50" s="138" t="s">
         <v>190</v>
       </c>
-      <c r="C50" s="149" t="s">
+      <c r="C50" s="138" t="s">
         <v>191</v>
       </c>
-      <c r="D50" s="149" t="s">
+      <c r="D50" s="138" t="s">
         <v>192</v>
       </c>
-      <c r="E50" s="149" t="s">
+      <c r="E50" s="138" t="s">
         <v>193</v>
       </c>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="45"/>
-      <c r="J50" s="45"/>
-      <c r="K50" s="45"/>
-      <c r="L50" s="45"/>
-      <c r="M50" s="14" t="s">
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="55"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="55"/>
+      <c r="M50" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="N50" s="14"/>
-      <c r="O50" s="16" t="s">
+      <c r="N50" s="12"/>
+      <c r="O50" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="P50" s="16" t="s">
+      <c r="P50" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="Q50" s="16" t="s">
+      <c r="Q50" s="14" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="45"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="118" t="s">
+      <c r="A51" s="55"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="129" t="s">
         <v>197</v>
       </c>
-      <c r="H51" s="118" t="s">
+      <c r="H51" s="129" t="s">
         <v>198</v>
       </c>
-      <c r="I51" s="118" t="s">
+      <c r="I51" s="129" t="s">
         <v>199</v>
       </c>
-      <c r="J51" s="118" t="s">
+      <c r="J51" s="129" t="s">
         <v>200</v>
       </c>
-      <c r="K51" s="118" t="s">
+      <c r="K51" s="129" t="s">
         <v>201</v>
       </c>
-      <c r="L51" s="45"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="127" t="str">
+      <c r="L51" s="55"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="141" t="str">
         <f>A52</f>
         <v>1.</v>
       </c>
-      <c r="P51" s="127"/>
-      <c r="Q51" s="127"/>
+      <c r="P51" s="141"/>
+      <c r="Q51" s="141"/>
     </row>
     <row r="52" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="134" t="s">
         <v>202</v>
       </c>
-      <c r="B52" s="65" t="s">
+      <c r="B52" s="123" t="s">
         <v>203</v>
       </c>
-      <c r="C52" s="132" t="s">
+      <c r="C52" s="131" t="s">
         <v>204</v>
       </c>
-      <c r="D52" s="133" t="s">
+      <c r="D52" s="135" t="s">
         <v>205</v>
       </c>
-      <c r="E52" s="128" t="s">
+      <c r="E52" s="136" t="s">
         <v>206</v>
       </c>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="45"/>
-      <c r="J52" s="45"/>
-      <c r="K52" s="45"/>
-      <c r="L52" s="45"/>
-      <c r="M52" s="14" t="s">
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="55"/>
+      <c r="L52" s="55"/>
+      <c r="M52" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="N52" s="14"/>
-      <c r="O52" s="45"/>
-      <c r="P52" s="45"/>
-      <c r="Q52" s="45"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="55"/>
+      <c r="P52" s="55"/>
+      <c r="Q52" s="55"/>
     </row>
     <row r="53" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="45"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="45"/>
-      <c r="K53" s="45"/>
-      <c r="L53" s="45"/>
-      <c r="N53" s="14"/>
-      <c r="O53" s="127" t="str">
+      <c r="A53" s="55"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="55"/>
+      <c r="K53" s="55"/>
+      <c r="L53" s="55"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="141" t="str">
         <f>A55</f>
         <v>2.</v>
       </c>
-      <c r="P53" s="127"/>
-      <c r="Q53" s="127"/>
+      <c r="P53" s="141"/>
+      <c r="Q53" s="141"/>
     </row>
     <row r="54" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="45"/>
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="118" t="s">
+      <c r="A54" s="55"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="129" t="s">
         <v>208</v>
       </c>
-      <c r="H54" s="118" t="s">
+      <c r="H54" s="129" t="s">
         <v>209</v>
       </c>
-      <c r="I54" s="118" t="s">
+      <c r="I54" s="129" t="s">
         <v>210</v>
       </c>
-      <c r="J54" s="118" t="s">
+      <c r="J54" s="129" t="s">
         <v>211</v>
       </c>
-      <c r="K54" s="118" t="s">
+      <c r="K54" s="129" t="s">
         <v>212</v>
       </c>
-      <c r="L54" s="45"/>
-      <c r="M54" s="14" t="s">
+      <c r="L54" s="55"/>
+      <c r="M54" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="N54" s="14"/>
-      <c r="O54" s="45"/>
-      <c r="P54" s="45"/>
-      <c r="Q54" s="45"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="55"/>
+      <c r="P54" s="55"/>
+      <c r="Q54" s="55"/>
     </row>
     <row r="55" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="134" t="s">
         <v>214</v>
       </c>
-      <c r="B55" s="65" t="s">
+      <c r="B55" s="123" t="s">
         <v>203</v>
       </c>
-      <c r="C55" s="132" t="s">
+      <c r="C55" s="131" t="s">
         <v>215</v>
       </c>
-      <c r="D55" s="133" t="s">
+      <c r="D55" s="135" t="s">
         <v>216</v>
       </c>
-      <c r="E55" s="128" t="s">
+      <c r="E55" s="136" t="s">
         <v>217</v>
       </c>
-      <c r="F55" s="45"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="45"/>
-      <c r="J55" s="45"/>
-      <c r="K55" s="45"/>
-      <c r="L55" s="45"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="127" t="str">
+      <c r="F55" s="55"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="55"/>
+      <c r="L55" s="55"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="141" t="str">
         <f>A58</f>
         <v>3.</v>
       </c>
-      <c r="P55" s="127"/>
-      <c r="Q55" s="127"/>
+      <c r="P55" s="141"/>
+      <c r="Q55" s="141"/>
     </row>
     <row r="56" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="45"/>
-      <c r="B56" s="45"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="45"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="45"/>
-      <c r="J56" s="45"/>
-      <c r="K56" s="45"/>
-      <c r="L56" s="45"/>
-      <c r="M56" s="14" t="s">
+      <c r="A56" s="55"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="55"/>
+      <c r="K56" s="55"/>
+      <c r="L56" s="55"/>
+      <c r="M56" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="O56" s="45"/>
-      <c r="P56" s="45"/>
-      <c r="Q56" s="45"/>
+      <c r="O56" s="55"/>
+      <c r="P56" s="55"/>
+      <c r="Q56" s="55"/>
     </row>
     <row r="57" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="45"/>
-      <c r="B57" s="45"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="118" t="s">
+      <c r="A57" s="55"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="129" t="s">
         <v>219</v>
       </c>
-      <c r="H57" s="118" t="s">
+      <c r="H57" s="129" t="s">
         <v>220</v>
       </c>
-      <c r="I57" s="118" t="s">
+      <c r="I57" s="129" t="s">
         <v>221</v>
       </c>
-      <c r="J57" s="118" t="s">
+      <c r="J57" s="129" t="s">
         <v>222</v>
       </c>
-      <c r="K57" s="118" t="s">
+      <c r="K57" s="129" t="s">
         <v>223</v>
       </c>
-      <c r="L57" s="45"/>
-      <c r="O57" s="121" t="str">
+      <c r="L57" s="55"/>
+      <c r="O57" s="130" t="str">
         <f>A61</f>
         <v>4.</v>
       </c>
-      <c r="P57" s="45"/>
-      <c r="Q57" s="45"/>
+      <c r="P57" s="55"/>
+      <c r="Q57" s="55"/>
     </row>
     <row r="58" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="134" t="s">
         <v>224</v>
       </c>
-      <c r="B58" s="65" t="s">
+      <c r="B58" s="123" t="s">
         <v>203</v>
       </c>
-      <c r="C58" s="132" t="s">
+      <c r="C58" s="131" t="s">
         <v>204</v>
       </c>
-      <c r="D58" s="133" t="s">
+      <c r="D58" s="135" t="s">
         <v>225</v>
       </c>
-      <c r="E58" s="128" t="s">
+      <c r="E58" s="136" t="s">
         <v>226</v>
       </c>
-      <c r="F58" s="45"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="45"/>
-      <c r="L58" s="45"/>
-      <c r="M58" s="14" t="s">
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="55"/>
+      <c r="K58" s="55"/>
+      <c r="L58" s="55"/>
+      <c r="M58" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="O58" s="45"/>
-      <c r="P58" s="45"/>
-      <c r="Q58" s="45"/>
+      <c r="O58" s="55"/>
+      <c r="P58" s="55"/>
+      <c r="Q58" s="55"/>
     </row>
     <row r="59" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="45"/>
-      <c r="B59" s="45"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="45"/>
-      <c r="G59" s="45"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="45"/>
-      <c r="J59" s="45"/>
-      <c r="K59" s="45"/>
-      <c r="L59" s="45"/>
-      <c r="O59" s="119" t="s">
+      <c r="A59" s="55"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="55"/>
+      <c r="J59" s="55"/>
+      <c r="K59" s="55"/>
+      <c r="L59" s="55"/>
+      <c r="O59" s="133" t="s">
         <v>228</v>
       </c>
-      <c r="P59" s="45"/>
-      <c r="Q59" s="45"/>
+      <c r="P59" s="55"/>
+      <c r="Q59" s="55"/>
     </row>
     <row r="60" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="45"/>
-      <c r="B60" s="45"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="45"/>
-      <c r="F60" s="45"/>
-      <c r="G60" s="118" t="s">
+      <c r="A60" s="55"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="129" t="s">
         <v>229</v>
       </c>
-      <c r="H60" s="118" t="s">
+      <c r="H60" s="129" t="s">
         <v>230</v>
       </c>
-      <c r="I60" s="118" t="s">
+      <c r="I60" s="129" t="s">
         <v>231</v>
       </c>
-      <c r="J60" s="118" t="s">
+      <c r="J60" s="129" t="s">
         <v>232</v>
       </c>
-      <c r="K60" s="118" t="s">
+      <c r="K60" s="129" t="s">
         <v>233</v>
       </c>
-      <c r="L60" s="45"/>
-      <c r="M60" s="14" t="s">
+      <c r="L60" s="55"/>
+      <c r="M60" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="O60" s="45"/>
-      <c r="P60" s="45"/>
-      <c r="Q60" s="45"/>
+      <c r="O60" s="55"/>
+      <c r="P60" s="55"/>
+      <c r="Q60" s="55"/>
     </row>
     <row r="61" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="134" t="s">
         <v>235</v>
       </c>
-      <c r="B61" s="65" t="s">
+      <c r="B61" s="123" t="s">
         <v>203</v>
       </c>
-      <c r="C61" s="132" t="s">
+      <c r="C61" s="131" t="s">
         <v>236</v>
       </c>
-      <c r="D61" s="133" t="s">
+      <c r="D61" s="135" t="s">
         <v>237</v>
       </c>
-      <c r="E61" s="128" t="s">
+      <c r="E61" s="136" t="s">
         <v>238</v>
       </c>
-      <c r="F61" s="45"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="45"/>
-      <c r="K61" s="45"/>
-      <c r="L61" s="45"/>
-      <c r="O61" s="125" t="s">
+      <c r="F61" s="55"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="55"/>
+      <c r="K61" s="55"/>
+      <c r="L61" s="55"/>
+      <c r="O61" s="156" t="s">
         <v>239</v>
       </c>
-      <c r="P61" s="45"/>
-      <c r="Q61" s="45"/>
+      <c r="P61" s="55"/>
+      <c r="Q61" s="55"/>
     </row>
     <row r="62" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="45"/>
-      <c r="B62" s="45"/>
-      <c r="C62" s="45"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="45"/>
-      <c r="F62" s="45"/>
-      <c r="G62" s="45"/>
-      <c r="H62" s="45"/>
-      <c r="I62" s="45"/>
-      <c r="J62" s="45"/>
-      <c r="K62" s="45"/>
-      <c r="L62" s="45"/>
-      <c r="M62" s="14" t="s">
+      <c r="A62" s="55"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="55"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="55"/>
+      <c r="J62" s="55"/>
+      <c r="K62" s="55"/>
+      <c r="L62" s="55"/>
+      <c r="M62" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="O62" s="45"/>
-      <c r="P62" s="45"/>
-      <c r="Q62" s="45"/>
+      <c r="O62" s="55"/>
+      <c r="P62" s="55"/>
+      <c r="Q62" s="55"/>
     </row>
     <row r="63" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="45"/>
-      <c r="B63" s="45"/>
-      <c r="C63" s="45"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="45"/>
-      <c r="F63" s="45"/>
-      <c r="G63" s="65"/>
-      <c r="H63" s="45"/>
-      <c r="I63" s="45"/>
-      <c r="J63" s="45"/>
-      <c r="K63" s="45"/>
-      <c r="L63" s="45"/>
+      <c r="A63" s="55"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="55"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="123"/>
+      <c r="H63" s="55"/>
+      <c r="I63" s="55"/>
+      <c r="J63" s="55"/>
+      <c r="K63" s="55"/>
+      <c r="L63" s="55"/>
     </row>
     <row r="64" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="45"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="16"/>
-      <c r="L64" s="45"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="55"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="55"/>
     </row>
     <row r="65" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="16"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="16"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
     </row>
     <row r="66" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="47" t="s">
+      <c r="A66" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="B66" s="48"/>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="48"/>
-      <c r="J66" s="48"/>
-      <c r="K66" s="48"/>
-      <c r="L66" s="48"/>
-      <c r="M66" s="48"/>
-      <c r="N66" s="48"/>
-      <c r="O66" s="21"/>
+      <c r="B66" s="49"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="49"/>
+      <c r="I66" s="49"/>
+      <c r="J66" s="49"/>
+      <c r="K66" s="49"/>
+      <c r="L66" s="49"/>
+      <c r="M66" s="49"/>
+      <c r="N66" s="49"/>
+      <c r="O66" s="18"/>
     </row>
     <row r="67" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="46" t="s">
+      <c r="A67" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="B67" s="45"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="45"/>
-      <c r="F67" s="45"/>
-      <c r="G67" s="45"/>
-      <c r="H67" s="45"/>
-      <c r="I67" s="45"/>
-      <c r="J67" s="45"/>
-      <c r="K67" s="45"/>
-      <c r="L67" s="45"/>
-      <c r="M67" s="45"/>
-      <c r="N67" s="45"/>
+      <c r="B67" s="55"/>
+      <c r="C67" s="55"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="55"/>
+      <c r="H67" s="55"/>
+      <c r="I67" s="55"/>
+      <c r="J67" s="55"/>
+      <c r="K67" s="55"/>
+      <c r="L67" s="55"/>
+      <c r="M67" s="55"/>
+      <c r="N67" s="55"/>
     </row>
     <row r="81" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="117" t="s">
+      <c r="A81" s="73" t="s">
         <v>242</v>
       </c>
-      <c r="B81" s="45"/>
-      <c r="C81" s="45"/>
-      <c r="D81" s="45"/>
-      <c r="E81" s="45"/>
-      <c r="F81" s="45"/>
-      <c r="G81" s="45"/>
-      <c r="H81" s="45"/>
-      <c r="I81" s="45"/>
-      <c r="J81" s="45"/>
-      <c r="K81" s="45"/>
-      <c r="L81" s="45"/>
-      <c r="M81" s="45"/>
-      <c r="N81" s="45"/>
+      <c r="B81" s="55"/>
+      <c r="C81" s="55"/>
+      <c r="D81" s="55"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="55"/>
+      <c r="H81" s="55"/>
+      <c r="I81" s="55"/>
+      <c r="J81" s="55"/>
+      <c r="K81" s="55"/>
+      <c r="L81" s="55"/>
+      <c r="M81" s="55"/>
+      <c r="N81" s="55"/>
     </row>
     <row r="82" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="121" t="s">
+      <c r="A82" s="130" t="s">
         <v>95</v>
       </c>
-      <c r="B82" s="45"/>
-      <c r="C82" s="121" t="s">
+      <c r="B82" s="55"/>
+      <c r="C82" s="130" t="s">
         <v>96</v>
       </c>
-      <c r="D82" s="45"/>
-      <c r="E82" s="121" t="s">
+      <c r="D82" s="55"/>
+      <c r="E82" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="F82" s="45"/>
-      <c r="G82" s="121" t="s">
+      <c r="F82" s="55"/>
+      <c r="G82" s="130" t="s">
         <v>98</v>
       </c>
-      <c r="H82" s="45"/>
-      <c r="I82" s="121" t="s">
+      <c r="H82" s="55"/>
+      <c r="I82" s="130" t="s">
         <v>99</v>
       </c>
-      <c r="J82" s="45"/>
-      <c r="K82" s="121" t="s">
+      <c r="J82" s="55"/>
+      <c r="K82" s="130" t="s">
         <v>243</v>
       </c>
-      <c r="L82" s="45"/>
-      <c r="M82" s="121" t="s">
+      <c r="L82" s="55"/>
+      <c r="M82" s="130" t="s">
         <v>244</v>
       </c>
-      <c r="N82" s="45"/>
+      <c r="N82" s="55"/>
     </row>
     <row r="83" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="120" t="s">
+      <c r="A83" s="137" t="s">
         <v>245</v>
       </c>
-      <c r="B83" s="45"/>
-      <c r="C83" s="120" t="s">
+      <c r="B83" s="55"/>
+      <c r="C83" s="137" t="s">
         <v>245</v>
       </c>
-      <c r="D83" s="45"/>
-      <c r="E83" s="120" t="s">
+      <c r="D83" s="55"/>
+      <c r="E83" s="137" t="s">
         <v>245</v>
       </c>
-      <c r="F83" s="45"/>
-      <c r="G83" s="120" t="s">
+      <c r="F83" s="55"/>
+      <c r="G83" s="137" t="s">
         <v>245</v>
       </c>
-      <c r="H83" s="45"/>
-      <c r="I83" s="120" t="s">
+      <c r="H83" s="55"/>
+      <c r="I83" s="137" t="s">
         <v>245</v>
       </c>
-      <c r="J83" s="45"/>
-      <c r="K83" s="120" t="s">
+      <c r="J83" s="55"/>
+      <c r="K83" s="137" t="s">
         <v>245</v>
       </c>
-      <c r="L83" s="45"/>
-      <c r="M83" s="120" t="s">
+      <c r="L83" s="55"/>
+      <c r="M83" s="137" t="s">
         <v>245</v>
       </c>
-      <c r="N83" s="45"/>
+      <c r="N83" s="55"/>
     </row>
     <row r="84" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="45"/>
-      <c r="B84" s="45"/>
-      <c r="C84" s="45"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="45"/>
-      <c r="F84" s="45"/>
-      <c r="G84" s="45"/>
-      <c r="H84" s="45"/>
-      <c r="I84" s="45"/>
-      <c r="J84" s="45"/>
-      <c r="K84" s="45"/>
-      <c r="L84" s="45"/>
-      <c r="M84" s="45"/>
-      <c r="N84" s="45"/>
+      <c r="A84" s="55"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="55"/>
+      <c r="D84" s="55"/>
+      <c r="E84" s="55"/>
+      <c r="F84" s="55"/>
+      <c r="G84" s="55"/>
+      <c r="H84" s="55"/>
+      <c r="I84" s="55"/>
+      <c r="J84" s="55"/>
+      <c r="K84" s="55"/>
+      <c r="L84" s="55"/>
+      <c r="M84" s="55"/>
+      <c r="N84" s="55"/>
     </row>
     <row r="85" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="45"/>
-      <c r="B85" s="45"/>
-      <c r="C85" s="45"/>
-      <c r="D85" s="45"/>
-      <c r="E85" s="45"/>
-      <c r="F85" s="45"/>
-      <c r="G85" s="45"/>
-      <c r="H85" s="45"/>
-      <c r="I85" s="45"/>
-      <c r="J85" s="45"/>
-      <c r="K85" s="45"/>
-      <c r="L85" s="45"/>
-      <c r="M85" s="45"/>
-      <c r="N85" s="45"/>
+      <c r="A85" s="55"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="55"/>
+      <c r="D85" s="55"/>
+      <c r="E85" s="55"/>
+      <c r="F85" s="55"/>
+      <c r="G85" s="55"/>
+      <c r="H85" s="55"/>
+      <c r="I85" s="55"/>
+      <c r="J85" s="55"/>
+      <c r="K85" s="55"/>
+      <c r="L85" s="55"/>
+      <c r="M85" s="55"/>
+      <c r="N85" s="55"/>
     </row>
     <row r="86" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="118" t="s">
+      <c r="A86" s="129" t="s">
         <v>246</v>
       </c>
-      <c r="B86" s="45"/>
-      <c r="C86" s="118" t="s">
+      <c r="B86" s="55"/>
+      <c r="C86" s="129" t="s">
         <v>246</v>
       </c>
-      <c r="D86" s="45"/>
-      <c r="E86" s="118" t="s">
+      <c r="D86" s="55"/>
+      <c r="E86" s="129" t="s">
         <v>246</v>
       </c>
-      <c r="F86" s="45"/>
-      <c r="G86" s="118" t="s">
+      <c r="F86" s="55"/>
+      <c r="G86" s="129" t="s">
         <v>246</v>
       </c>
-      <c r="H86" s="45"/>
-      <c r="I86" s="118" t="s">
+      <c r="H86" s="55"/>
+      <c r="I86" s="129" t="s">
         <v>246</v>
       </c>
-      <c r="J86" s="45"/>
-      <c r="K86" s="118" t="s">
+      <c r="J86" s="55"/>
+      <c r="K86" s="129" t="s">
         <v>246</v>
       </c>
-      <c r="L86" s="45"/>
-      <c r="M86" s="118" t="s">
+      <c r="L86" s="55"/>
+      <c r="M86" s="129" t="s">
         <v>246</v>
       </c>
-      <c r="N86" s="45"/>
+      <c r="N86" s="55"/>
     </row>
     <row r="87" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="117" t="s">
+      <c r="A87" s="73" t="s">
         <v>247</v>
       </c>
-      <c r="B87" s="45"/>
-      <c r="C87" s="45"/>
-      <c r="D87" s="45"/>
-      <c r="E87" s="45"/>
-      <c r="F87" s="45"/>
-      <c r="G87" s="45"/>
-      <c r="H87" s="45"/>
-      <c r="I87" s="45"/>
-      <c r="J87" s="45"/>
-      <c r="K87" s="45"/>
-      <c r="L87" s="45"/>
-      <c r="M87" s="45"/>
-      <c r="N87" s="45"/>
+      <c r="B87" s="55"/>
+      <c r="C87" s="55"/>
+      <c r="D87" s="55"/>
+      <c r="E87" s="55"/>
+      <c r="F87" s="55"/>
+      <c r="G87" s="55"/>
+      <c r="H87" s="55"/>
+      <c r="I87" s="55"/>
+      <c r="J87" s="55"/>
+      <c r="K87" s="55"/>
+      <c r="L87" s="55"/>
+      <c r="M87" s="55"/>
+      <c r="N87" s="55"/>
     </row>
     <row r="88" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="121" t="s">
+      <c r="A88" s="130" t="s">
         <v>95</v>
       </c>
-      <c r="B88" s="45"/>
-      <c r="C88" s="45"/>
-      <c r="D88" s="45"/>
-      <c r="E88" s="121" t="s">
+      <c r="B88" s="55"/>
+      <c r="C88" s="55"/>
+      <c r="D88" s="55"/>
+      <c r="E88" s="130" t="s">
         <v>96</v>
       </c>
-      <c r="F88" s="45"/>
-      <c r="G88" s="45"/>
-      <c r="H88" s="45"/>
-      <c r="I88" s="121" t="s">
+      <c r="F88" s="55"/>
+      <c r="G88" s="55"/>
+      <c r="H88" s="55"/>
+      <c r="I88" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="J88" s="45"/>
-      <c r="K88" s="45"/>
-      <c r="L88" s="45"/>
-      <c r="M88" s="122" t="s">
+      <c r="J88" s="55"/>
+      <c r="K88" s="55"/>
+      <c r="L88" s="55"/>
+      <c r="M88" s="139" t="s">
         <v>248</v>
       </c>
-      <c r="N88" s="45"/>
+      <c r="N88" s="55"/>
     </row>
     <row r="89" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="122" t="s">
+      <c r="A89" s="139" t="s">
         <v>245</v>
       </c>
-      <c r="B89" s="45"/>
-      <c r="C89" s="45"/>
-      <c r="D89" s="45"/>
-      <c r="E89" s="122" t="s">
+      <c r="B89" s="55"/>
+      <c r="C89" s="55"/>
+      <c r="D89" s="55"/>
+      <c r="E89" s="139" t="s">
         <v>245</v>
       </c>
-      <c r="F89" s="45"/>
-      <c r="G89" s="45"/>
-      <c r="H89" s="45"/>
-      <c r="I89" s="122" t="s">
+      <c r="F89" s="55"/>
+      <c r="G89" s="55"/>
+      <c r="H89" s="55"/>
+      <c r="I89" s="139" t="s">
         <v>245</v>
       </c>
-      <c r="J89" s="45"/>
-      <c r="K89" s="45"/>
-      <c r="L89" s="45"/>
-      <c r="M89" s="45"/>
-      <c r="N89" s="45"/>
+      <c r="J89" s="55"/>
+      <c r="K89" s="55"/>
+      <c r="L89" s="55"/>
+      <c r="M89" s="55"/>
+      <c r="N89" s="55"/>
     </row>
     <row r="90" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="45"/>
-      <c r="B90" s="45"/>
-      <c r="C90" s="45"/>
-      <c r="D90" s="45"/>
-      <c r="E90" s="45"/>
-      <c r="F90" s="45"/>
-      <c r="G90" s="45"/>
-      <c r="H90" s="45"/>
-      <c r="I90" s="45"/>
-      <c r="J90" s="45"/>
-      <c r="K90" s="45"/>
-      <c r="L90" s="45"/>
-      <c r="M90" s="45"/>
-      <c r="N90" s="45"/>
+      <c r="A90" s="55"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="55"/>
+      <c r="D90" s="55"/>
+      <c r="E90" s="55"/>
+      <c r="F90" s="55"/>
+      <c r="G90" s="55"/>
+      <c r="H90" s="55"/>
+      <c r="I90" s="55"/>
+      <c r="J90" s="55"/>
+      <c r="K90" s="55"/>
+      <c r="L90" s="55"/>
+      <c r="M90" s="55"/>
+      <c r="N90" s="55"/>
     </row>
     <row r="91" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="45"/>
-      <c r="B91" s="45"/>
-      <c r="C91" s="45"/>
-      <c r="D91" s="45"/>
-      <c r="E91" s="45"/>
-      <c r="F91" s="45"/>
-      <c r="G91" s="45"/>
-      <c r="H91" s="45"/>
-      <c r="I91" s="45"/>
-      <c r="J91" s="45"/>
-      <c r="K91" s="45"/>
-      <c r="L91" s="45"/>
-      <c r="M91" s="45"/>
-      <c r="N91" s="45"/>
+      <c r="A91" s="55"/>
+      <c r="B91" s="55"/>
+      <c r="C91" s="55"/>
+      <c r="D91" s="55"/>
+      <c r="E91" s="55"/>
+      <c r="F91" s="55"/>
+      <c r="G91" s="55"/>
+      <c r="H91" s="55"/>
+      <c r="I91" s="55"/>
+      <c r="J91" s="55"/>
+      <c r="K91" s="55"/>
+      <c r="L91" s="55"/>
+      <c r="M91" s="55"/>
+      <c r="N91" s="55"/>
     </row>
     <row r="92" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="45"/>
-      <c r="B92" s="45"/>
-      <c r="C92" s="45"/>
-      <c r="D92" s="45"/>
-      <c r="E92" s="45"/>
-      <c r="F92" s="45"/>
-      <c r="G92" s="45"/>
-      <c r="H92" s="45"/>
-      <c r="I92" s="45"/>
-      <c r="J92" s="45"/>
-      <c r="K92" s="45"/>
-      <c r="L92" s="45"/>
-      <c r="M92" s="45"/>
-      <c r="N92" s="45"/>
+      <c r="A92" s="55"/>
+      <c r="B92" s="55"/>
+      <c r="C92" s="55"/>
+      <c r="D92" s="55"/>
+      <c r="E92" s="55"/>
+      <c r="F92" s="55"/>
+      <c r="G92" s="55"/>
+      <c r="H92" s="55"/>
+      <c r="I92" s="55"/>
+      <c r="J92" s="55"/>
+      <c r="K92" s="55"/>
+      <c r="L92" s="55"/>
+      <c r="M92" s="55"/>
+      <c r="N92" s="55"/>
     </row>
     <row r="94" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="47" t="s">
+      <c r="A94" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="B94" s="48"/>
-      <c r="C94" s="48"/>
-      <c r="D94" s="48"/>
-      <c r="E94" s="48"/>
-      <c r="F94" s="48"/>
-      <c r="G94" s="48"/>
-      <c r="H94" s="48"/>
-      <c r="I94" s="48"/>
-      <c r="J94" s="48"/>
-      <c r="K94" s="48"/>
-      <c r="L94" s="48"/>
-      <c r="M94" s="48"/>
-      <c r="N94" s="48"/>
-      <c r="O94" s="48"/>
-      <c r="P94" s="49"/>
+      <c r="B94" s="49"/>
+      <c r="C94" s="49"/>
+      <c r="D94" s="49"/>
+      <c r="E94" s="49"/>
+      <c r="F94" s="49"/>
+      <c r="G94" s="49"/>
+      <c r="H94" s="49"/>
+      <c r="I94" s="49"/>
+      <c r="J94" s="49"/>
+      <c r="K94" s="49"/>
+      <c r="L94" s="49"/>
+      <c r="M94" s="49"/>
+      <c r="N94" s="49"/>
+      <c r="O94" s="49"/>
+      <c r="P94" s="50"/>
     </row>
     <row r="95" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="46" t="s">
+      <c r="A95" s="70" t="s">
         <v>250</v>
       </c>
-      <c r="B95" s="45"/>
-      <c r="C95" s="45"/>
-      <c r="D95" s="45"/>
-      <c r="E95" s="46" t="s">
+      <c r="B95" s="55"/>
+      <c r="C95" s="55"/>
+      <c r="D95" s="55"/>
+      <c r="E95" s="70" t="s">
         <v>251</v>
       </c>
-      <c r="F95" s="45"/>
-      <c r="G95" s="45"/>
-      <c r="H95" s="45"/>
-      <c r="I95" s="46" t="s">
+      <c r="F95" s="55"/>
+      <c r="G95" s="55"/>
+      <c r="H95" s="55"/>
+      <c r="I95" s="70" t="s">
         <v>252</v>
       </c>
-      <c r="J95" s="45"/>
-      <c r="K95" s="45"/>
-      <c r="L95" s="45"/>
-      <c r="M95" s="46" t="s">
+      <c r="J95" s="55"/>
+      <c r="K95" s="55"/>
+      <c r="L95" s="55"/>
+      <c r="M95" s="70" t="s">
         <v>253</v>
       </c>
-      <c r="N95" s="45"/>
-      <c r="O95" s="45"/>
-      <c r="P95" s="45"/>
+      <c r="N95" s="55"/>
+      <c r="O95" s="55"/>
+      <c r="P95" s="55"/>
     </row>
     <row r="96" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="30" t="s">
+      <c r="A96" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B96" s="30" t="s">
+      <c r="B96" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="C96" s="30" t="s">
+      <c r="C96" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="D96" s="30" t="s">
+      <c r="D96" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="E96" s="119" t="s">
+      <c r="E96" s="133" t="s">
         <v>257</v>
       </c>
-      <c r="F96" s="45"/>
-      <c r="G96" s="45"/>
-      <c r="H96" s="45"/>
-      <c r="I96" s="119" t="s">
+      <c r="F96" s="55"/>
+      <c r="G96" s="55"/>
+      <c r="H96" s="55"/>
+      <c r="I96" s="133" t="s">
         <v>258</v>
       </c>
-      <c r="J96" s="45"/>
-      <c r="K96" s="45"/>
-      <c r="L96" s="45"/>
-      <c r="M96" s="119" t="s">
+      <c r="J96" s="55"/>
+      <c r="K96" s="55"/>
+      <c r="L96" s="55"/>
+      <c r="M96" s="133" t="s">
         <v>259</v>
       </c>
-      <c r="N96" s="45"/>
-      <c r="O96" s="45"/>
-      <c r="P96" s="45"/>
+      <c r="N96" s="55"/>
+      <c r="O96" s="55"/>
+      <c r="P96" s="55"/>
     </row>
     <row r="97" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="123" t="s">
+      <c r="A97" s="140" t="s">
         <v>260</v>
       </c>
-      <c r="B97" s="123" t="s">
+      <c r="B97" s="140" t="s">
         <v>260</v>
       </c>
-      <c r="C97" s="123" t="s">
+      <c r="C97" s="140" t="s">
         <v>260</v>
       </c>
-      <c r="D97" s="123" t="s">
+      <c r="D97" s="140" t="s">
         <v>260</v>
       </c>
-      <c r="E97" s="124" t="str">
+      <c r="E97" s="160" t="str">
         <f>L33</f>
         <v>Làm sao chúng ta có thể visulization... (What2)...cho...(Who2), sẽ giúp cho...(Why2)...theo...(POV2)</v>
       </c>
-      <c r="F97" s="45"/>
-      <c r="G97" s="45"/>
-      <c r="H97" s="45"/>
-      <c r="I97" s="125" t="str">
+      <c r="F97" s="55"/>
+      <c r="G97" s="55"/>
+      <c r="H97" s="55"/>
+      <c r="I97" s="156" t="str">
         <f>O61</f>
         <v>IDEA ?</v>
       </c>
-      <c r="J97" s="45"/>
-      <c r="K97" s="45"/>
-      <c r="L97" s="45"/>
-      <c r="M97" s="120" t="s">
+      <c r="J97" s="55"/>
+      <c r="K97" s="55"/>
+      <c r="L97" s="55"/>
+      <c r="M97" s="137" t="s">
         <v>245</v>
       </c>
-      <c r="N97" s="45"/>
-      <c r="O97" s="45"/>
-      <c r="P97" s="45"/>
+      <c r="N97" s="55"/>
+      <c r="O97" s="55"/>
+      <c r="P97" s="55"/>
     </row>
     <row r="98" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="45"/>
-      <c r="B98" s="45"/>
-      <c r="C98" s="45"/>
-      <c r="D98" s="45"/>
-      <c r="E98" s="45"/>
-      <c r="F98" s="45"/>
-      <c r="G98" s="45"/>
-      <c r="H98" s="45"/>
-      <c r="I98" s="45"/>
-      <c r="J98" s="45"/>
-      <c r="K98" s="45"/>
-      <c r="L98" s="45"/>
-      <c r="M98" s="45"/>
-      <c r="N98" s="45"/>
-      <c r="O98" s="45"/>
-      <c r="P98" s="45"/>
+      <c r="A98" s="55"/>
+      <c r="B98" s="55"/>
+      <c r="C98" s="55"/>
+      <c r="D98" s="55"/>
+      <c r="E98" s="55"/>
+      <c r="F98" s="55"/>
+      <c r="G98" s="55"/>
+      <c r="H98" s="55"/>
+      <c r="I98" s="55"/>
+      <c r="J98" s="55"/>
+      <c r="K98" s="55"/>
+      <c r="L98" s="55"/>
+      <c r="M98" s="55"/>
+      <c r="N98" s="55"/>
+      <c r="O98" s="55"/>
+      <c r="P98" s="55"/>
     </row>
     <row r="99" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="45"/>
-      <c r="B99" s="45"/>
-      <c r="C99" s="45"/>
-      <c r="D99" s="45"/>
-      <c r="E99" s="45"/>
-      <c r="F99" s="45"/>
-      <c r="G99" s="45"/>
-      <c r="H99" s="45"/>
-      <c r="I99" s="45"/>
-      <c r="J99" s="45"/>
-      <c r="K99" s="45"/>
-      <c r="L99" s="45"/>
-      <c r="M99" s="45"/>
-      <c r="N99" s="45"/>
-      <c r="O99" s="45"/>
-      <c r="P99" s="45"/>
+      <c r="A99" s="55"/>
+      <c r="B99" s="55"/>
+      <c r="C99" s="55"/>
+      <c r="D99" s="55"/>
+      <c r="E99" s="55"/>
+      <c r="F99" s="55"/>
+      <c r="G99" s="55"/>
+      <c r="H99" s="55"/>
+      <c r="I99" s="55"/>
+      <c r="J99" s="55"/>
+      <c r="K99" s="55"/>
+      <c r="L99" s="55"/>
+      <c r="M99" s="55"/>
+      <c r="N99" s="55"/>
+      <c r="O99" s="55"/>
+      <c r="P99" s="55"/>
     </row>
     <row r="100" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="45"/>
-      <c r="B100" s="45"/>
-      <c r="C100" s="45"/>
-      <c r="D100" s="45"/>
-      <c r="E100" s="45"/>
-      <c r="F100" s="45"/>
-      <c r="G100" s="45"/>
-      <c r="H100" s="45"/>
-      <c r="I100" s="45"/>
-      <c r="J100" s="45"/>
-      <c r="K100" s="45"/>
-      <c r="L100" s="45"/>
-      <c r="M100" s="45"/>
-      <c r="N100" s="45"/>
-      <c r="O100" s="45"/>
-      <c r="P100" s="45"/>
+      <c r="A100" s="55"/>
+      <c r="B100" s="55"/>
+      <c r="C100" s="55"/>
+      <c r="D100" s="55"/>
+      <c r="E100" s="55"/>
+      <c r="F100" s="55"/>
+      <c r="G100" s="55"/>
+      <c r="H100" s="55"/>
+      <c r="I100" s="55"/>
+      <c r="J100" s="55"/>
+      <c r="K100" s="55"/>
+      <c r="L100" s="55"/>
+      <c r="M100" s="55"/>
+      <c r="N100" s="55"/>
+      <c r="O100" s="55"/>
+      <c r="P100" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="231">
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="A87:N87"/>
+    <mergeCell ref="M95:P95"/>
+    <mergeCell ref="M96:P96"/>
+    <mergeCell ref="M97:P100"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="E88:H88"/>
+    <mergeCell ref="I88:L88"/>
+    <mergeCell ref="E89:H92"/>
+    <mergeCell ref="I89:L92"/>
+    <mergeCell ref="A94:P94"/>
+    <mergeCell ref="D97:D100"/>
+    <mergeCell ref="E97:H100"/>
+    <mergeCell ref="A89:D92"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="E95:H95"/>
+    <mergeCell ref="I95:L95"/>
+    <mergeCell ref="E96:H96"/>
+    <mergeCell ref="I96:L96"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="I97:L100"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="L31:P32"/>
+    <mergeCell ref="Q31:Q34"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="L33:P34"/>
+    <mergeCell ref="L35:Q37"/>
+    <mergeCell ref="N38:Q39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="Q40:Q42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="S22:U24"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="E23:F24"/>
+    <mergeCell ref="G23:H24"/>
+    <mergeCell ref="I23:J24"/>
+    <mergeCell ref="A29:Q29"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="L30:Q30"/>
+    <mergeCell ref="P57:P58"/>
+    <mergeCell ref="Q57:Q58"/>
+    <mergeCell ref="O59:Q60"/>
+    <mergeCell ref="O61:Q62"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="Q53:Q54"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A45:Q45"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="G46:K46"/>
+    <mergeCell ref="M46:Q46"/>
+    <mergeCell ref="M47:Q48"/>
+    <mergeCell ref="O49:Q49"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="Q55:Q56"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="J54:J56"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="I20:J21"/>
+    <mergeCell ref="K30:K41"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R15:R24"/>
+    <mergeCell ref="P16:Q17"/>
+    <mergeCell ref="P18:Q21"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:I11"/>
+    <mergeCell ref="A14:U14"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="S18:U19"/>
+    <mergeCell ref="S20:U21"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="K15:K24"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="M83:N85"/>
+    <mergeCell ref="M88:N92"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="C97:C100"/>
+    <mergeCell ref="G17:H18"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="L18:M21"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="L38:M42"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="K83:L85"/>
+    <mergeCell ref="A83:B85"/>
+    <mergeCell ref="C83:D85"/>
+    <mergeCell ref="E83:F85"/>
+    <mergeCell ref="G83:H85"/>
+    <mergeCell ref="I83:J85"/>
+    <mergeCell ref="G63:K63"/>
+    <mergeCell ref="F46:F64"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:E49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="K51:K53"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="I57:I59"/>
+    <mergeCell ref="J57:J59"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:E60"/>
     <mergeCell ref="K57:K59"/>
     <mergeCell ref="G60:G62"/>
     <mergeCell ref="H60:H62"/>
@@ -7812,213 +8088,6 @@
     <mergeCell ref="G49:K50"/>
     <mergeCell ref="K54:K56"/>
     <mergeCell ref="J51:J53"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="I54:I56"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="I57:I59"/>
-    <mergeCell ref="J57:J59"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="K83:L85"/>
-    <mergeCell ref="A83:B85"/>
-    <mergeCell ref="C83:D85"/>
-    <mergeCell ref="E83:F85"/>
-    <mergeCell ref="G83:H85"/>
-    <mergeCell ref="I83:J85"/>
-    <mergeCell ref="G63:K63"/>
-    <mergeCell ref="F46:F64"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:E49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="K51:K53"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="M83:N85"/>
-    <mergeCell ref="M88:N92"/>
-    <mergeCell ref="B97:B100"/>
-    <mergeCell ref="C97:C100"/>
-    <mergeCell ref="G17:H18"/>
-    <mergeCell ref="I17:J18"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="L18:M21"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="N20:O21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="L38:M42"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R15:R24"/>
-    <mergeCell ref="P16:Q17"/>
-    <mergeCell ref="P18:Q21"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:I11"/>
-    <mergeCell ref="A14:U14"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="L16:M17"/>
-    <mergeCell ref="N16:O17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="S18:U19"/>
-    <mergeCell ref="S20:U21"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="K15:K24"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="L1:Q1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="I20:J21"/>
-    <mergeCell ref="K30:K41"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A45:Q45"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="G46:K46"/>
-    <mergeCell ref="M46:Q46"/>
-    <mergeCell ref="M47:Q48"/>
-    <mergeCell ref="O49:Q49"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="Q55:Q56"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="J54:J56"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="P57:P58"/>
-    <mergeCell ref="Q57:Q58"/>
-    <mergeCell ref="O59:Q60"/>
-    <mergeCell ref="O61:Q62"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="Q53:Q54"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="S22:U24"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="E23:F24"/>
-    <mergeCell ref="G23:H24"/>
-    <mergeCell ref="I23:J24"/>
-    <mergeCell ref="A29:Q29"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="L30:Q30"/>
-    <mergeCell ref="L31:P32"/>
-    <mergeCell ref="Q31:Q34"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="L33:P34"/>
-    <mergeCell ref="L35:Q37"/>
-    <mergeCell ref="N38:Q39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="Q40:Q42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="A87:N87"/>
-    <mergeCell ref="M95:P95"/>
-    <mergeCell ref="M96:P96"/>
-    <mergeCell ref="M97:P100"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="E88:H88"/>
-    <mergeCell ref="I88:L88"/>
-    <mergeCell ref="E89:H92"/>
-    <mergeCell ref="I89:L92"/>
-    <mergeCell ref="A94:P94"/>
-    <mergeCell ref="D97:D100"/>
-    <mergeCell ref="E97:H100"/>
-    <mergeCell ref="A89:D92"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="E95:H95"/>
-    <mergeCell ref="I95:L95"/>
-    <mergeCell ref="E96:H96"/>
-    <mergeCell ref="I96:L96"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="I97:L100"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="E86:F86"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8033,7 +8102,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8045,162 +8114,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="27" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="161" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="D2" s="32"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="151"/>
-      <c r="B3" s="32" t="s">
+      <c r="A3" s="162"/>
+      <c r="B3" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="28" t="s">
         <v>269</v>
       </c>
-      <c r="D3" s="32"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="151"/>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="162"/>
+      <c r="B4" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A5" s="151"/>
-      <c r="B5" s="32" t="s">
+      <c r="A5" s="162"/>
+      <c r="B5" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="152"/>
-      <c r="B6" s="32" t="s">
+      <c r="A6" s="163"/>
+      <c r="B6" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="D6" s="33"/>
+      <c r="D6" s="29"/>
     </row>
     <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="153" t="s">
+      <c r="A7" s="164" t="s">
         <v>276</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="152"/>
-      <c r="B8" s="32" t="s">
+      <c r="A8" s="163"/>
+      <c r="B8" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="D8" s="37"/>
+      <c r="D8" s="33"/>
     </row>
     <row r="9" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="154" t="s">
+      <c r="A9" s="165" t="s">
         <v>281</v>
       </c>
-      <c r="B9" s="155" t="s">
+      <c r="B9" s="166" t="s">
         <v>282</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="35" t="s">
         <v>283</v>
       </c>
-      <c r="D9" s="40"/>
+      <c r="D9" s="36"/>
     </row>
     <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="151"/>
-      <c r="B10" s="151"/>
-      <c r="C10" s="38" t="s">
+      <c r="A10" s="162"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="38"/>
+      <c r="D10" s="34"/>
     </row>
     <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="151"/>
-      <c r="B11" s="151"/>
-      <c r="C11" s="33" t="s">
+      <c r="A11" s="162"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="33"/>
+      <c r="D11" s="29"/>
     </row>
     <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="151"/>
-      <c r="B12" s="152"/>
-      <c r="C12" s="33" t="s">
+      <c r="A12" s="162"/>
+      <c r="B12" s="163"/>
+      <c r="C12" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="33"/>
+      <c r="D12" s="29"/>
     </row>
     <row r="13" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A13" s="152"/>
-      <c r="B13" s="33" t="s">
+      <c r="A13" s="163"/>
+      <c r="B13" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="D13" s="33"/>
+      <c r="D13" s="29"/>
     </row>
     <row r="14" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="D14" s="33"/>
+      <c r="D14" s="29"/>
     </row>
     <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="32" t="s">
         <v>291</v>
       </c>
-      <c r="D15" s="33"/>
+      <c r="D15" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/PowerBI_Analyze Customer Segmentation of An Online Retailer/Design Thinking Plan.xlsx
+++ b/PowerBI_Analyze Customer Segmentation of An Online Retailer/Design Thinking Plan.xlsx
@@ -2435,59 +2435,216 @@
     <xf numFmtId="0" fontId="26" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2497,244 +2654,87 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3495,10 +3495,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -3703,7 +3699,7 @@
   <dimension ref="A1:Z104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="I11" sqref="I11:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3724,70 +3720,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="53"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="118"/>
     </row>
     <row r="3" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="56"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="120"/>
     </row>
     <row r="4" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="57"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="53"/>
+      <c r="A4" s="121"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="118"/>
     </row>
     <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="53"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="118"/>
     </row>
     <row r="6" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
@@ -3796,98 +3792,98 @@
       <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="50"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="53"/>
     </row>
     <row r="9" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="59" t="s">
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="70" t="s">
+      <c r="L9" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="59" t="s">
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="S9" s="72" t="s">
+      <c r="S9" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
     </row>
     <row r="10" spans="1:21" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="90" t="s">
+      <c r="B10" s="55"/>
+      <c r="C10" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="75"/>
-      <c r="E10" s="89" t="s">
+      <c r="D10" s="55"/>
+      <c r="E10" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="91"/>
-      <c r="G10" s="90" t="s">
+      <c r="F10" s="97"/>
+      <c r="G10" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="91"/>
-      <c r="I10" s="89" t="s">
+      <c r="H10" s="97"/>
+      <c r="I10" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="75"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="80" t="s">
+      <c r="J10" s="55"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="75"/>
-      <c r="N10" s="80" t="s">
+      <c r="M10" s="55"/>
+      <c r="N10" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="75"/>
-      <c r="P10" s="80" t="s">
+      <c r="O10" s="55"/>
+      <c r="P10" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="49"/>
       <c r="S10" s="37" t="s">
         <v>293</v>
       </c>
@@ -3899,40 +3895,40 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="98" t="s">
         <v>297</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="61" t="s">
+      <c r="B11" s="99"/>
+      <c r="C11" s="100" t="s">
         <v>338</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="93" t="s">
+      <c r="D11" s="101"/>
+      <c r="E11" s="102" t="s">
         <v>298</v>
       </c>
-      <c r="F11" s="94"/>
-      <c r="G11" s="61" t="s">
+      <c r="F11" s="103"/>
+      <c r="G11" s="100" t="s">
         <v>339</v>
       </c>
-      <c r="H11" s="95"/>
-      <c r="I11" s="61" t="s">
+      <c r="H11" s="104"/>
+      <c r="I11" s="100" t="s">
         <v>341</v>
       </c>
-      <c r="J11" s="62"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="66" t="s">
+      <c r="J11" s="123"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="70" t="s">
         <v>342</v>
       </c>
-      <c r="M11" s="67"/>
-      <c r="N11" s="61" t="s">
+      <c r="M11" s="93"/>
+      <c r="N11" s="100" t="s">
         <v>343</v>
       </c>
-      <c r="O11" s="81"/>
-      <c r="P11" s="61" t="s">
+      <c r="O11" s="78"/>
+      <c r="P11" s="100" t="s">
         <v>344</v>
       </c>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="55"/>
+      <c r="Q11" s="123"/>
+      <c r="R11" s="49"/>
       <c r="S11" s="6">
         <v>11</v>
       </c>
@@ -3944,158 +3940,158 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="64"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="73" t="s">
+      <c r="A12" s="99"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="123"/>
+      <c r="Q12" s="123"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="T12" s="55"/>
-      <c r="U12" s="55"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
     </row>
     <row r="13" spans="1:21" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="99" t="s">
+      <c r="B13" s="55"/>
+      <c r="C13" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="75"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="80" t="s">
+      <c r="D13" s="55"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="75"/>
-      <c r="N13" s="85" t="s">
+      <c r="M13" s="55"/>
+      <c r="N13" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="O13" s="69"/>
-      <c r="P13" s="86" t="s">
+      <c r="O13" s="72"/>
+      <c r="P13" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="Q13" s="75"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="60" t="s">
+      <c r="Q13" s="55"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="122" t="s">
         <v>299</v>
       </c>
-      <c r="T13" s="55"/>
-      <c r="U13" s="55"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
     </row>
     <row r="14" spans="1:21" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="124" t="s">
         <v>297</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="61" t="s">
+      <c r="B14" s="99"/>
+      <c r="C14" s="100" t="s">
         <v>340</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="66" t="s">
+      <c r="D14" s="101"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="70" t="s">
         <v>345</v>
       </c>
-      <c r="M14" s="67"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="66" t="s">
+      <c r="M14" s="93"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="70" t="s">
         <v>346</v>
       </c>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="55"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
     </row>
     <row r="15" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="64"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="68" t="s">
+      <c r="A15" s="99"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="T15" s="69"/>
-      <c r="U15" s="69"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="72"/>
     </row>
     <row r="16" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="70" t="s">
+      <c r="A16" s="99"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="69"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
     </row>
     <row r="17" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="64"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="55"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="49"/>
       <c r="L17" s="44" t="s">
         <v>29</v>
       </c>
@@ -4114,68 +4110,68 @@
       <c r="Q17" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="R17" s="55"/>
-      <c r="S17" s="71" t="s">
+      <c r="R17" s="49"/>
+      <c r="S17" s="126" t="s">
         <v>300</v>
       </c>
-      <c r="T17" s="69"/>
-      <c r="U17" s="69"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="72"/>
     </row>
     <row r="18" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="64"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="66" t="s">
+      <c r="A18" s="99"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="70" t="s">
         <v>347</v>
       </c>
-      <c r="M18" s="66" t="s">
+      <c r="M18" s="70" t="s">
         <v>310</v>
       </c>
-      <c r="N18" s="66" t="s">
+      <c r="N18" s="70" t="s">
         <v>311</v>
       </c>
-      <c r="O18" s="66" t="s">
+      <c r="O18" s="70" t="s">
         <v>312</v>
       </c>
-      <c r="P18" s="66" t="s">
+      <c r="P18" s="70" t="s">
         <v>313</v>
       </c>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="69"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="72"/>
+      <c r="U18" s="72"/>
     </row>
     <row r="19" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K19" s="55"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="55"/>
-      <c r="S19" s="69"/>
-      <c r="T19" s="69"/>
-      <c r="U19" s="69"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="93"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="72"/>
+      <c r="T19" s="72"/>
+      <c r="U19" s="72"/>
     </row>
     <row r="20" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K20" s="55"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="55"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="93"/>
+      <c r="R20" s="49"/>
     </row>
     <row r="21" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
@@ -4183,52 +4179,52 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="50"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="53"/>
     </row>
     <row r="24" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="87" t="s">
+      <c r="A24" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="59" t="s">
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="87" t="s">
+      <c r="F24" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="59" t="s">
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="L24" s="87" t="s">
+      <c r="L24" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="8"/>
@@ -4242,16 +4238,16 @@
       <c r="Z24" s="8"/>
     </row>
     <row r="25" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="88" t="s">
+      <c r="A25" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="88" t="s">
+      <c r="B25" s="49"/>
+      <c r="C25" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="55"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="79" t="s">
+      <c r="D25" s="49"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="110" t="s">
         <v>44</v>
       </c>
       <c r="G25" s="9" t="s">
@@ -4266,27 +4262,27 @@
       <c r="J25" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="K25" s="55"/>
-      <c r="L25" s="84" t="s">
+      <c r="K25" s="49"/>
+      <c r="L25" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="M25" s="75"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="75"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:26" ht="24" x14ac:dyDescent="0.2">
-      <c r="A26" s="89" t="s">
+      <c r="A26" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="75"/>
-      <c r="C26" s="89" t="s">
+      <c r="B26" s="55"/>
+      <c r="C26" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="75"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="75"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="55"/>
       <c r="G26" s="38" t="s">
         <v>302</v>
       </c>
@@ -4299,29 +4295,29 @@
       <c r="J26" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="K26" s="55"/>
+      <c r="K26" s="49"/>
       <c r="L26" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M26" s="83" t="s">
+      <c r="M26" s="48" t="s">
         <v>305</v>
       </c>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:26" ht="24" x14ac:dyDescent="0.2">
-      <c r="A27" s="96" t="s">
+      <c r="A27" s="105" t="s">
         <v>302</v>
       </c>
-      <c r="B27" s="97"/>
-      <c r="C27" s="96" t="s">
+      <c r="B27" s="106"/>
+      <c r="C27" s="105" t="s">
         <v>314</v>
       </c>
-      <c r="D27" s="97"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="75"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="55"/>
       <c r="G27" s="38" t="s">
         <v>294</v>
       </c>
@@ -4334,79 +4330,79 @@
       <c r="J27" s="38" t="s">
         <v>317</v>
       </c>
-      <c r="K27" s="55"/>
+      <c r="K27" s="49"/>
       <c r="L27" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="M27" s="82" t="s">
+      <c r="M27" s="61" t="s">
         <v>318</v>
       </c>
-      <c r="N27" s="81"/>
-      <c r="O27" s="81"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="97"/>
-      <c r="B28" s="97"/>
-      <c r="C28" s="97"/>
-      <c r="D28" s="97"/>
-      <c r="E28" s="69"/>
-      <c r="K28" s="55"/>
+      <c r="A28" s="106"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="72"/>
+      <c r="K28" s="49"/>
       <c r="L28" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="M28" s="83"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="97"/>
-      <c r="B29" s="97"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="69"/>
+      <c r="A29" s="106"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="72"/>
       <c r="F29" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="G29" s="74" t="s">
+      <c r="G29" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="H29" s="75"/>
-      <c r="I29" s="74" t="s">
+      <c r="H29" s="55"/>
+      <c r="I29" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="J29" s="75"/>
-      <c r="K29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="49"/>
       <c r="L29" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="M29" s="82"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="81"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="97"/>
-      <c r="B30" s="97"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="98" t="s">
+      <c r="A30" s="106"/>
+      <c r="B30" s="106"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="G30" s="76" t="s">
+      <c r="G30" s="90" t="s">
         <v>350</v>
       </c>
-      <c r="H30" s="77"/>
-      <c r="I30" s="78" t="s">
+      <c r="H30" s="91"/>
+      <c r="I30" s="92" t="s">
         <v>348</v>
       </c>
-      <c r="J30" s="67"/>
-      <c r="K30" s="55"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="49"/>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
@@ -4415,147 +4411,147 @@
       <c r="Q30" s="3"/>
     </row>
     <row r="31" spans="1:26" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="89" t="s">
+      <c r="A31" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="75"/>
-      <c r="C31" s="89" t="s">
+      <c r="B31" s="55"/>
+      <c r="C31" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="75"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="84" t="s">
+      <c r="D31" s="55"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="M31" s="75"/>
-      <c r="N31" s="75"/>
-      <c r="O31" s="75"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
     </row>
     <row r="32" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="122" t="s">
+      <c r="A32" s="74" t="s">
         <v>354</v>
       </c>
-      <c r="B32" s="105"/>
-      <c r="C32" s="122" t="s">
+      <c r="B32" s="75"/>
+      <c r="C32" s="74" t="s">
         <v>355</v>
       </c>
-      <c r="D32" s="105"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="98" t="s">
+      <c r="D32" s="75"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="G32" s="76" t="s">
+      <c r="G32" s="90" t="s">
         <v>349</v>
       </c>
-      <c r="H32" s="77"/>
-      <c r="I32" s="78" t="s">
+      <c r="H32" s="91"/>
+      <c r="I32" s="92" t="s">
         <v>351</v>
       </c>
-      <c r="J32" s="67"/>
-      <c r="K32" s="55"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="49"/>
       <c r="L32" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M32" s="83" t="s">
+      <c r="M32" s="48" t="s">
         <v>319</v>
       </c>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
     </row>
     <row r="33" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="105"/>
-      <c r="B33" s="105"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="55"/>
+      <c r="A33" s="75"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="91"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="49"/>
       <c r="L33" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="M33" s="82" t="s">
+      <c r="M33" s="61" t="s">
         <v>320</v>
       </c>
-      <c r="N33" s="81"/>
-      <c r="O33" s="81"/>
+      <c r="N33" s="78"/>
+      <c r="O33" s="78"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="105"/>
-      <c r="B34" s="105"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="103" t="s">
+      <c r="A34" s="75"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="G34" s="104"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="104"/>
-      <c r="J34" s="105"/>
-      <c r="K34" s="55"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="95"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="49"/>
       <c r="L34" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="M34" s="83"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="55"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="105"/>
-      <c r="B35" s="105"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="105"/>
-      <c r="K35" s="55"/>
+      <c r="A35" s="75"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="49"/>
       <c r="L35" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="M35" s="83"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="55"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
     </row>
     <row r="36" spans="1:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="89" t="s">
+      <c r="A36" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="75"/>
-      <c r="C36" s="126" t="s">
+      <c r="B36" s="55"/>
+      <c r="C36" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="127"/>
+      <c r="D36" s="57"/>
       <c r="E36" s="10"/>
-      <c r="F36" s="103" t="s">
+      <c r="F36" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="G36" s="104"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="104"/>
-      <c r="J36" s="105"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="95"/>
+      <c r="J36" s="75"/>
       <c r="K36" s="11"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -4565,27 +4561,27 @@
       <c r="Q36" s="3"/>
     </row>
     <row r="37" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="106" t="s">
+      <c r="A37" s="59" t="s">
         <v>315</v>
       </c>
-      <c r="B37" s="105"/>
-      <c r="C37" s="106" t="s">
+      <c r="B37" s="75"/>
+      <c r="C37" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D37" s="105"/>
+      <c r="D37" s="75"/>
       <c r="E37" s="12"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="105"/>
-      <c r="I37" s="105"/>
-      <c r="J37" s="105"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="75"/>
       <c r="K37" s="11"/>
     </row>
     <row r="38" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="105"/>
-      <c r="B38" s="105"/>
-      <c r="C38" s="105"/>
-      <c r="D38" s="105"/>
+      <c r="A38" s="75"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="75"/>
       <c r="E38" s="12"/>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
@@ -4608,44 +4604,44 @@
       <c r="K39" s="11"/>
     </row>
     <row r="40" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="58" t="s">
+      <c r="A40" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="49"/>
-      <c r="P40" s="49"/>
-      <c r="Q40" s="50"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="53"/>
     </row>
     <row r="41" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="70" t="s">
+      <c r="A41" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="59" t="s">
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="G41" s="70" t="s">
+      <c r="G41" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="H41" s="55"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="55"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
@@ -4654,25 +4650,25 @@
       <c r="Q41" s="4"/>
     </row>
     <row r="42" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="123" t="s">
+      <c r="A42" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="106" t="s">
+      <c r="B42" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="128" t="s">
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="H42" s="106" t="s">
+      <c r="H42" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="55"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
@@ -4681,17 +4677,17 @@
       <c r="Q42" s="4"/>
     </row>
     <row r="43" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="55"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="55"/>
-      <c r="K43" s="55"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
@@ -4700,17 +4696,17 @@
       <c r="Q43" s="4"/>
     </row>
     <row r="44" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="55"/>
-      <c r="B44" s="55"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="55"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="49"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
@@ -4719,22 +4715,22 @@
       <c r="Q44" s="4"/>
     </row>
     <row r="45" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="124" t="s">
+      <c r="A45" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="107" t="s">
+      <c r="B45" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="107" t="s">
+      <c r="C45" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="107" t="s">
+      <c r="D45" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="E45" s="107" t="s">
+      <c r="E45" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="F45" s="55"/>
+      <c r="F45" s="49"/>
       <c r="H45" s="46" t="s">
         <v>73</v>
       </c>
@@ -4759,12 +4755,12 @@
       <c r="Q45" s="4"/>
     </row>
     <row r="46" spans="1:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="75"/>
-      <c r="B46" s="75"/>
-      <c r="C46" s="75"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="55"/>
+      <c r="A46" s="55"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="49"/>
       <c r="G46" s="15" t="s">
         <v>79</v>
       </c>
@@ -4795,308 +4791,308 @@
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
       <c r="E47" s="17"/>
-      <c r="F47" s="55"/>
+      <c r="F47" s="49"/>
       <c r="G47" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="H47" s="107" t="s">
+      <c r="H47" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="I47" s="75"/>
-      <c r="J47" s="75"/>
-      <c r="K47" s="107" t="s">
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="L47" s="75"/>
-      <c r="M47" s="75"/>
-      <c r="N47" s="107" t="s">
+      <c r="L47" s="55"/>
+      <c r="M47" s="55"/>
+      <c r="N47" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="O47" s="75"/>
-      <c r="P47" s="75"/>
+      <c r="O47" s="55"/>
+      <c r="P47" s="55"/>
       <c r="Q47" s="46" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="82" t="s">
+      <c r="A48" s="61" t="s">
         <v>352</v>
       </c>
-      <c r="B48" s="100" t="s">
+      <c r="B48" s="63" t="s">
         <v>304</v>
       </c>
-      <c r="C48" s="101" t="s">
+      <c r="C48" s="65" t="s">
         <v>324</v>
       </c>
-      <c r="D48" s="101" t="s">
+      <c r="D48" s="65" t="s">
         <v>325</v>
       </c>
-      <c r="E48" s="100"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="100" t="s">
+      <c r="E48" s="63"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="H48" s="101" t="s">
+      <c r="H48" s="65" t="s">
         <v>333</v>
       </c>
-      <c r="I48" s="102"/>
-      <c r="J48" s="102"/>
-      <c r="K48" s="101" t="s">
+      <c r="I48" s="88"/>
+      <c r="J48" s="88"/>
+      <c r="K48" s="65" t="s">
         <v>336</v>
       </c>
-      <c r="L48" s="102"/>
-      <c r="M48" s="102"/>
-      <c r="N48" s="101" t="s">
+      <c r="L48" s="88"/>
+      <c r="M48" s="88"/>
+      <c r="N48" s="65" t="s">
         <v>337</v>
       </c>
-      <c r="O48" s="102"/>
-      <c r="P48" s="102"/>
-      <c r="Q48" s="109"/>
+      <c r="O48" s="88"/>
+      <c r="P48" s="88"/>
+      <c r="Q48" s="87"/>
     </row>
     <row r="49" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="125"/>
-      <c r="B49" s="108"/>
-      <c r="C49" s="100"/>
-      <c r="D49" s="101"/>
-      <c r="E49" s="108"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="102"/>
-      <c r="I49" s="102"/>
-      <c r="J49" s="102"/>
-      <c r="K49" s="102"/>
-      <c r="L49" s="102"/>
-      <c r="M49" s="102"/>
-      <c r="N49" s="102"/>
-      <c r="O49" s="102"/>
-      <c r="P49" s="102"/>
-      <c r="Q49" s="108"/>
+      <c r="A49" s="62"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="88"/>
+      <c r="I49" s="88"/>
+      <c r="J49" s="88"/>
+      <c r="K49" s="88"/>
+      <c r="L49" s="88"/>
+      <c r="M49" s="88"/>
+      <c r="N49" s="88"/>
+      <c r="O49" s="88"/>
+      <c r="P49" s="88"/>
+      <c r="Q49" s="64"/>
     </row>
     <row r="50" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="125"/>
-      <c r="B50" s="108"/>
-      <c r="C50" s="100"/>
-      <c r="D50" s="101"/>
-      <c r="E50" s="108"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="102"/>
-      <c r="I50" s="102"/>
-      <c r="J50" s="102"/>
-      <c r="K50" s="102"/>
-      <c r="L50" s="102"/>
-      <c r="M50" s="102"/>
-      <c r="N50" s="102"/>
-      <c r="O50" s="102"/>
-      <c r="P50" s="102"/>
-      <c r="Q50" s="108"/>
+      <c r="A50" s="62"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="88"/>
+      <c r="I50" s="88"/>
+      <c r="J50" s="88"/>
+      <c r="K50" s="88"/>
+      <c r="L50" s="88"/>
+      <c r="M50" s="88"/>
+      <c r="N50" s="88"/>
+      <c r="O50" s="88"/>
+      <c r="P50" s="88"/>
+      <c r="Q50" s="64"/>
     </row>
     <row r="51" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="82" t="s">
+      <c r="A51" s="61" t="s">
         <v>352</v>
       </c>
-      <c r="B51" s="100" t="s">
+      <c r="B51" s="63" t="s">
         <v>321</v>
       </c>
-      <c r="C51" s="101" t="s">
+      <c r="C51" s="65" t="s">
         <v>322</v>
       </c>
-      <c r="D51" s="101" t="s">
+      <c r="D51" s="65" t="s">
         <v>323</v>
       </c>
-      <c r="E51" s="100"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="100" t="s">
+      <c r="E51" s="63"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="H51" s="101" t="s">
+      <c r="H51" s="65" t="s">
         <v>332</v>
       </c>
-      <c r="I51" s="102"/>
-      <c r="J51" s="102"/>
-      <c r="K51" s="101"/>
-      <c r="L51" s="102"/>
-      <c r="M51" s="102"/>
-      <c r="N51" s="100"/>
-      <c r="O51" s="108"/>
-      <c r="P51" s="108"/>
-      <c r="Q51" s="109"/>
+      <c r="I51" s="88"/>
+      <c r="J51" s="88"/>
+      <c r="K51" s="65"/>
+      <c r="L51" s="88"/>
+      <c r="M51" s="88"/>
+      <c r="N51" s="63"/>
+      <c r="O51" s="64"/>
+      <c r="P51" s="64"/>
+      <c r="Q51" s="87"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="125"/>
-      <c r="B52" s="108"/>
-      <c r="C52" s="100"/>
-      <c r="D52" s="101"/>
-      <c r="E52" s="108"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="102"/>
-      <c r="I52" s="102"/>
-      <c r="J52" s="102"/>
-      <c r="K52" s="102"/>
-      <c r="L52" s="102"/>
-      <c r="M52" s="102"/>
-      <c r="N52" s="108"/>
-      <c r="O52" s="108"/>
-      <c r="P52" s="108"/>
-      <c r="Q52" s="108"/>
+      <c r="A52" s="62"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="88"/>
+      <c r="I52" s="88"/>
+      <c r="J52" s="88"/>
+      <c r="K52" s="88"/>
+      <c r="L52" s="88"/>
+      <c r="M52" s="88"/>
+      <c r="N52" s="64"/>
+      <c r="O52" s="64"/>
+      <c r="P52" s="64"/>
+      <c r="Q52" s="64"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="125"/>
-      <c r="B53" s="108"/>
-      <c r="C53" s="100"/>
-      <c r="D53" s="101"/>
-      <c r="E53" s="108"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="55"/>
-      <c r="H53" s="102"/>
-      <c r="I53" s="102"/>
-      <c r="J53" s="102"/>
-      <c r="K53" s="102"/>
-      <c r="L53" s="102"/>
-      <c r="M53" s="102"/>
-      <c r="N53" s="108"/>
-      <c r="O53" s="108"/>
-      <c r="P53" s="108"/>
-      <c r="Q53" s="108"/>
+      <c r="A53" s="62"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="88"/>
+      <c r="I53" s="88"/>
+      <c r="J53" s="88"/>
+      <c r="K53" s="88"/>
+      <c r="L53" s="88"/>
+      <c r="M53" s="88"/>
+      <c r="N53" s="64"/>
+      <c r="O53" s="64"/>
+      <c r="P53" s="64"/>
+      <c r="Q53" s="64"/>
     </row>
     <row r="54" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="82" t="s">
+      <c r="A54" s="61" t="s">
         <v>353</v>
       </c>
-      <c r="B54" s="100" t="s">
+      <c r="B54" s="63" t="s">
         <v>326</v>
       </c>
-      <c r="C54" s="101" t="s">
+      <c r="C54" s="65" t="s">
         <v>327</v>
       </c>
-      <c r="D54" s="101" t="s">
+      <c r="D54" s="65" t="s">
         <v>328</v>
       </c>
-      <c r="E54" s="100"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="100" t="s">
+      <c r="E54" s="63"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="H54" s="101" t="s">
+      <c r="H54" s="65" t="s">
         <v>334</v>
       </c>
-      <c r="I54" s="102"/>
-      <c r="J54" s="102"/>
-      <c r="K54" s="100"/>
-      <c r="L54" s="108"/>
-      <c r="M54" s="108"/>
-      <c r="N54" s="100"/>
-      <c r="O54" s="108"/>
-      <c r="P54" s="108"/>
-      <c r="Q54" s="109"/>
+      <c r="I54" s="88"/>
+      <c r="J54" s="88"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="64"/>
+      <c r="M54" s="64"/>
+      <c r="N54" s="63"/>
+      <c r="O54" s="64"/>
+      <c r="P54" s="64"/>
+      <c r="Q54" s="87"/>
     </row>
     <row r="55" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="82"/>
-      <c r="B55" s="108"/>
-      <c r="C55" s="100"/>
-      <c r="D55" s="101"/>
-      <c r="E55" s="108"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="102"/>
-      <c r="I55" s="102"/>
-      <c r="J55" s="102"/>
-      <c r="K55" s="108"/>
-      <c r="L55" s="108"/>
-      <c r="M55" s="108"/>
-      <c r="N55" s="108"/>
-      <c r="O55" s="108"/>
-      <c r="P55" s="108"/>
-      <c r="Q55" s="108"/>
+      <c r="A55" s="61"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="64"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="88"/>
+      <c r="I55" s="88"/>
+      <c r="J55" s="88"/>
+      <c r="K55" s="64"/>
+      <c r="L55" s="64"/>
+      <c r="M55" s="64"/>
+      <c r="N55" s="64"/>
+      <c r="O55" s="64"/>
+      <c r="P55" s="64"/>
+      <c r="Q55" s="64"/>
     </row>
     <row r="56" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="82"/>
-      <c r="B56" s="108"/>
-      <c r="C56" s="100"/>
-      <c r="D56" s="101"/>
-      <c r="E56" s="108"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="102"/>
-      <c r="I56" s="102"/>
-      <c r="J56" s="102"/>
-      <c r="K56" s="108"/>
-      <c r="L56" s="108"/>
-      <c r="M56" s="108"/>
-      <c r="N56" s="108"/>
-      <c r="O56" s="108"/>
-      <c r="P56" s="108"/>
-      <c r="Q56" s="108"/>
+      <c r="A56" s="61"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="88"/>
+      <c r="I56" s="88"/>
+      <c r="J56" s="88"/>
+      <c r="K56" s="64"/>
+      <c r="L56" s="64"/>
+      <c r="M56" s="64"/>
+      <c r="N56" s="64"/>
+      <c r="O56" s="64"/>
+      <c r="P56" s="64"/>
+      <c r="Q56" s="64"/>
     </row>
     <row r="57" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="82" t="s">
+      <c r="A57" s="61" t="s">
         <v>353</v>
       </c>
-      <c r="B57" s="100" t="s">
+      <c r="B57" s="63" t="s">
         <v>329</v>
       </c>
-      <c r="C57" s="101" t="s">
+      <c r="C57" s="65" t="s">
         <v>330</v>
       </c>
-      <c r="D57" s="101" t="s">
+      <c r="D57" s="65" t="s">
         <v>331</v>
       </c>
-      <c r="E57" s="100"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="100" t="s">
+      <c r="E57" s="63"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="H57" s="101" t="s">
+      <c r="H57" s="65" t="s">
         <v>335</v>
       </c>
-      <c r="I57" s="102"/>
-      <c r="J57" s="102"/>
-      <c r="K57" s="100"/>
-      <c r="L57" s="108"/>
-      <c r="M57" s="108"/>
-      <c r="N57" s="100"/>
-      <c r="O57" s="108"/>
-      <c r="P57" s="108"/>
-      <c r="Q57" s="109"/>
+      <c r="I57" s="88"/>
+      <c r="J57" s="88"/>
+      <c r="K57" s="63"/>
+      <c r="L57" s="64"/>
+      <c r="M57" s="64"/>
+      <c r="N57" s="63"/>
+      <c r="O57" s="64"/>
+      <c r="P57" s="64"/>
+      <c r="Q57" s="87"/>
     </row>
     <row r="58" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="82"/>
-      <c r="B58" s="108"/>
-      <c r="C58" s="100"/>
-      <c r="D58" s="101"/>
-      <c r="E58" s="108"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="102"/>
-      <c r="I58" s="102"/>
-      <c r="J58" s="102"/>
-      <c r="K58" s="108"/>
-      <c r="L58" s="108"/>
-      <c r="M58" s="108"/>
-      <c r="N58" s="108"/>
-      <c r="O58" s="108"/>
-      <c r="P58" s="108"/>
-      <c r="Q58" s="108"/>
+      <c r="A58" s="61"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="88"/>
+      <c r="I58" s="88"/>
+      <c r="J58" s="88"/>
+      <c r="K58" s="64"/>
+      <c r="L58" s="64"/>
+      <c r="M58" s="64"/>
+      <c r="N58" s="64"/>
+      <c r="O58" s="64"/>
+      <c r="P58" s="64"/>
+      <c r="Q58" s="64"/>
     </row>
     <row r="59" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="82"/>
-      <c r="B59" s="108"/>
-      <c r="C59" s="100"/>
-      <c r="D59" s="101"/>
-      <c r="E59" s="108"/>
-      <c r="F59" s="55"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="102"/>
-      <c r="I59" s="102"/>
-      <c r="J59" s="102"/>
-      <c r="K59" s="108"/>
-      <c r="L59" s="108"/>
-      <c r="M59" s="108"/>
-      <c r="N59" s="108"/>
-      <c r="O59" s="108"/>
-      <c r="P59" s="108"/>
-      <c r="Q59" s="108"/>
+      <c r="A59" s="61"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="88"/>
+      <c r="I59" s="88"/>
+      <c r="J59" s="88"/>
+      <c r="K59" s="64"/>
+      <c r="L59" s="64"/>
+      <c r="M59" s="64"/>
+      <c r="N59" s="64"/>
+      <c r="O59" s="64"/>
+      <c r="P59" s="64"/>
+      <c r="Q59" s="64"/>
     </row>
     <row r="60" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="14"/>
@@ -5117,59 +5113,59 @@
       <c r="Q60" s="42"/>
     </row>
     <row r="61" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="58" t="s">
+      <c r="A61" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="B61" s="49"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="49"/>
-      <c r="K61" s="49"/>
-      <c r="L61" s="49"/>
-      <c r="M61" s="49"/>
-      <c r="N61" s="49"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="52"/>
+      <c r="K61" s="52"/>
+      <c r="L61" s="52"/>
+      <c r="M61" s="52"/>
+      <c r="N61" s="52"/>
       <c r="O61" s="18"/>
     </row>
     <row r="62" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="70" t="s">
+      <c r="A62" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="B62" s="55"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="55"/>
-      <c r="J62" s="55"/>
-      <c r="K62" s="55"/>
-      <c r="L62" s="55"/>
-      <c r="M62" s="55"/>
-      <c r="N62" s="55"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="49"/>
+      <c r="J62" s="49"/>
+      <c r="K62" s="49"/>
+      <c r="L62" s="49"/>
+      <c r="M62" s="49"/>
+      <c r="N62" s="49"/>
     </row>
     <row r="76" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="114" t="s">
+      <c r="A76" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="B76" s="55"/>
-      <c r="C76" s="55"/>
-      <c r="D76" s="55"/>
-      <c r="E76" s="55"/>
-      <c r="F76" s="55"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="55"/>
-      <c r="I76" s="55"/>
-      <c r="J76" s="55"/>
-      <c r="K76" s="55"/>
-      <c r="L76" s="55"/>
-      <c r="M76" s="55"/>
-      <c r="N76" s="55"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="49"/>
+      <c r="I76" s="49"/>
+      <c r="J76" s="49"/>
+      <c r="K76" s="49"/>
+      <c r="L76" s="49"/>
+      <c r="M76" s="49"/>
+      <c r="N76" s="49"/>
     </row>
     <row r="77" spans="1:26" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="47" t="s">
@@ -5193,17 +5189,17 @@
       <c r="G77" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="H77" s="115" t="s">
+      <c r="H77" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="I77" s="75"/>
-      <c r="J77" s="75"/>
+      <c r="I77" s="55"/>
+      <c r="J77" s="55"/>
       <c r="K77" s="19"/>
       <c r="L77" s="19"/>
       <c r="M77" s="19"/>
       <c r="N77" s="19"/>
-      <c r="O77" s="116"/>
-      <c r="P77" s="55"/>
+      <c r="O77" s="86"/>
+      <c r="P77" s="49"/>
       <c r="Q77" s="19"/>
       <c r="R77" s="19"/>
       <c r="S77" s="19"/>
@@ -5216,7 +5212,7 @@
       <c r="Z77" s="19"/>
     </row>
     <row r="78" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="117" t="s">
+      <c r="A78" s="79" t="s">
         <v>95</v>
       </c>
       <c r="B78" s="40" t="s">
@@ -5237,14 +5233,14 @@
       <c r="G78" s="40">
         <v>5</v>
       </c>
-      <c r="H78" s="110" t="s">
+      <c r="H78" s="82" t="s">
         <v>296</v>
       </c>
-      <c r="I78" s="111"/>
-      <c r="J78" s="111"/>
+      <c r="I78" s="83"/>
+      <c r="J78" s="83"/>
     </row>
     <row r="79" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="75"/>
+      <c r="A79" s="55"/>
       <c r="B79" s="40" t="s">
         <v>51</v>
       </c>
@@ -5263,14 +5259,14 @@
       <c r="G79" s="40">
         <v>7</v>
       </c>
-      <c r="H79" s="112" t="s">
+      <c r="H79" s="68" t="s">
         <v>307</v>
       </c>
-      <c r="I79" s="113"/>
-      <c r="J79" s="113"/>
+      <c r="I79" s="69"/>
+      <c r="J79" s="69"/>
     </row>
     <row r="80" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="75"/>
+      <c r="A80" s="55"/>
       <c r="B80" s="40" t="s">
         <v>52</v>
       </c>
@@ -5289,14 +5285,14 @@
       <c r="G80" s="40">
         <v>6</v>
       </c>
-      <c r="H80" s="118" t="s">
+      <c r="H80" s="80" t="s">
         <v>308</v>
       </c>
-      <c r="I80" s="119"/>
-      <c r="J80" s="119"/>
+      <c r="I80" s="81"/>
+      <c r="J80" s="81"/>
     </row>
     <row r="81" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="75"/>
+      <c r="A81" s="55"/>
       <c r="B81" s="40" t="s">
         <v>53</v>
       </c>
@@ -5305,12 +5301,12 @@
       <c r="E81" s="40"/>
       <c r="F81" s="40"/>
       <c r="G81" s="40"/>
-      <c r="H81" s="112"/>
-      <c r="I81" s="113"/>
-      <c r="J81" s="113"/>
+      <c r="H81" s="68"/>
+      <c r="I81" s="69"/>
+      <c r="J81" s="69"/>
     </row>
     <row r="82" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="75"/>
+      <c r="A82" s="55"/>
       <c r="B82" s="40" t="s">
         <v>57</v>
       </c>
@@ -5319,12 +5315,12 @@
       <c r="E82" s="40"/>
       <c r="F82" s="40"/>
       <c r="G82" s="40"/>
-      <c r="H82" s="112"/>
-      <c r="I82" s="113"/>
-      <c r="J82" s="113"/>
+      <c r="H82" s="68"/>
+      <c r="I82" s="69"/>
+      <c r="J82" s="69"/>
     </row>
     <row r="83" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="117" t="s">
+      <c r="A83" s="79" t="s">
         <v>96</v>
       </c>
       <c r="B83" s="40" t="s">
@@ -5335,12 +5331,12 @@
       <c r="E83" s="40"/>
       <c r="F83" s="40"/>
       <c r="G83" s="40"/>
-      <c r="H83" s="112"/>
-      <c r="I83" s="113"/>
-      <c r="J83" s="113"/>
+      <c r="H83" s="68"/>
+      <c r="I83" s="69"/>
+      <c r="J83" s="69"/>
     </row>
     <row r="84" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="75"/>
+      <c r="A84" s="55"/>
       <c r="B84" s="40" t="s">
         <v>51</v>
       </c>
@@ -5349,12 +5345,12 @@
       <c r="E84" s="40"/>
       <c r="F84" s="40"/>
       <c r="G84" s="40"/>
-      <c r="H84" s="112"/>
-      <c r="I84" s="113"/>
-      <c r="J84" s="113"/>
+      <c r="H84" s="68"/>
+      <c r="I84" s="69"/>
+      <c r="J84" s="69"/>
     </row>
     <row r="85" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="75"/>
+      <c r="A85" s="55"/>
       <c r="B85" s="40" t="s">
         <v>52</v>
       </c>
@@ -5363,12 +5359,12 @@
       <c r="E85" s="40"/>
       <c r="F85" s="40"/>
       <c r="G85" s="40"/>
-      <c r="H85" s="112"/>
-      <c r="I85" s="113"/>
-      <c r="J85" s="113"/>
+      <c r="H85" s="68"/>
+      <c r="I85" s="69"/>
+      <c r="J85" s="69"/>
     </row>
     <row r="86" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="75"/>
+      <c r="A86" s="55"/>
       <c r="B86" s="40" t="s">
         <v>53</v>
       </c>
@@ -5377,12 +5373,12 @@
       <c r="E86" s="40"/>
       <c r="F86" s="40"/>
       <c r="G86" s="40"/>
-      <c r="H86" s="112"/>
-      <c r="I86" s="113"/>
-      <c r="J86" s="113"/>
+      <c r="H86" s="68"/>
+      <c r="I86" s="69"/>
+      <c r="J86" s="69"/>
     </row>
     <row r="87" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="75"/>
+      <c r="A87" s="55"/>
       <c r="B87" s="40" t="s">
         <v>57</v>
       </c>
@@ -5391,12 +5387,12 @@
       <c r="E87" s="40"/>
       <c r="F87" s="40"/>
       <c r="G87" s="40"/>
-      <c r="H87" s="112"/>
-      <c r="I87" s="113"/>
-      <c r="J87" s="113"/>
+      <c r="H87" s="68"/>
+      <c r="I87" s="69"/>
+      <c r="J87" s="69"/>
     </row>
     <row r="88" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="117" t="s">
+      <c r="A88" s="79" t="s">
         <v>97</v>
       </c>
       <c r="B88" s="40" t="s">
@@ -5407,12 +5403,12 @@
       <c r="E88" s="40"/>
       <c r="F88" s="40"/>
       <c r="G88" s="40"/>
-      <c r="H88" s="112"/>
-      <c r="I88" s="113"/>
-      <c r="J88" s="113"/>
+      <c r="H88" s="68"/>
+      <c r="I88" s="69"/>
+      <c r="J88" s="69"/>
     </row>
     <row r="89" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="75"/>
+      <c r="A89" s="55"/>
       <c r="B89" s="40" t="s">
         <v>51</v>
       </c>
@@ -5421,12 +5417,12 @@
       <c r="E89" s="40"/>
       <c r="F89" s="40"/>
       <c r="G89" s="40"/>
-      <c r="H89" s="112"/>
-      <c r="I89" s="113"/>
-      <c r="J89" s="113"/>
+      <c r="H89" s="68"/>
+      <c r="I89" s="69"/>
+      <c r="J89" s="69"/>
     </row>
     <row r="90" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="75"/>
+      <c r="A90" s="55"/>
       <c r="B90" s="40" t="s">
         <v>52</v>
       </c>
@@ -5435,12 +5431,12 @@
       <c r="E90" s="40"/>
       <c r="F90" s="40"/>
       <c r="G90" s="40"/>
-      <c r="H90" s="112"/>
-      <c r="I90" s="113"/>
-      <c r="J90" s="113"/>
+      <c r="H90" s="68"/>
+      <c r="I90" s="69"/>
+      <c r="J90" s="69"/>
     </row>
     <row r="91" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="75"/>
+      <c r="A91" s="55"/>
       <c r="B91" s="40" t="s">
         <v>53</v>
       </c>
@@ -5449,14 +5445,14 @@
       <c r="E91" s="40"/>
       <c r="F91" s="40"/>
       <c r="G91" s="40"/>
-      <c r="H91" s="112" t="s">
+      <c r="H91" s="68" t="s">
         <v>309</v>
       </c>
-      <c r="I91" s="113"/>
-      <c r="J91" s="113"/>
+      <c r="I91" s="69"/>
+      <c r="J91" s="69"/>
     </row>
     <row r="92" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="75"/>
+      <c r="A92" s="55"/>
       <c r="B92" s="40" t="s">
         <v>57</v>
       </c>
@@ -5465,12 +5461,12 @@
       <c r="E92" s="40"/>
       <c r="F92" s="40"/>
       <c r="G92" s="40"/>
-      <c r="H92" s="112"/>
-      <c r="I92" s="113"/>
-      <c r="J92" s="113"/>
+      <c r="H92" s="68"/>
+      <c r="I92" s="69"/>
+      <c r="J92" s="69"/>
     </row>
     <row r="93" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="117" t="s">
+      <c r="A93" s="79" t="s">
         <v>98</v>
       </c>
       <c r="B93" s="40" t="s">
@@ -5481,12 +5477,12 @@
       <c r="E93" s="40"/>
       <c r="F93" s="40"/>
       <c r="G93" s="40"/>
-      <c r="H93" s="112"/>
-      <c r="I93" s="113"/>
-      <c r="J93" s="113"/>
+      <c r="H93" s="68"/>
+      <c r="I93" s="69"/>
+      <c r="J93" s="69"/>
     </row>
     <row r="94" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="75"/>
+      <c r="A94" s="55"/>
       <c r="B94" s="40" t="s">
         <v>51</v>
       </c>
@@ -5495,12 +5491,12 @@
       <c r="E94" s="40"/>
       <c r="F94" s="40"/>
       <c r="G94" s="40"/>
-      <c r="H94" s="112"/>
-      <c r="I94" s="113"/>
-      <c r="J94" s="113"/>
+      <c r="H94" s="68"/>
+      <c r="I94" s="69"/>
+      <c r="J94" s="69"/>
     </row>
     <row r="95" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="75"/>
+      <c r="A95" s="55"/>
       <c r="B95" s="40" t="s">
         <v>52</v>
       </c>
@@ -5509,12 +5505,12 @@
       <c r="E95" s="40"/>
       <c r="F95" s="40"/>
       <c r="G95" s="40"/>
-      <c r="H95" s="112"/>
-      <c r="I95" s="113"/>
-      <c r="J95" s="113"/>
+      <c r="H95" s="68"/>
+      <c r="I95" s="69"/>
+      <c r="J95" s="69"/>
     </row>
     <row r="96" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="75"/>
+      <c r="A96" s="55"/>
       <c r="B96" s="40" t="s">
         <v>53</v>
       </c>
@@ -5523,12 +5519,12 @@
       <c r="E96" s="40"/>
       <c r="F96" s="40"/>
       <c r="G96" s="40"/>
-      <c r="H96" s="112"/>
-      <c r="I96" s="113"/>
-      <c r="J96" s="113"/>
+      <c r="H96" s="68"/>
+      <c r="I96" s="69"/>
+      <c r="J96" s="69"/>
     </row>
     <row r="97" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="75"/>
+      <c r="A97" s="55"/>
       <c r="B97" s="40" t="s">
         <v>57</v>
       </c>
@@ -5537,12 +5533,12 @@
       <c r="E97" s="40"/>
       <c r="F97" s="40"/>
       <c r="G97" s="40"/>
-      <c r="H97" s="112"/>
-      <c r="I97" s="113"/>
-      <c r="J97" s="113"/>
+      <c r="H97" s="68"/>
+      <c r="I97" s="69"/>
+      <c r="J97" s="69"/>
     </row>
     <row r="98" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="117" t="s">
+      <c r="A98" s="79" t="s">
         <v>99</v>
       </c>
       <c r="B98" s="40" t="s">
@@ -5553,12 +5549,12 @@
       <c r="E98" s="40"/>
       <c r="F98" s="40"/>
       <c r="G98" s="40"/>
-      <c r="H98" s="112"/>
-      <c r="I98" s="113"/>
-      <c r="J98" s="113"/>
+      <c r="H98" s="68"/>
+      <c r="I98" s="69"/>
+      <c r="J98" s="69"/>
     </row>
     <row r="99" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="75"/>
+      <c r="A99" s="55"/>
       <c r="B99" s="40" t="s">
         <v>51</v>
       </c>
@@ -5567,12 +5563,12 @@
       <c r="E99" s="40"/>
       <c r="F99" s="40"/>
       <c r="G99" s="40"/>
-      <c r="H99" s="112"/>
-      <c r="I99" s="113"/>
-      <c r="J99" s="113"/>
+      <c r="H99" s="68"/>
+      <c r="I99" s="69"/>
+      <c r="J99" s="69"/>
     </row>
     <row r="100" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="75"/>
+      <c r="A100" s="55"/>
       <c r="B100" s="40" t="s">
         <v>52</v>
       </c>
@@ -5581,12 +5577,12 @@
       <c r="E100" s="40"/>
       <c r="F100" s="40"/>
       <c r="G100" s="40"/>
-      <c r="H100" s="112"/>
-      <c r="I100" s="113"/>
-      <c r="J100" s="113"/>
+      <c r="H100" s="68"/>
+      <c r="I100" s="69"/>
+      <c r="J100" s="69"/>
     </row>
     <row r="101" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="75"/>
+      <c r="A101" s="55"/>
       <c r="B101" s="40" t="s">
         <v>53</v>
       </c>
@@ -5595,12 +5591,12 @@
       <c r="E101" s="40"/>
       <c r="F101" s="40"/>
       <c r="G101" s="40"/>
-      <c r="H101" s="112"/>
-      <c r="I101" s="113"/>
-      <c r="J101" s="113"/>
+      <c r="H101" s="68"/>
+      <c r="I101" s="69"/>
+      <c r="J101" s="69"/>
     </row>
     <row r="102" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A102" s="75"/>
+      <c r="A102" s="55"/>
       <c r="B102" s="40" t="s">
         <v>57</v>
       </c>
@@ -5609,62 +5605,173 @@
       <c r="E102" s="40"/>
       <c r="F102" s="40"/>
       <c r="G102" s="40"/>
-      <c r="H102" s="112"/>
-      <c r="I102" s="113"/>
-      <c r="J102" s="113"/>
+      <c r="H102" s="68"/>
+      <c r="I102" s="69"/>
+      <c r="J102" s="69"/>
     </row>
     <row r="103" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="120" t="s">
+      <c r="A103" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="B103" s="121"/>
-      <c r="C103" s="121"/>
-      <c r="D103" s="121"/>
-      <c r="E103" s="121"/>
-      <c r="F103" s="121"/>
-      <c r="G103" s="121"/>
-      <c r="H103" s="121"/>
-      <c r="I103" s="121"/>
-      <c r="J103" s="121"/>
+      <c r="B103" s="67"/>
+      <c r="C103" s="67"/>
+      <c r="D103" s="67"/>
+      <c r="E103" s="67"/>
+      <c r="F103" s="67"/>
+      <c r="G103" s="67"/>
+      <c r="H103" s="67"/>
+      <c r="I103" s="67"/>
+      <c r="J103" s="67"/>
     </row>
     <row r="104" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="121"/>
-      <c r="B104" s="121"/>
-      <c r="C104" s="121"/>
-      <c r="D104" s="121"/>
-      <c r="E104" s="121"/>
-      <c r="F104" s="121"/>
-      <c r="G104" s="121"/>
-      <c r="H104" s="121"/>
-      <c r="I104" s="121"/>
-      <c r="J104" s="121"/>
+      <c r="A104" s="67"/>
+      <c r="B104" s="67"/>
+      <c r="C104" s="67"/>
+      <c r="D104" s="67"/>
+      <c r="E104" s="67"/>
+      <c r="F104" s="67"/>
+      <c r="G104" s="67"/>
+      <c r="H104" s="67"/>
+      <c r="I104" s="67"/>
+      <c r="J104" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="183">
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A40:Q40"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="B42:E44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A8:U8"/>
+    <mergeCell ref="K9:K20"/>
+    <mergeCell ref="S13:U14"/>
+    <mergeCell ref="I11:J18"/>
+    <mergeCell ref="A14:B18"/>
+    <mergeCell ref="C14:D18"/>
+    <mergeCell ref="P11:Q12"/>
+    <mergeCell ref="P14:Q15"/>
+    <mergeCell ref="S15:U16"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="S17:U19"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G30:H31"/>
+    <mergeCell ref="I30:J31"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="R9:R20"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="N11:O12"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="N13:O15"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="A23:Q23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E11:F18"/>
+    <mergeCell ref="G11:H18"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A27:B30"/>
+    <mergeCell ref="C27:D30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="L11:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="H51:J53"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="H54:J56"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="H57:J59"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="I32:J33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:H35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:H37"/>
+    <mergeCell ref="F41:F59"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="H42:K44"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J50"/>
+    <mergeCell ref="I34:J35"/>
+    <mergeCell ref="I36:J37"/>
+    <mergeCell ref="N54:P56"/>
+    <mergeCell ref="Q54:Q56"/>
+    <mergeCell ref="Q57:Q59"/>
+    <mergeCell ref="K48:M50"/>
+    <mergeCell ref="N48:P50"/>
+    <mergeCell ref="Q48:Q50"/>
+    <mergeCell ref="K51:M53"/>
+    <mergeCell ref="N51:P53"/>
+    <mergeCell ref="Q51:Q53"/>
+    <mergeCell ref="K54:M56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="N57:P59"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="K57:M59"/>
+    <mergeCell ref="A61:N61"/>
+    <mergeCell ref="A62:N62"/>
+    <mergeCell ref="A76:N76"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="O77:P77"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="A83:A87"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="A98:A102"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="H102:J102"/>
     <mergeCell ref="A103:J104"/>
     <mergeCell ref="H95:J95"/>
     <mergeCell ref="H96:J96"/>
@@ -5689,141 +5796,30 @@
     <mergeCell ref="A37:B38"/>
     <mergeCell ref="C37:D38"/>
     <mergeCell ref="M33:O33"/>
-    <mergeCell ref="A83:A87"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="A98:A102"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="H90:J90"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="H93:J93"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="N57:P59"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="K57:M59"/>
-    <mergeCell ref="A61:N61"/>
-    <mergeCell ref="A62:N62"/>
-    <mergeCell ref="A76:N76"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="O77:P77"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="N54:P56"/>
-    <mergeCell ref="Q54:Q56"/>
-    <mergeCell ref="Q57:Q59"/>
-    <mergeCell ref="K48:M50"/>
-    <mergeCell ref="N48:P50"/>
-    <mergeCell ref="Q48:Q50"/>
-    <mergeCell ref="K51:M53"/>
-    <mergeCell ref="N51:P53"/>
-    <mergeCell ref="Q51:Q53"/>
-    <mergeCell ref="K54:M56"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="H51:J53"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="H54:J56"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="H57:J59"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="I32:J33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:H35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:H37"/>
-    <mergeCell ref="F41:F59"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="H42:K44"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J50"/>
-    <mergeCell ref="I34:J35"/>
-    <mergeCell ref="I36:J37"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E11:F18"/>
-    <mergeCell ref="G11:H18"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A27:B30"/>
-    <mergeCell ref="C27:D30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="L11:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G30:H31"/>
-    <mergeCell ref="I30:J31"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="R9:R20"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="N11:O12"/>
-    <mergeCell ref="L14:M15"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="N13:O15"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="A23:Q23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A8:U8"/>
-    <mergeCell ref="K9:K20"/>
-    <mergeCell ref="S13:U14"/>
-    <mergeCell ref="I11:J18"/>
-    <mergeCell ref="A14:B18"/>
-    <mergeCell ref="C14:D18"/>
-    <mergeCell ref="P11:Q12"/>
-    <mergeCell ref="P14:Q15"/>
-    <mergeCell ref="S15:U16"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="S17:U19"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A40:Q40"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="B42:E44"/>
+    <mergeCell ref="G42:G44"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C78:G102" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -5853,41 +5849,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50"/>
-      <c r="L1" s="48" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="53"/>
+      <c r="L1" s="115" t="s">
         <v>101</v>
       </c>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="118"/>
       <c r="L2" s="2" t="s">
         <v>102</v>
       </c>
@@ -5908,156 +5904,156 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="56"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="120"/>
       <c r="L3" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="152"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
+      <c r="A4" s="151"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="120"/>
       <c r="L4" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="57"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="53"/>
+      <c r="A5" s="121"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="118"/>
       <c r="L5" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="116" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="53"/>
-      <c r="L6" s="130" t="s">
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="118"/>
+      <c r="L6" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
     </row>
     <row r="7" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="149" t="s">
+      <c r="A7" s="156" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="150" t="s">
+      <c r="B7" s="118"/>
+      <c r="C7" s="152" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="150" t="s">
+      <c r="D7" s="118"/>
+      <c r="E7" s="152" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="150" t="s">
+      <c r="F7" s="118"/>
+      <c r="G7" s="152" t="s">
         <v>112</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="53"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="118"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
     </row>
     <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="116" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="53"/>
-      <c r="L8" s="130" t="s">
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="118"/>
+      <c r="L8" s="132" t="s">
         <v>114</v>
       </c>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
     </row>
     <row r="9" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="151" t="s">
+      <c r="A9" s="157" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="56"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="120"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
     </row>
     <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="152"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="56"/>
+      <c r="A10" s="151"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="120"/>
     </row>
     <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="53"/>
+      <c r="A11" s="121"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="118"/>
     </row>
     <row r="12" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
@@ -6066,98 +6062,98 @@
       <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="50"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="53"/>
     </row>
     <row r="15" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="132" t="s">
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="L15" s="70" t="s">
+      <c r="L15" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="132" t="s">
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="72" t="s">
+      <c r="S15" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="T15" s="55"/>
-      <c r="U15" s="55"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
     </row>
     <row r="16" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="143" t="s">
+      <c r="B16" s="49"/>
+      <c r="C16" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="143" t="s">
+      <c r="D16" s="49"/>
+      <c r="E16" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="55"/>
-      <c r="G16" s="143" t="s">
+      <c r="F16" s="49"/>
+      <c r="G16" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="55"/>
-      <c r="I16" s="142" t="s">
+      <c r="H16" s="49"/>
+      <c r="I16" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="145" t="s">
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="155" t="s">
         <v>116</v>
       </c>
-      <c r="M16" s="55"/>
-      <c r="N16" s="148" t="s">
+      <c r="M16" s="49"/>
+      <c r="N16" s="154" t="s">
         <v>117</v>
       </c>
-      <c r="O16" s="55"/>
-      <c r="P16" s="148" t="s">
+      <c r="O16" s="49"/>
+      <c r="P16" s="154" t="s">
         <v>118</v>
       </c>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
       <c r="S16" s="5" t="s">
         <v>119</v>
       </c>
@@ -6169,193 +6165,193 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="144"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="153"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="155"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="141"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="73" t="s">
+      <c r="A17" s="158"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
     </row>
     <row r="18" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="55"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="145" t="s">
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="155" t="s">
         <v>122</v>
       </c>
-      <c r="M18" s="55"/>
-      <c r="N18" s="146" t="s">
+      <c r="M18" s="49"/>
+      <c r="N18" s="159" t="s">
         <v>123</v>
       </c>
-      <c r="O18" s="55"/>
-      <c r="P18" s="145" t="s">
+      <c r="O18" s="49"/>
+      <c r="P18" s="155" t="s">
         <v>124</v>
       </c>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="123" t="s">
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="T18" s="55"/>
-      <c r="U18" s="55"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49"/>
     </row>
     <row r="19" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="142" t="s">
+      <c r="A19" s="148" t="s">
         <v>125</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="143" t="s">
+      <c r="B19" s="49"/>
+      <c r="C19" s="149" t="s">
         <v>126</v>
       </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="143" t="s">
+      <c r="D19" s="49"/>
+      <c r="E19" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="55"/>
-      <c r="G19" s="143" t="s">
+      <c r="F19" s="49"/>
+      <c r="G19" s="149" t="s">
         <v>127</v>
       </c>
-      <c r="H19" s="55"/>
-      <c r="I19" s="142" t="s">
+      <c r="H19" s="49"/>
+      <c r="I19" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="55"/>
-      <c r="S19" s="55"/>
-      <c r="T19" s="55"/>
-      <c r="U19" s="55"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
     </row>
     <row r="20" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="144"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="153"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="153"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="139" t="s">
+      <c r="A20" s="158"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="133" t="s">
         <v>129</v>
       </c>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="55"/>
-      <c r="S20" s="73" t="s">
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="128" t="s">
         <v>130</v>
       </c>
-      <c r="T20" s="55"/>
-      <c r="U20" s="55"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
     </row>
     <row r="21" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="55"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="55"/>
-      <c r="S21" s="55"/>
-      <c r="T21" s="55"/>
-      <c r="U21" s="55"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
     </row>
     <row r="22" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="142" t="s">
+      <c r="A22" s="148" t="s">
         <v>131</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="143" t="s">
+      <c r="B22" s="49"/>
+      <c r="C22" s="149" t="s">
         <v>132</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="143" t="s">
+      <c r="D22" s="49"/>
+      <c r="E22" s="149" t="s">
         <v>133</v>
       </c>
-      <c r="F22" s="55"/>
-      <c r="G22" s="143" t="s">
+      <c r="F22" s="49"/>
+      <c r="G22" s="149" t="s">
         <v>134</v>
       </c>
-      <c r="H22" s="55"/>
-      <c r="I22" s="142" t="s">
+      <c r="H22" s="49"/>
+      <c r="I22" s="148" t="s">
         <v>135</v>
       </c>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="70" t="s">
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="55"/>
-      <c r="S22" s="157" t="s">
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="141" t="s">
         <v>137</v>
       </c>
-      <c r="T22" s="55"/>
-      <c r="U22" s="55"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
     </row>
     <row r="23" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="153"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="153"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="153"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
+      <c r="A23" s="142"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
       <c r="L23" s="20" t="s">
         <v>29</v>
       </c>
@@ -6374,23 +6370,23 @@
       <c r="Q23" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="R23" s="55"/>
-      <c r="S23" s="55"/>
-      <c r="T23" s="55"/>
-      <c r="U23" s="55"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="49"/>
     </row>
     <row r="24" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="55"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
       <c r="L24" s="21" t="s">
         <v>138</v>
       </c>
@@ -6409,10 +6405,10 @@
       <c r="Q24" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="R24" s="55"/>
-      <c r="S24" s="55"/>
-      <c r="T24" s="55"/>
-      <c r="U24" s="55"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="49"/>
     </row>
     <row r="27" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
@@ -6420,83 +6416,83 @@
       </c>
     </row>
     <row r="29" spans="1:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="58" t="s">
+      <c r="A29" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="50"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="53"/>
     </row>
     <row r="30" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="70" t="s">
+      <c r="A30" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="70" t="s">
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="154" t="s">
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="L30" s="70" t="s">
+      <c r="L30" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="55"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
     </row>
     <row r="31" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B31" s="147" t="s">
+      <c r="B31" s="150" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="123" t="s">
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="76" t="s">
         <v>144</v>
       </c>
-      <c r="G31" s="141" t="s">
+      <c r="G31" s="138" t="s">
         <v>145</v>
       </c>
-      <c r="H31" s="55"/>
-      <c r="I31" s="141" t="s">
+      <c r="H31" s="49"/>
+      <c r="I31" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="116" t="s">
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="55"/>
-      <c r="Q31" s="158" t="s">
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="137" t="s">
         <v>148</v>
       </c>
     </row>
@@ -6516,18 +6512,18 @@
       <c r="E32" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="F32" s="55"/>
-      <c r="G32" s="141"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="141"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="55"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="138"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="49"/>
     </row>
     <row r="33" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
@@ -6535,38 +6531,38 @@
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
-      <c r="F33" s="123" t="s">
+      <c r="F33" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="G33" s="141" t="s">
+      <c r="G33" s="138" t="s">
         <v>151</v>
       </c>
-      <c r="H33" s="55"/>
-      <c r="I33" s="141" t="s">
+      <c r="H33" s="49"/>
+      <c r="I33" s="138" t="s">
         <v>151</v>
       </c>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="116" t="s">
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="86" t="s">
         <v>152</v>
       </c>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="55"/>
-      <c r="P33" s="55"/>
-      <c r="Q33" s="55"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
     </row>
     <row r="34" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B34" s="147" t="s">
+      <c r="B34" s="150" t="s">
         <v>154</v>
       </c>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
       <c r="G34" s="22" t="s">
         <v>155</v>
       </c>
@@ -6579,13 +6575,13 @@
       <c r="J34" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="55"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="55"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
     </row>
     <row r="35" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
@@ -6603,26 +6599,26 @@
       <c r="E35" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="F35" s="123" t="s">
+      <c r="F35" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="G35" s="141" t="s">
+      <c r="G35" s="138" t="s">
         <v>151</v>
       </c>
-      <c r="H35" s="55"/>
-      <c r="I35" s="141" t="s">
+      <c r="H35" s="49"/>
+      <c r="I35" s="138" t="s">
         <v>151</v>
       </c>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="70" t="s">
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="55"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="55"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
     </row>
     <row r="36" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
@@ -6630,7 +6626,7 @@
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
-      <c r="F36" s="55"/>
+      <c r="F36" s="49"/>
       <c r="G36" s="22" t="s">
         <v>155</v>
       </c>
@@ -6643,42 +6639,42 @@
       <c r="J36" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="K36" s="55"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="55"/>
-      <c r="O36" s="55"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="55"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
     </row>
     <row r="37" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B37" s="147" t="s">
+      <c r="B37" s="150" t="s">
         <v>159</v>
       </c>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="123" t="s">
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="G37" s="141" t="s">
+      <c r="G37" s="138" t="s">
         <v>151</v>
       </c>
-      <c r="H37" s="55"/>
-      <c r="I37" s="141" t="s">
+      <c r="H37" s="49"/>
+      <c r="I37" s="138" t="s">
         <v>151</v>
       </c>
-      <c r="J37" s="55"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="55"/>
-      <c r="N37" s="55"/>
-      <c r="O37" s="55"/>
-      <c r="P37" s="55"/>
-      <c r="Q37" s="55"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="49"/>
     </row>
     <row r="38" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
@@ -6696,7 +6692,7 @@
       <c r="E38" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="F38" s="55"/>
+      <c r="F38" s="49"/>
       <c r="G38" s="22" t="s">
         <v>155</v>
       </c>
@@ -6709,17 +6705,17 @@
       <c r="J38" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="K38" s="55"/>
-      <c r="L38" s="131" t="s">
+      <c r="K38" s="49"/>
+      <c r="L38" s="143" t="s">
         <v>161</v>
       </c>
-      <c r="M38" s="55"/>
-      <c r="N38" s="128" t="s">
+      <c r="M38" s="49"/>
+      <c r="N38" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="O38" s="55"/>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="55"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="49"/>
     </row>
     <row r="39" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14"/>
@@ -6727,27 +6723,27 @@
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
-      <c r="F39" s="123" t="s">
+      <c r="F39" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="G39" s="141" t="s">
+      <c r="G39" s="138" t="s">
         <v>151</v>
       </c>
-      <c r="H39" s="55"/>
-      <c r="I39" s="141" t="s">
+      <c r="H39" s="49"/>
+      <c r="I39" s="138" t="s">
         <v>151</v>
       </c>
-      <c r="J39" s="55"/>
-      <c r="K39" s="55"/>
-      <c r="L39" s="55"/>
-      <c r="M39" s="55"/>
-      <c r="N39" s="55"/>
-      <c r="O39" s="55"/>
-      <c r="P39" s="55"/>
-      <c r="Q39" s="55"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="49"/>
     </row>
     <row r="40" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="73" t="s">
+      <c r="A40" s="128" t="s">
         <v>164</v>
       </c>
       <c r="B40" s="14" t="s">
@@ -6762,7 +6758,7 @@
       <c r="E40" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="F40" s="55"/>
+      <c r="F40" s="49"/>
       <c r="G40" s="22" t="s">
         <v>155</v>
       </c>
@@ -6775,9 +6771,9 @@
       <c r="J40" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="K40" s="55"/>
-      <c r="L40" s="55"/>
-      <c r="M40" s="55"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
       <c r="N40" s="23" t="s">
         <v>169</v>
       </c>
@@ -6787,38 +6783,38 @@
       <c r="P40" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="Q40" s="136" t="s">
+      <c r="Q40" s="139" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="55"/>
-      <c r="B41" s="123" t="s">
+      <c r="A41" s="49"/>
+      <c r="B41" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="C41" s="123" t="s">
+      <c r="C41" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="D41" s="123" t="s">
+      <c r="D41" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="E41" s="123" t="s">
+      <c r="E41" s="76" t="s">
         <v>176</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="G41" s="123" t="s">
+      <c r="G41" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="H41" s="55"/>
-      <c r="I41" s="123" t="s">
+      <c r="H41" s="49"/>
+      <c r="I41" s="76" t="s">
         <v>179</v>
       </c>
-      <c r="J41" s="55"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="55"/>
-      <c r="M41" s="55"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="49"/>
       <c r="N41" s="24" t="s">
         <v>170</v>
       </c>
@@ -6828,30 +6824,30 @@
       <c r="P41" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="Q41" s="55"/>
+      <c r="Q41" s="49"/>
     </row>
     <row r="42" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
       <c r="F42" s="129" t="s">
         <v>180</v>
       </c>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
       <c r="K42" s="11"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="55"/>
-      <c r="N42" s="159" t="s">
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="O42" s="55"/>
-      <c r="P42" s="55"/>
-      <c r="Q42" s="55"/>
+      <c r="O42" s="49"/>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="49"/>
     </row>
     <row r="43" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14"/>
@@ -6880,149 +6876,149 @@
       <c r="K44" s="11"/>
     </row>
     <row r="45" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="58" t="s">
+      <c r="A45" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="49"/>
-      <c r="O45" s="49"/>
-      <c r="P45" s="49"/>
-      <c r="Q45" s="50"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="52"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="52"/>
+      <c r="P45" s="52"/>
+      <c r="Q45" s="53"/>
     </row>
     <row r="46" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="70" t="s">
+      <c r="A46" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="55"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="132" t="s">
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="153" t="s">
         <v>63</v>
       </c>
-      <c r="G46" s="70" t="s">
+      <c r="G46" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="H46" s="55"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="55"/>
-      <c r="K46" s="55"/>
-      <c r="L46" s="132" t="s">
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="153" t="s">
         <v>182</v>
       </c>
-      <c r="M46" s="70" t="s">
+      <c r="M46" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="N46" s="55"/>
-      <c r="O46" s="55"/>
-      <c r="P46" s="55"/>
-      <c r="Q46" s="55"/>
+      <c r="N46" s="49"/>
+      <c r="O46" s="49"/>
+      <c r="P46" s="49"/>
+      <c r="Q46" s="49"/>
     </row>
     <row r="47" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="123" t="s">
+      <c r="A47" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="136" t="s">
+      <c r="B47" s="139" t="s">
         <v>184</v>
       </c>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="133" t="s">
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="130" t="s">
         <v>185</v>
       </c>
-      <c r="H47" s="55"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="55"/>
-      <c r="L47" s="55"/>
-      <c r="M47" s="133" t="s">
+      <c r="H47" s="49"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="49"/>
+      <c r="L47" s="49"/>
+      <c r="M47" s="130" t="s">
         <v>186</v>
       </c>
-      <c r="N47" s="55"/>
-      <c r="O47" s="55"/>
-      <c r="P47" s="55"/>
-      <c r="Q47" s="55"/>
+      <c r="N47" s="49"/>
+      <c r="O47" s="49"/>
+      <c r="P47" s="49"/>
+      <c r="Q47" s="49"/>
     </row>
     <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="55"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="55"/>
-      <c r="K48" s="55"/>
-      <c r="L48" s="55"/>
-      <c r="M48" s="55"/>
-      <c r="N48" s="55"/>
-      <c r="O48" s="55"/>
-      <c r="P48" s="55"/>
-      <c r="Q48" s="55"/>
+      <c r="A48" s="49"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="49"/>
+      <c r="M48" s="49"/>
+      <c r="N48" s="49"/>
+      <c r="O48" s="49"/>
+      <c r="P48" s="49"/>
+      <c r="Q48" s="49"/>
     </row>
     <row r="49" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="55"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="116" t="s">
+      <c r="A49" s="49"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="86" t="s">
         <v>187</v>
       </c>
-      <c r="H49" s="55"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="55"/>
-      <c r="K49" s="55"/>
-      <c r="L49" s="55"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="49"/>
       <c r="M49" s="12" t="s">
         <v>188</v>
       </c>
       <c r="N49" s="12"/>
-      <c r="O49" s="141" t="s">
+      <c r="O49" s="138" t="s">
         <v>189</v>
       </c>
-      <c r="P49" s="55"/>
-      <c r="Q49" s="55"/>
+      <c r="P49" s="49"/>
+      <c r="Q49" s="49"/>
     </row>
     <row r="50" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="138" t="s">
+      <c r="A50" s="160" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="138" t="s">
+      <c r="B50" s="160" t="s">
         <v>190</v>
       </c>
-      <c r="C50" s="138" t="s">
+      <c r="C50" s="160" t="s">
         <v>191</v>
       </c>
-      <c r="D50" s="138" t="s">
+      <c r="D50" s="160" t="s">
         <v>192</v>
       </c>
-      <c r="E50" s="138" t="s">
+      <c r="E50" s="160" t="s">
         <v>193</v>
       </c>
-      <c r="F50" s="55"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="55"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="55"/>
-      <c r="K50" s="55"/>
-      <c r="L50" s="55"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
       <c r="M50" s="12" t="s">
         <v>194</v>
       </c>
@@ -7038,12 +7034,12 @@
       </c>
     </row>
     <row r="51" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="55"/>
-      <c r="B51" s="55"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="55"/>
+      <c r="A51" s="49"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
       <c r="G51" s="129" t="s">
         <v>197</v>
       </c>
@@ -7059,74 +7055,74 @@
       <c r="K51" s="129" t="s">
         <v>201</v>
       </c>
-      <c r="L51" s="55"/>
+      <c r="L51" s="49"/>
       <c r="N51" s="12"/>
-      <c r="O51" s="141" t="str">
+      <c r="O51" s="138" t="str">
         <f>A52</f>
         <v>1.</v>
       </c>
-      <c r="P51" s="141"/>
-      <c r="Q51" s="141"/>
+      <c r="P51" s="138"/>
+      <c r="Q51" s="138"/>
     </row>
     <row r="52" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="134" t="s">
+      <c r="A52" s="145" t="s">
         <v>202</v>
       </c>
-      <c r="B52" s="123" t="s">
+      <c r="B52" s="76" t="s">
         <v>203</v>
       </c>
-      <c r="C52" s="131" t="s">
+      <c r="C52" s="143" t="s">
         <v>204</v>
       </c>
-      <c r="D52" s="135" t="s">
+      <c r="D52" s="144" t="s">
         <v>205</v>
       </c>
-      <c r="E52" s="136" t="s">
+      <c r="E52" s="139" t="s">
         <v>206</v>
       </c>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="55"/>
-      <c r="J52" s="55"/>
-      <c r="K52" s="55"/>
-      <c r="L52" s="55"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="49"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="49"/>
       <c r="M52" s="12" t="s">
         <v>207</v>
       </c>
       <c r="N52" s="12"/>
-      <c r="O52" s="55"/>
-      <c r="P52" s="55"/>
-      <c r="Q52" s="55"/>
+      <c r="O52" s="49"/>
+      <c r="P52" s="49"/>
+      <c r="Q52" s="49"/>
     </row>
     <row r="53" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="55"/>
-      <c r="B53" s="55"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="55"/>
-      <c r="H53" s="55"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="55"/>
-      <c r="K53" s="55"/>
-      <c r="L53" s="55"/>
+      <c r="A53" s="49"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="49"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="49"/>
+      <c r="L53" s="49"/>
       <c r="N53" s="12"/>
-      <c r="O53" s="141" t="str">
+      <c r="O53" s="138" t="str">
         <f>A55</f>
         <v>2.</v>
       </c>
-      <c r="P53" s="141"/>
-      <c r="Q53" s="141"/>
+      <c r="P53" s="138"/>
+      <c r="Q53" s="138"/>
     </row>
     <row r="54" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="55"/>
-      <c r="B54" s="55"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="55"/>
+      <c r="A54" s="49"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
       <c r="G54" s="129" t="s">
         <v>208</v>
       </c>
@@ -7142,73 +7138,73 @@
       <c r="K54" s="129" t="s">
         <v>212</v>
       </c>
-      <c r="L54" s="55"/>
+      <c r="L54" s="49"/>
       <c r="M54" s="12" t="s">
         <v>213</v>
       </c>
       <c r="N54" s="12"/>
-      <c r="O54" s="55"/>
-      <c r="P54" s="55"/>
-      <c r="Q54" s="55"/>
+      <c r="O54" s="49"/>
+      <c r="P54" s="49"/>
+      <c r="Q54" s="49"/>
     </row>
     <row r="55" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="134" t="s">
+      <c r="A55" s="145" t="s">
         <v>214</v>
       </c>
-      <c r="B55" s="123" t="s">
+      <c r="B55" s="76" t="s">
         <v>203</v>
       </c>
-      <c r="C55" s="131" t="s">
+      <c r="C55" s="143" t="s">
         <v>215</v>
       </c>
-      <c r="D55" s="135" t="s">
+      <c r="D55" s="144" t="s">
         <v>216</v>
       </c>
-      <c r="E55" s="136" t="s">
+      <c r="E55" s="139" t="s">
         <v>217</v>
       </c>
-      <c r="F55" s="55"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="55"/>
-      <c r="I55" s="55"/>
-      <c r="J55" s="55"/>
-      <c r="K55" s="55"/>
-      <c r="L55" s="55"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="49"/>
+      <c r="J55" s="49"/>
+      <c r="K55" s="49"/>
+      <c r="L55" s="49"/>
       <c r="N55" s="12"/>
-      <c r="O55" s="141" t="str">
+      <c r="O55" s="138" t="str">
         <f>A58</f>
         <v>3.</v>
       </c>
-      <c r="P55" s="141"/>
-      <c r="Q55" s="141"/>
+      <c r="P55" s="138"/>
+      <c r="Q55" s="138"/>
     </row>
     <row r="56" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="55"/>
-      <c r="B56" s="55"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="55"/>
-      <c r="J56" s="55"/>
-      <c r="K56" s="55"/>
-      <c r="L56" s="55"/>
+      <c r="A56" s="49"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="49"/>
+      <c r="J56" s="49"/>
+      <c r="K56" s="49"/>
+      <c r="L56" s="49"/>
       <c r="M56" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="O56" s="55"/>
-      <c r="P56" s="55"/>
-      <c r="Q56" s="55"/>
+      <c r="O56" s="49"/>
+      <c r="P56" s="49"/>
+      <c r="Q56" s="49"/>
     </row>
     <row r="57" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="55"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
+      <c r="A57" s="49"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
       <c r="G57" s="129" t="s">
         <v>219</v>
       </c>
@@ -7224,70 +7220,70 @@
       <c r="K57" s="129" t="s">
         <v>223</v>
       </c>
-      <c r="L57" s="55"/>
-      <c r="O57" s="130" t="str">
+      <c r="L57" s="49"/>
+      <c r="O57" s="132" t="str">
         <f>A61</f>
         <v>4.</v>
       </c>
-      <c r="P57" s="55"/>
-      <c r="Q57" s="55"/>
+      <c r="P57" s="49"/>
+      <c r="Q57" s="49"/>
     </row>
     <row r="58" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="134" t="s">
+      <c r="A58" s="145" t="s">
         <v>224</v>
       </c>
-      <c r="B58" s="123" t="s">
+      <c r="B58" s="76" t="s">
         <v>203</v>
       </c>
-      <c r="C58" s="131" t="s">
+      <c r="C58" s="143" t="s">
         <v>204</v>
       </c>
-      <c r="D58" s="135" t="s">
+      <c r="D58" s="144" t="s">
         <v>225</v>
       </c>
-      <c r="E58" s="136" t="s">
+      <c r="E58" s="139" t="s">
         <v>226</v>
       </c>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="55"/>
-      <c r="J58" s="55"/>
-      <c r="K58" s="55"/>
-      <c r="L58" s="55"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="49"/>
+      <c r="J58" s="49"/>
+      <c r="K58" s="49"/>
+      <c r="L58" s="49"/>
       <c r="M58" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="O58" s="55"/>
-      <c r="P58" s="55"/>
-      <c r="Q58" s="55"/>
+      <c r="O58" s="49"/>
+      <c r="P58" s="49"/>
+      <c r="Q58" s="49"/>
     </row>
     <row r="59" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="55"/>
-      <c r="B59" s="55"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
-      <c r="F59" s="55"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="55"/>
-      <c r="I59" s="55"/>
-      <c r="J59" s="55"/>
-      <c r="K59" s="55"/>
-      <c r="L59" s="55"/>
-      <c r="O59" s="133" t="s">
+      <c r="A59" s="49"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="49"/>
+      <c r="J59" s="49"/>
+      <c r="K59" s="49"/>
+      <c r="L59" s="49"/>
+      <c r="O59" s="130" t="s">
         <v>228</v>
       </c>
-      <c r="P59" s="55"/>
-      <c r="Q59" s="55"/>
+      <c r="P59" s="49"/>
+      <c r="Q59" s="49"/>
     </row>
     <row r="60" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="55"/>
-      <c r="B60" s="55"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="55"/>
+      <c r="A60" s="49"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="49"/>
       <c r="G60" s="129" t="s">
         <v>229</v>
       </c>
@@ -7303,76 +7299,76 @@
       <c r="K60" s="129" t="s">
         <v>233</v>
       </c>
-      <c r="L60" s="55"/>
+      <c r="L60" s="49"/>
       <c r="M60" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="O60" s="55"/>
-      <c r="P60" s="55"/>
-      <c r="Q60" s="55"/>
+      <c r="O60" s="49"/>
+      <c r="P60" s="49"/>
+      <c r="Q60" s="49"/>
     </row>
     <row r="61" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="134" t="s">
+      <c r="A61" s="145" t="s">
         <v>235</v>
       </c>
-      <c r="B61" s="123" t="s">
+      <c r="B61" s="76" t="s">
         <v>203</v>
       </c>
-      <c r="C61" s="131" t="s">
+      <c r="C61" s="143" t="s">
         <v>236</v>
       </c>
-      <c r="D61" s="135" t="s">
+      <c r="D61" s="144" t="s">
         <v>237</v>
       </c>
-      <c r="E61" s="136" t="s">
+      <c r="E61" s="139" t="s">
         <v>238</v>
       </c>
-      <c r="F61" s="55"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="55"/>
-      <c r="J61" s="55"/>
-      <c r="K61" s="55"/>
-      <c r="L61" s="55"/>
-      <c r="O61" s="156" t="s">
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="49"/>
+      <c r="K61" s="49"/>
+      <c r="L61" s="49"/>
+      <c r="O61" s="136" t="s">
         <v>239</v>
       </c>
-      <c r="P61" s="55"/>
-      <c r="Q61" s="55"/>
+      <c r="P61" s="49"/>
+      <c r="Q61" s="49"/>
     </row>
     <row r="62" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="55"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="55"/>
-      <c r="J62" s="55"/>
-      <c r="K62" s="55"/>
-      <c r="L62" s="55"/>
+      <c r="A62" s="49"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="49"/>
+      <c r="J62" s="49"/>
+      <c r="K62" s="49"/>
+      <c r="L62" s="49"/>
       <c r="M62" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="O62" s="55"/>
-      <c r="P62" s="55"/>
-      <c r="Q62" s="55"/>
+      <c r="O62" s="49"/>
+      <c r="P62" s="49"/>
+      <c r="Q62" s="49"/>
     </row>
     <row r="63" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="55"/>
-      <c r="B63" s="55"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="55"/>
-      <c r="F63" s="55"/>
-      <c r="G63" s="123"/>
-      <c r="H63" s="55"/>
-      <c r="I63" s="55"/>
-      <c r="J63" s="55"/>
-      <c r="K63" s="55"/>
-      <c r="L63" s="55"/>
+      <c r="A63" s="49"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="49"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="76"/>
+      <c r="H63" s="49"/>
+      <c r="I63" s="49"/>
+      <c r="J63" s="49"/>
+      <c r="K63" s="49"/>
+      <c r="L63" s="49"/>
     </row>
     <row r="64" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="14"/>
@@ -7380,13 +7376,13 @@
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
-      <c r="F64" s="55"/>
+      <c r="F64" s="49"/>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
       <c r="I64" s="14"/>
       <c r="J64" s="14"/>
       <c r="K64" s="14"/>
-      <c r="L64" s="55"/>
+      <c r="L64" s="49"/>
     </row>
     <row r="65" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="14"/>
@@ -7401,339 +7397,339 @@
       <c r="K65" s="14"/>
     </row>
     <row r="66" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="58" t="s">
+      <c r="A66" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="B66" s="49"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="49"/>
-      <c r="H66" s="49"/>
-      <c r="I66" s="49"/>
-      <c r="J66" s="49"/>
-      <c r="K66" s="49"/>
-      <c r="L66" s="49"/>
-      <c r="M66" s="49"/>
-      <c r="N66" s="49"/>
+      <c r="B66" s="52"/>
+      <c r="C66" s="52"/>
+      <c r="D66" s="52"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="52"/>
+      <c r="J66" s="52"/>
+      <c r="K66" s="52"/>
+      <c r="L66" s="52"/>
+      <c r="M66" s="52"/>
+      <c r="N66" s="52"/>
       <c r="O66" s="18"/>
     </row>
     <row r="67" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="70" t="s">
+      <c r="A67" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="B67" s="55"/>
-      <c r="C67" s="55"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="55"/>
-      <c r="G67" s="55"/>
-      <c r="H67" s="55"/>
-      <c r="I67" s="55"/>
-      <c r="J67" s="55"/>
-      <c r="K67" s="55"/>
-      <c r="L67" s="55"/>
-      <c r="M67" s="55"/>
-      <c r="N67" s="55"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="49"/>
+      <c r="G67" s="49"/>
+      <c r="H67" s="49"/>
+      <c r="I67" s="49"/>
+      <c r="J67" s="49"/>
+      <c r="K67" s="49"/>
+      <c r="L67" s="49"/>
+      <c r="M67" s="49"/>
+      <c r="N67" s="49"/>
     </row>
     <row r="81" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="73" t="s">
+      <c r="A81" s="128" t="s">
         <v>242</v>
       </c>
-      <c r="B81" s="55"/>
-      <c r="C81" s="55"/>
-      <c r="D81" s="55"/>
-      <c r="E81" s="55"/>
-      <c r="F81" s="55"/>
-      <c r="G81" s="55"/>
-      <c r="H81" s="55"/>
-      <c r="I81" s="55"/>
-      <c r="J81" s="55"/>
-      <c r="K81" s="55"/>
-      <c r="L81" s="55"/>
-      <c r="M81" s="55"/>
-      <c r="N81" s="55"/>
+      <c r="B81" s="49"/>
+      <c r="C81" s="49"/>
+      <c r="D81" s="49"/>
+      <c r="E81" s="49"/>
+      <c r="F81" s="49"/>
+      <c r="G81" s="49"/>
+      <c r="H81" s="49"/>
+      <c r="I81" s="49"/>
+      <c r="J81" s="49"/>
+      <c r="K81" s="49"/>
+      <c r="L81" s="49"/>
+      <c r="M81" s="49"/>
+      <c r="N81" s="49"/>
     </row>
     <row r="82" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="130" t="s">
+      <c r="A82" s="132" t="s">
         <v>95</v>
       </c>
-      <c r="B82" s="55"/>
-      <c r="C82" s="130" t="s">
+      <c r="B82" s="49"/>
+      <c r="C82" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="D82" s="55"/>
-      <c r="E82" s="130" t="s">
+      <c r="D82" s="49"/>
+      <c r="E82" s="132" t="s">
         <v>97</v>
       </c>
-      <c r="F82" s="55"/>
-      <c r="G82" s="130" t="s">
+      <c r="F82" s="49"/>
+      <c r="G82" s="132" t="s">
         <v>98</v>
       </c>
-      <c r="H82" s="55"/>
-      <c r="I82" s="130" t="s">
+      <c r="H82" s="49"/>
+      <c r="I82" s="132" t="s">
         <v>99</v>
       </c>
-      <c r="J82" s="55"/>
-      <c r="K82" s="130" t="s">
+      <c r="J82" s="49"/>
+      <c r="K82" s="132" t="s">
         <v>243</v>
       </c>
-      <c r="L82" s="55"/>
-      <c r="M82" s="130" t="s">
+      <c r="L82" s="49"/>
+      <c r="M82" s="132" t="s">
         <v>244</v>
       </c>
-      <c r="N82" s="55"/>
+      <c r="N82" s="49"/>
     </row>
     <row r="83" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="137" t="s">
+      <c r="A83" s="131" t="s">
         <v>245</v>
       </c>
-      <c r="B83" s="55"/>
-      <c r="C83" s="137" t="s">
+      <c r="B83" s="49"/>
+      <c r="C83" s="131" t="s">
         <v>245</v>
       </c>
-      <c r="D83" s="55"/>
-      <c r="E83" s="137" t="s">
+      <c r="D83" s="49"/>
+      <c r="E83" s="131" t="s">
         <v>245</v>
       </c>
-      <c r="F83" s="55"/>
-      <c r="G83" s="137" t="s">
+      <c r="F83" s="49"/>
+      <c r="G83" s="131" t="s">
         <v>245</v>
       </c>
-      <c r="H83" s="55"/>
-      <c r="I83" s="137" t="s">
+      <c r="H83" s="49"/>
+      <c r="I83" s="131" t="s">
         <v>245</v>
       </c>
-      <c r="J83" s="55"/>
-      <c r="K83" s="137" t="s">
+      <c r="J83" s="49"/>
+      <c r="K83" s="131" t="s">
         <v>245</v>
       </c>
-      <c r="L83" s="55"/>
-      <c r="M83" s="137" t="s">
+      <c r="L83" s="49"/>
+      <c r="M83" s="131" t="s">
         <v>245</v>
       </c>
-      <c r="N83" s="55"/>
+      <c r="N83" s="49"/>
     </row>
     <row r="84" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="55"/>
-      <c r="B84" s="55"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="55"/>
-      <c r="E84" s="55"/>
-      <c r="F84" s="55"/>
-      <c r="G84" s="55"/>
-      <c r="H84" s="55"/>
-      <c r="I84" s="55"/>
-      <c r="J84" s="55"/>
-      <c r="K84" s="55"/>
-      <c r="L84" s="55"/>
-      <c r="M84" s="55"/>
-      <c r="N84" s="55"/>
+      <c r="A84" s="49"/>
+      <c r="B84" s="49"/>
+      <c r="C84" s="49"/>
+      <c r="D84" s="49"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="49"/>
+      <c r="I84" s="49"/>
+      <c r="J84" s="49"/>
+      <c r="K84" s="49"/>
+      <c r="L84" s="49"/>
+      <c r="M84" s="49"/>
+      <c r="N84" s="49"/>
     </row>
     <row r="85" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="55"/>
-      <c r="B85" s="55"/>
-      <c r="C85" s="55"/>
-      <c r="D85" s="55"/>
-      <c r="E85" s="55"/>
-      <c r="F85" s="55"/>
-      <c r="G85" s="55"/>
-      <c r="H85" s="55"/>
-      <c r="I85" s="55"/>
-      <c r="J85" s="55"/>
-      <c r="K85" s="55"/>
-      <c r="L85" s="55"/>
-      <c r="M85" s="55"/>
-      <c r="N85" s="55"/>
+      <c r="A85" s="49"/>
+      <c r="B85" s="49"/>
+      <c r="C85" s="49"/>
+      <c r="D85" s="49"/>
+      <c r="E85" s="49"/>
+      <c r="F85" s="49"/>
+      <c r="G85" s="49"/>
+      <c r="H85" s="49"/>
+      <c r="I85" s="49"/>
+      <c r="J85" s="49"/>
+      <c r="K85" s="49"/>
+      <c r="L85" s="49"/>
+      <c r="M85" s="49"/>
+      <c r="N85" s="49"/>
     </row>
     <row r="86" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="129" t="s">
         <v>246</v>
       </c>
-      <c r="B86" s="55"/>
+      <c r="B86" s="49"/>
       <c r="C86" s="129" t="s">
         <v>246</v>
       </c>
-      <c r="D86" s="55"/>
+      <c r="D86" s="49"/>
       <c r="E86" s="129" t="s">
         <v>246</v>
       </c>
-      <c r="F86" s="55"/>
+      <c r="F86" s="49"/>
       <c r="G86" s="129" t="s">
         <v>246</v>
       </c>
-      <c r="H86" s="55"/>
+      <c r="H86" s="49"/>
       <c r="I86" s="129" t="s">
         <v>246</v>
       </c>
-      <c r="J86" s="55"/>
+      <c r="J86" s="49"/>
       <c r="K86" s="129" t="s">
         <v>246</v>
       </c>
-      <c r="L86" s="55"/>
+      <c r="L86" s="49"/>
       <c r="M86" s="129" t="s">
         <v>246</v>
       </c>
-      <c r="N86" s="55"/>
+      <c r="N86" s="49"/>
     </row>
     <row r="87" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="73" t="s">
+      <c r="A87" s="128" t="s">
         <v>247</v>
       </c>
-      <c r="B87" s="55"/>
-      <c r="C87" s="55"/>
-      <c r="D87" s="55"/>
-      <c r="E87" s="55"/>
-      <c r="F87" s="55"/>
-      <c r="G87" s="55"/>
-      <c r="H87" s="55"/>
-      <c r="I87" s="55"/>
-      <c r="J87" s="55"/>
-      <c r="K87" s="55"/>
-      <c r="L87" s="55"/>
-      <c r="M87" s="55"/>
-      <c r="N87" s="55"/>
+      <c r="B87" s="49"/>
+      <c r="C87" s="49"/>
+      <c r="D87" s="49"/>
+      <c r="E87" s="49"/>
+      <c r="F87" s="49"/>
+      <c r="G87" s="49"/>
+      <c r="H87" s="49"/>
+      <c r="I87" s="49"/>
+      <c r="J87" s="49"/>
+      <c r="K87" s="49"/>
+      <c r="L87" s="49"/>
+      <c r="M87" s="49"/>
+      <c r="N87" s="49"/>
     </row>
     <row r="88" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="130" t="s">
+      <c r="A88" s="132" t="s">
         <v>95</v>
       </c>
-      <c r="B88" s="55"/>
-      <c r="C88" s="55"/>
-      <c r="D88" s="55"/>
-      <c r="E88" s="130" t="s">
+      <c r="B88" s="49"/>
+      <c r="C88" s="49"/>
+      <c r="D88" s="49"/>
+      <c r="E88" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="F88" s="55"/>
-      <c r="G88" s="55"/>
-      <c r="H88" s="55"/>
-      <c r="I88" s="130" t="s">
+      <c r="F88" s="49"/>
+      <c r="G88" s="49"/>
+      <c r="H88" s="49"/>
+      <c r="I88" s="132" t="s">
         <v>97</v>
       </c>
-      <c r="J88" s="55"/>
-      <c r="K88" s="55"/>
-      <c r="L88" s="55"/>
-      <c r="M88" s="139" t="s">
+      <c r="J88" s="49"/>
+      <c r="K88" s="49"/>
+      <c r="L88" s="49"/>
+      <c r="M88" s="133" t="s">
         <v>248</v>
       </c>
-      <c r="N88" s="55"/>
+      <c r="N88" s="49"/>
     </row>
     <row r="89" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="139" t="s">
+      <c r="A89" s="133" t="s">
         <v>245</v>
       </c>
-      <c r="B89" s="55"/>
-      <c r="C89" s="55"/>
-      <c r="D89" s="55"/>
-      <c r="E89" s="139" t="s">
+      <c r="B89" s="49"/>
+      <c r="C89" s="49"/>
+      <c r="D89" s="49"/>
+      <c r="E89" s="133" t="s">
         <v>245</v>
       </c>
-      <c r="F89" s="55"/>
-      <c r="G89" s="55"/>
-      <c r="H89" s="55"/>
-      <c r="I89" s="139" t="s">
+      <c r="F89" s="49"/>
+      <c r="G89" s="49"/>
+      <c r="H89" s="49"/>
+      <c r="I89" s="133" t="s">
         <v>245</v>
       </c>
-      <c r="J89" s="55"/>
-      <c r="K89" s="55"/>
-      <c r="L89" s="55"/>
-      <c r="M89" s="55"/>
-      <c r="N89" s="55"/>
+      <c r="J89" s="49"/>
+      <c r="K89" s="49"/>
+      <c r="L89" s="49"/>
+      <c r="M89" s="49"/>
+      <c r="N89" s="49"/>
     </row>
     <row r="90" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="55"/>
-      <c r="B90" s="55"/>
-      <c r="C90" s="55"/>
-      <c r="D90" s="55"/>
-      <c r="E90" s="55"/>
-      <c r="F90" s="55"/>
-      <c r="G90" s="55"/>
-      <c r="H90" s="55"/>
-      <c r="I90" s="55"/>
-      <c r="J90" s="55"/>
-      <c r="K90" s="55"/>
-      <c r="L90" s="55"/>
-      <c r="M90" s="55"/>
-      <c r="N90" s="55"/>
+      <c r="A90" s="49"/>
+      <c r="B90" s="49"/>
+      <c r="C90" s="49"/>
+      <c r="D90" s="49"/>
+      <c r="E90" s="49"/>
+      <c r="F90" s="49"/>
+      <c r="G90" s="49"/>
+      <c r="H90" s="49"/>
+      <c r="I90" s="49"/>
+      <c r="J90" s="49"/>
+      <c r="K90" s="49"/>
+      <c r="L90" s="49"/>
+      <c r="M90" s="49"/>
+      <c r="N90" s="49"/>
     </row>
     <row r="91" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="55"/>
-      <c r="B91" s="55"/>
-      <c r="C91" s="55"/>
-      <c r="D91" s="55"/>
-      <c r="E91" s="55"/>
-      <c r="F91" s="55"/>
-      <c r="G91" s="55"/>
-      <c r="H91" s="55"/>
-      <c r="I91" s="55"/>
-      <c r="J91" s="55"/>
-      <c r="K91" s="55"/>
-      <c r="L91" s="55"/>
-      <c r="M91" s="55"/>
-      <c r="N91" s="55"/>
+      <c r="A91" s="49"/>
+      <c r="B91" s="49"/>
+      <c r="C91" s="49"/>
+      <c r="D91" s="49"/>
+      <c r="E91" s="49"/>
+      <c r="F91" s="49"/>
+      <c r="G91" s="49"/>
+      <c r="H91" s="49"/>
+      <c r="I91" s="49"/>
+      <c r="J91" s="49"/>
+      <c r="K91" s="49"/>
+      <c r="L91" s="49"/>
+      <c r="M91" s="49"/>
+      <c r="N91" s="49"/>
     </row>
     <row r="92" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="55"/>
-      <c r="B92" s="55"/>
-      <c r="C92" s="55"/>
-      <c r="D92" s="55"/>
-      <c r="E92" s="55"/>
-      <c r="F92" s="55"/>
-      <c r="G92" s="55"/>
-      <c r="H92" s="55"/>
-      <c r="I92" s="55"/>
-      <c r="J92" s="55"/>
-      <c r="K92" s="55"/>
-      <c r="L92" s="55"/>
-      <c r="M92" s="55"/>
-      <c r="N92" s="55"/>
+      <c r="A92" s="49"/>
+      <c r="B92" s="49"/>
+      <c r="C92" s="49"/>
+      <c r="D92" s="49"/>
+      <c r="E92" s="49"/>
+      <c r="F92" s="49"/>
+      <c r="G92" s="49"/>
+      <c r="H92" s="49"/>
+      <c r="I92" s="49"/>
+      <c r="J92" s="49"/>
+      <c r="K92" s="49"/>
+      <c r="L92" s="49"/>
+      <c r="M92" s="49"/>
+      <c r="N92" s="49"/>
     </row>
     <row r="94" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="58" t="s">
+      <c r="A94" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="B94" s="49"/>
-      <c r="C94" s="49"/>
-      <c r="D94" s="49"/>
-      <c r="E94" s="49"/>
-      <c r="F94" s="49"/>
-      <c r="G94" s="49"/>
-      <c r="H94" s="49"/>
-      <c r="I94" s="49"/>
-      <c r="J94" s="49"/>
-      <c r="K94" s="49"/>
-      <c r="L94" s="49"/>
-      <c r="M94" s="49"/>
-      <c r="N94" s="49"/>
-      <c r="O94" s="49"/>
-      <c r="P94" s="50"/>
+      <c r="B94" s="52"/>
+      <c r="C94" s="52"/>
+      <c r="D94" s="52"/>
+      <c r="E94" s="52"/>
+      <c r="F94" s="52"/>
+      <c r="G94" s="52"/>
+      <c r="H94" s="52"/>
+      <c r="I94" s="52"/>
+      <c r="J94" s="52"/>
+      <c r="K94" s="52"/>
+      <c r="L94" s="52"/>
+      <c r="M94" s="52"/>
+      <c r="N94" s="52"/>
+      <c r="O94" s="52"/>
+      <c r="P94" s="53"/>
     </row>
     <row r="95" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="70" t="s">
+      <c r="A95" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="B95" s="55"/>
-      <c r="C95" s="55"/>
-      <c r="D95" s="55"/>
-      <c r="E95" s="70" t="s">
+      <c r="B95" s="49"/>
+      <c r="C95" s="49"/>
+      <c r="D95" s="49"/>
+      <c r="E95" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="F95" s="55"/>
-      <c r="G95" s="55"/>
-      <c r="H95" s="55"/>
-      <c r="I95" s="70" t="s">
+      <c r="F95" s="49"/>
+      <c r="G95" s="49"/>
+      <c r="H95" s="49"/>
+      <c r="I95" s="50" t="s">
         <v>252</v>
       </c>
-      <c r="J95" s="55"/>
-      <c r="K95" s="55"/>
-      <c r="L95" s="55"/>
-      <c r="M95" s="70" t="s">
+      <c r="J95" s="49"/>
+      <c r="K95" s="49"/>
+      <c r="L95" s="49"/>
+      <c r="M95" s="50" t="s">
         <v>253</v>
       </c>
-      <c r="N95" s="55"/>
-      <c r="O95" s="55"/>
-      <c r="P95" s="55"/>
+      <c r="N95" s="49"/>
+      <c r="O95" s="49"/>
+      <c r="P95" s="49"/>
     </row>
     <row r="96" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="26" t="s">
@@ -7748,115 +7744,322 @@
       <c r="D96" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="E96" s="133" t="s">
+      <c r="E96" s="130" t="s">
         <v>257</v>
       </c>
-      <c r="F96" s="55"/>
-      <c r="G96" s="55"/>
-      <c r="H96" s="55"/>
-      <c r="I96" s="133" t="s">
+      <c r="F96" s="49"/>
+      <c r="G96" s="49"/>
+      <c r="H96" s="49"/>
+      <c r="I96" s="130" t="s">
         <v>258</v>
       </c>
-      <c r="J96" s="55"/>
-      <c r="K96" s="55"/>
-      <c r="L96" s="55"/>
-      <c r="M96" s="133" t="s">
+      <c r="J96" s="49"/>
+      <c r="K96" s="49"/>
+      <c r="L96" s="49"/>
+      <c r="M96" s="130" t="s">
         <v>259</v>
       </c>
-      <c r="N96" s="55"/>
-      <c r="O96" s="55"/>
-      <c r="P96" s="55"/>
+      <c r="N96" s="49"/>
+      <c r="O96" s="49"/>
+      <c r="P96" s="49"/>
     </row>
     <row r="97" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="140" t="s">
+      <c r="A97" s="134" t="s">
         <v>260</v>
       </c>
-      <c r="B97" s="140" t="s">
+      <c r="B97" s="134" t="s">
         <v>260</v>
       </c>
-      <c r="C97" s="140" t="s">
+      <c r="C97" s="134" t="s">
         <v>260</v>
       </c>
-      <c r="D97" s="140" t="s">
+      <c r="D97" s="134" t="s">
         <v>260</v>
       </c>
-      <c r="E97" s="160" t="str">
+      <c r="E97" s="135" t="str">
         <f>L33</f>
         <v>Làm sao chúng ta có thể visulization... (What2)...cho...(Who2), sẽ giúp cho...(Why2)...theo...(POV2)</v>
       </c>
-      <c r="F97" s="55"/>
-      <c r="G97" s="55"/>
-      <c r="H97" s="55"/>
-      <c r="I97" s="156" t="str">
+      <c r="F97" s="49"/>
+      <c r="G97" s="49"/>
+      <c r="H97" s="49"/>
+      <c r="I97" s="136" t="str">
         <f>O61</f>
         <v>IDEA ?</v>
       </c>
-      <c r="J97" s="55"/>
-      <c r="K97" s="55"/>
-      <c r="L97" s="55"/>
-      <c r="M97" s="137" t="s">
+      <c r="J97" s="49"/>
+      <c r="K97" s="49"/>
+      <c r="L97" s="49"/>
+      <c r="M97" s="131" t="s">
         <v>245</v>
       </c>
-      <c r="N97" s="55"/>
-      <c r="O97" s="55"/>
-      <c r="P97" s="55"/>
+      <c r="N97" s="49"/>
+      <c r="O97" s="49"/>
+      <c r="P97" s="49"/>
     </row>
     <row r="98" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="55"/>
-      <c r="B98" s="55"/>
-      <c r="C98" s="55"/>
-      <c r="D98" s="55"/>
-      <c r="E98" s="55"/>
-      <c r="F98" s="55"/>
-      <c r="G98" s="55"/>
-      <c r="H98" s="55"/>
-      <c r="I98" s="55"/>
-      <c r="J98" s="55"/>
-      <c r="K98" s="55"/>
-      <c r="L98" s="55"/>
-      <c r="M98" s="55"/>
-      <c r="N98" s="55"/>
-      <c r="O98" s="55"/>
-      <c r="P98" s="55"/>
+      <c r="A98" s="49"/>
+      <c r="B98" s="49"/>
+      <c r="C98" s="49"/>
+      <c r="D98" s="49"/>
+      <c r="E98" s="49"/>
+      <c r="F98" s="49"/>
+      <c r="G98" s="49"/>
+      <c r="H98" s="49"/>
+      <c r="I98" s="49"/>
+      <c r="J98" s="49"/>
+      <c r="K98" s="49"/>
+      <c r="L98" s="49"/>
+      <c r="M98" s="49"/>
+      <c r="N98" s="49"/>
+      <c r="O98" s="49"/>
+      <c r="P98" s="49"/>
     </row>
     <row r="99" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="55"/>
-      <c r="B99" s="55"/>
-      <c r="C99" s="55"/>
-      <c r="D99" s="55"/>
-      <c r="E99" s="55"/>
-      <c r="F99" s="55"/>
-      <c r="G99" s="55"/>
-      <c r="H99" s="55"/>
-      <c r="I99" s="55"/>
-      <c r="J99" s="55"/>
-      <c r="K99" s="55"/>
-      <c r="L99" s="55"/>
-      <c r="M99" s="55"/>
-      <c r="N99" s="55"/>
-      <c r="O99" s="55"/>
-      <c r="P99" s="55"/>
+      <c r="A99" s="49"/>
+      <c r="B99" s="49"/>
+      <c r="C99" s="49"/>
+      <c r="D99" s="49"/>
+      <c r="E99" s="49"/>
+      <c r="F99" s="49"/>
+      <c r="G99" s="49"/>
+      <c r="H99" s="49"/>
+      <c r="I99" s="49"/>
+      <c r="J99" s="49"/>
+      <c r="K99" s="49"/>
+      <c r="L99" s="49"/>
+      <c r="M99" s="49"/>
+      <c r="N99" s="49"/>
+      <c r="O99" s="49"/>
+      <c r="P99" s="49"/>
     </row>
     <row r="100" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="55"/>
-      <c r="B100" s="55"/>
-      <c r="C100" s="55"/>
-      <c r="D100" s="55"/>
-      <c r="E100" s="55"/>
-      <c r="F100" s="55"/>
-      <c r="G100" s="55"/>
-      <c r="H100" s="55"/>
-      <c r="I100" s="55"/>
-      <c r="J100" s="55"/>
-      <c r="K100" s="55"/>
-      <c r="L100" s="55"/>
-      <c r="M100" s="55"/>
-      <c r="N100" s="55"/>
-      <c r="O100" s="55"/>
-      <c r="P100" s="55"/>
+      <c r="A100" s="49"/>
+      <c r="B100" s="49"/>
+      <c r="C100" s="49"/>
+      <c r="D100" s="49"/>
+      <c r="E100" s="49"/>
+      <c r="F100" s="49"/>
+      <c r="G100" s="49"/>
+      <c r="H100" s="49"/>
+      <c r="I100" s="49"/>
+      <c r="J100" s="49"/>
+      <c r="K100" s="49"/>
+      <c r="L100" s="49"/>
+      <c r="M100" s="49"/>
+      <c r="N100" s="49"/>
+      <c r="O100" s="49"/>
+      <c r="P100" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="231">
+    <mergeCell ref="K57:K59"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="I60:I62"/>
+    <mergeCell ref="J60:J62"/>
+    <mergeCell ref="K60:K62"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="A66:N66"/>
+    <mergeCell ref="A67:N67"/>
+    <mergeCell ref="A81:N81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="M82:N82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="L46:L64"/>
+    <mergeCell ref="G47:K48"/>
+    <mergeCell ref="G49:K50"/>
+    <mergeCell ref="K54:K56"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="I57:I59"/>
+    <mergeCell ref="J57:J59"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="K83:L85"/>
+    <mergeCell ref="A83:B85"/>
+    <mergeCell ref="C83:D85"/>
+    <mergeCell ref="E83:F85"/>
+    <mergeCell ref="G83:H85"/>
+    <mergeCell ref="I83:J85"/>
+    <mergeCell ref="G63:K63"/>
+    <mergeCell ref="F46:F64"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:E49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="K51:K53"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="M83:N85"/>
+    <mergeCell ref="M88:N92"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="C97:C100"/>
+    <mergeCell ref="G17:H18"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="L18:M21"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="L38:M42"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R15:R24"/>
+    <mergeCell ref="P16:Q17"/>
+    <mergeCell ref="P18:Q21"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:I11"/>
+    <mergeCell ref="A14:U14"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="S18:U19"/>
+    <mergeCell ref="S20:U21"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="K15:K24"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="I20:J21"/>
+    <mergeCell ref="K30:K41"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A45:Q45"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="G46:K46"/>
+    <mergeCell ref="M46:Q46"/>
+    <mergeCell ref="M47:Q48"/>
+    <mergeCell ref="O49:Q49"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="Q55:Q56"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="J54:J56"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="P57:P58"/>
+    <mergeCell ref="Q57:Q58"/>
+    <mergeCell ref="O59:Q60"/>
+    <mergeCell ref="O61:Q62"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="Q53:Q54"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="S22:U24"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="E23:F24"/>
+    <mergeCell ref="G23:H24"/>
+    <mergeCell ref="I23:J24"/>
+    <mergeCell ref="A29:Q29"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="L30:Q30"/>
+    <mergeCell ref="L31:P32"/>
+    <mergeCell ref="Q31:Q34"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="L33:P34"/>
+    <mergeCell ref="L35:Q37"/>
+    <mergeCell ref="N38:Q39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="Q40:Q42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G32:H32"/>
     <mergeCell ref="M86:N86"/>
     <mergeCell ref="A87:N87"/>
     <mergeCell ref="M95:P95"/>
@@ -7881,213 +8084,6 @@
     <mergeCell ref="I97:L100"/>
     <mergeCell ref="A86:B86"/>
     <mergeCell ref="E86:F86"/>
-    <mergeCell ref="L31:P32"/>
-    <mergeCell ref="Q31:Q34"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="L33:P34"/>
-    <mergeCell ref="L35:Q37"/>
-    <mergeCell ref="N38:Q39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="Q40:Q42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="S22:U24"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="E23:F24"/>
-    <mergeCell ref="G23:H24"/>
-    <mergeCell ref="I23:J24"/>
-    <mergeCell ref="A29:Q29"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="L30:Q30"/>
-    <mergeCell ref="P57:P58"/>
-    <mergeCell ref="Q57:Q58"/>
-    <mergeCell ref="O59:Q60"/>
-    <mergeCell ref="O61:Q62"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="Q53:Q54"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A45:Q45"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="G46:K46"/>
-    <mergeCell ref="M46:Q46"/>
-    <mergeCell ref="M47:Q48"/>
-    <mergeCell ref="O49:Q49"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="Q55:Q56"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="J54:J56"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="I20:J21"/>
-    <mergeCell ref="K30:K41"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="L1:Q1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R15:R24"/>
-    <mergeCell ref="P16:Q17"/>
-    <mergeCell ref="P18:Q21"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:I11"/>
-    <mergeCell ref="A14:U14"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="L16:M17"/>
-    <mergeCell ref="N16:O17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="S18:U19"/>
-    <mergeCell ref="S20:U21"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="K15:K24"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="M83:N85"/>
-    <mergeCell ref="M88:N92"/>
-    <mergeCell ref="B97:B100"/>
-    <mergeCell ref="C97:C100"/>
-    <mergeCell ref="G17:H18"/>
-    <mergeCell ref="I17:J18"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="L18:M21"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="N20:O21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="L38:M42"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="K83:L85"/>
-    <mergeCell ref="A83:B85"/>
-    <mergeCell ref="C83:D85"/>
-    <mergeCell ref="E83:F85"/>
-    <mergeCell ref="G83:H85"/>
-    <mergeCell ref="I83:J85"/>
-    <mergeCell ref="G63:K63"/>
-    <mergeCell ref="F46:F64"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:E49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="K51:K53"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="I54:I56"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="I57:I59"/>
-    <mergeCell ref="J57:J59"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="K57:K59"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="I60:I62"/>
-    <mergeCell ref="J60:J62"/>
-    <mergeCell ref="K60:K62"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="K86:L86"/>
-    <mergeCell ref="A66:N66"/>
-    <mergeCell ref="A67:N67"/>
-    <mergeCell ref="A81:N81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="M82:N82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="L46:L64"/>
-    <mergeCell ref="G47:K48"/>
-    <mergeCell ref="G49:K50"/>
-    <mergeCell ref="K54:K56"/>
-    <mergeCell ref="J51:J53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
